--- a/Assignment#5/Assignment_5_Data_and_Template.xlsx
+++ b/Assignment#5/Assignment_5_Data_and_Template.xlsx
@@ -8113,7 +8113,7 @@
     <row r="2">
       <c r="A2" s="1" t="inlineStr">
         <is>
-          <t>M</t>
+          <t>F</t>
         </is>
       </c>
       <c r="B2" s="1" t="n"/>
@@ -8122,12 +8122,14 @@
           <t>Males</t>
         </is>
       </c>
-      <c r="F2" s="1" t="n"/>
+      <c r="F2" s="1" t="n">
+        <v>258</v>
+      </c>
     </row>
     <row r="3">
       <c r="A3" s="1" t="inlineStr">
         <is>
-          <t>F</t>
+          <t>M</t>
         </is>
       </c>
       <c r="B3" s="1" t="n"/>
@@ -8136,12 +8138,14 @@
           <t>Females</t>
         </is>
       </c>
-      <c r="F3" s="1" t="n"/>
+      <c r="F3" s="1" t="n">
+        <v>287</v>
+      </c>
     </row>
     <row r="4">
       <c r="A4" s="1" t="inlineStr">
         <is>
-          <t>F</t>
+          <t>M</t>
         </is>
       </c>
       <c r="B4" s="1" t="n"/>
@@ -8150,12 +8154,14 @@
           <t>Children</t>
         </is>
       </c>
-      <c r="F4" s="1" t="n"/>
+      <c r="F4" s="1" t="n">
+        <v>405</v>
+      </c>
     </row>
     <row r="5">
       <c r="A5" s="1" t="inlineStr">
         <is>
-          <t>F</t>
+          <t>M</t>
         </is>
       </c>
       <c r="B5" s="1" t="n"/>
@@ -8163,7 +8169,7 @@
     <row r="6">
       <c r="A6" s="1" t="inlineStr">
         <is>
-          <t>M</t>
+          <t>F</t>
         </is>
       </c>
       <c r="B6" s="1" t="n"/>
@@ -8171,7 +8177,7 @@
     <row r="7">
       <c r="A7" s="1" t="inlineStr">
         <is>
-          <t>F</t>
+          <t>M</t>
         </is>
       </c>
       <c r="B7" s="1" t="n"/>
@@ -8195,7 +8201,7 @@
     <row r="9">
       <c r="A9" s="1" t="inlineStr">
         <is>
-          <t>M</t>
+          <t>F</t>
         </is>
       </c>
       <c r="B9" s="1" t="n"/>
@@ -8211,7 +8217,7 @@
     <row r="10">
       <c r="A10" s="1" t="inlineStr">
         <is>
-          <t>M</t>
+          <t>F</t>
         </is>
       </c>
       <c r="B10" s="1" t="n"/>
@@ -8227,7 +8233,7 @@
     <row r="12">
       <c r="A12" s="1" t="inlineStr">
         <is>
-          <t>M</t>
+          <t>F</t>
         </is>
       </c>
       <c r="B12" s="1" t="n"/>
@@ -8235,7 +8241,7 @@
     <row r="13">
       <c r="A13" s="1" t="inlineStr">
         <is>
-          <t>M</t>
+          <t>F</t>
         </is>
       </c>
       <c r="B13" s="1" t="n"/>
@@ -8251,7 +8257,7 @@
     <row r="15">
       <c r="A15" s="1" t="inlineStr">
         <is>
-          <t>F</t>
+          <t>M</t>
         </is>
       </c>
       <c r="B15" s="1" t="n"/>
@@ -8259,7 +8265,7 @@
     <row r="16">
       <c r="A16" s="1" t="inlineStr">
         <is>
-          <t>F</t>
+          <t>M</t>
         </is>
       </c>
       <c r="B16" s="1" t="n"/>
@@ -8267,7 +8273,7 @@
     <row r="17">
       <c r="A17" s="1" t="inlineStr">
         <is>
-          <t>F</t>
+          <t>M</t>
         </is>
       </c>
       <c r="B17" s="1" t="n"/>
@@ -8275,7 +8281,7 @@
     <row r="18">
       <c r="A18" s="1" t="inlineStr">
         <is>
-          <t>F</t>
+          <t>M</t>
         </is>
       </c>
       <c r="B18" s="1" t="n"/>
@@ -8299,7 +8305,7 @@
     <row r="21">
       <c r="A21" s="1" t="inlineStr">
         <is>
-          <t>M</t>
+          <t>F</t>
         </is>
       </c>
       <c r="B21" s="1" t="n"/>
@@ -8323,7 +8329,7 @@
     <row r="24">
       <c r="A24" s="1" t="inlineStr">
         <is>
-          <t>M</t>
+          <t>F</t>
         </is>
       </c>
       <c r="B24" s="1" t="n"/>
@@ -8347,7 +8353,7 @@
     <row r="27">
       <c r="A27" s="1" t="inlineStr">
         <is>
-          <t>F</t>
+          <t>M</t>
         </is>
       </c>
       <c r="B27" s="1" t="n"/>
@@ -8355,7 +8361,7 @@
     <row r="28">
       <c r="A28" s="1" t="inlineStr">
         <is>
-          <t>M</t>
+          <t>F</t>
         </is>
       </c>
       <c r="B28" s="1" t="n"/>
@@ -8371,7 +8377,7 @@
     <row r="30">
       <c r="A30" s="1" t="inlineStr">
         <is>
-          <t>F</t>
+          <t>M</t>
         </is>
       </c>
       <c r="B30" s="1" t="n"/>
@@ -8379,7 +8385,7 @@
     <row r="31">
       <c r="A31" s="1" t="inlineStr">
         <is>
-          <t>F</t>
+          <t>M</t>
         </is>
       </c>
       <c r="B31" s="1" t="n"/>
@@ -8387,7 +8393,7 @@
     <row r="32">
       <c r="A32" s="1" t="inlineStr">
         <is>
-          <t>M</t>
+          <t>F</t>
         </is>
       </c>
       <c r="B32" s="1" t="n"/>
@@ -8411,7 +8417,7 @@
     <row r="35">
       <c r="A35" s="1" t="inlineStr">
         <is>
-          <t>M</t>
+          <t>F</t>
         </is>
       </c>
       <c r="B35" s="1" t="n"/>
@@ -8419,7 +8425,7 @@
     <row r="36">
       <c r="A36" s="1" t="inlineStr">
         <is>
-          <t>M</t>
+          <t>F</t>
         </is>
       </c>
       <c r="B36" s="1" t="n"/>
@@ -8427,7 +8433,7 @@
     <row r="37">
       <c r="A37" s="1" t="inlineStr">
         <is>
-          <t>F</t>
+          <t>M</t>
         </is>
       </c>
       <c r="B37" s="1" t="n"/>
@@ -8451,7 +8457,7 @@
     <row r="40">
       <c r="A40" s="1" t="inlineStr">
         <is>
-          <t>M</t>
+          <t>F</t>
         </is>
       </c>
       <c r="B40" s="1" t="n"/>
@@ -8459,7 +8465,7 @@
     <row r="41">
       <c r="A41" s="1" t="inlineStr">
         <is>
-          <t>F</t>
+          <t>M</t>
         </is>
       </c>
       <c r="B41" s="1" t="n"/>
@@ -8467,7 +8473,7 @@
     <row r="42">
       <c r="A42" s="1" t="inlineStr">
         <is>
-          <t>F</t>
+          <t>M</t>
         </is>
       </c>
       <c r="B42" s="1" t="n"/>
@@ -8499,7 +8505,7 @@
     <row r="46">
       <c r="A46" s="1" t="inlineStr">
         <is>
-          <t>F</t>
+          <t>M</t>
         </is>
       </c>
       <c r="B46" s="1" t="n"/>
@@ -8507,7 +8513,7 @@
     <row r="47">
       <c r="A47" s="1" t="inlineStr">
         <is>
-          <t>M</t>
+          <t>F</t>
         </is>
       </c>
       <c r="B47" s="1" t="n"/>
@@ -8515,7 +8521,7 @@
     <row r="48">
       <c r="A48" s="1" t="inlineStr">
         <is>
-          <t>M</t>
+          <t>F</t>
         </is>
       </c>
       <c r="B48" s="1" t="n"/>
@@ -8523,7 +8529,7 @@
     <row r="49">
       <c r="A49" s="1" t="inlineStr">
         <is>
-          <t>F</t>
+          <t>M</t>
         </is>
       </c>
       <c r="B49" s="1" t="n"/>
@@ -8531,7 +8537,7 @@
     <row r="50">
       <c r="A50" s="1" t="inlineStr">
         <is>
-          <t>F</t>
+          <t>M</t>
         </is>
       </c>
       <c r="B50" s="1" t="n"/>
@@ -8547,7 +8553,7 @@
     <row r="52">
       <c r="A52" s="1" t="inlineStr">
         <is>
-          <t>F</t>
+          <t>M</t>
         </is>
       </c>
       <c r="B52" s="1" t="n"/>
@@ -8555,7 +8561,7 @@
     <row r="53">
       <c r="A53" s="1" t="inlineStr">
         <is>
-          <t>M</t>
+          <t>F</t>
         </is>
       </c>
       <c r="B53" s="1" t="n"/>
@@ -8563,7 +8569,7 @@
     <row r="54">
       <c r="A54" s="1" t="inlineStr">
         <is>
-          <t>F</t>
+          <t>M</t>
         </is>
       </c>
       <c r="B54" s="1" t="n"/>
@@ -8587,7 +8593,7 @@
     <row r="57">
       <c r="A57" s="1" t="inlineStr">
         <is>
-          <t>F</t>
+          <t>M</t>
         </is>
       </c>
       <c r="B57" s="1" t="n"/>
@@ -8603,7 +8609,7 @@
     <row r="59">
       <c r="A59" s="1" t="inlineStr">
         <is>
-          <t>F</t>
+          <t>M</t>
         </is>
       </c>
       <c r="B59" s="1" t="n"/>
@@ -8611,7 +8617,7 @@
     <row r="60">
       <c r="A60" s="1" t="inlineStr">
         <is>
-          <t>F</t>
+          <t>M</t>
         </is>
       </c>
       <c r="B60" s="1" t="n"/>
@@ -8619,7 +8625,7 @@
     <row r="61">
       <c r="A61" s="1" t="inlineStr">
         <is>
-          <t>M</t>
+          <t>F</t>
         </is>
       </c>
       <c r="B61" s="1" t="n"/>
@@ -8627,7 +8633,7 @@
     <row r="62">
       <c r="A62" s="1" t="inlineStr">
         <is>
-          <t>M</t>
+          <t>F</t>
         </is>
       </c>
       <c r="B62" s="1" t="n"/>
@@ -8667,7 +8673,7 @@
     <row r="67">
       <c r="A67" s="1" t="inlineStr">
         <is>
-          <t>M</t>
+          <t>F</t>
         </is>
       </c>
       <c r="B67" s="1" t="n"/>
@@ -8675,7 +8681,7 @@
     <row r="68">
       <c r="A68" s="1" t="inlineStr">
         <is>
-          <t>F</t>
+          <t>M</t>
         </is>
       </c>
       <c r="B68" s="1" t="n"/>
@@ -8691,7 +8697,7 @@
     <row r="70">
       <c r="A70" s="1" t="inlineStr">
         <is>
-          <t>M</t>
+          <t>F</t>
         </is>
       </c>
       <c r="B70" s="1" t="n"/>
@@ -8715,7 +8721,7 @@
     <row r="73">
       <c r="A73" s="1" t="inlineStr">
         <is>
-          <t>M</t>
+          <t>F</t>
         </is>
       </c>
       <c r="B73" s="1" t="n"/>
@@ -8731,7 +8737,7 @@
     <row r="75">
       <c r="A75" s="1" t="inlineStr">
         <is>
-          <t>M</t>
+          <t>F</t>
         </is>
       </c>
       <c r="B75" s="1" t="n"/>
@@ -8739,7 +8745,7 @@
     <row r="76">
       <c r="A76" s="1" t="inlineStr">
         <is>
-          <t>F</t>
+          <t>M</t>
         </is>
       </c>
       <c r="B76" s="1" t="n"/>
@@ -8747,7 +8753,7 @@
     <row r="77">
       <c r="A77" s="1" t="inlineStr">
         <is>
-          <t>F</t>
+          <t>M</t>
         </is>
       </c>
       <c r="B77" s="1" t="n"/>
@@ -8755,7 +8761,7 @@
     <row r="78">
       <c r="A78" s="1" t="inlineStr">
         <is>
-          <t>M</t>
+          <t>F</t>
         </is>
       </c>
       <c r="B78" s="1" t="n"/>
@@ -8763,7 +8769,7 @@
     <row r="79">
       <c r="A79" s="1" t="inlineStr">
         <is>
-          <t>M</t>
+          <t>F</t>
         </is>
       </c>
       <c r="B79" s="1" t="n"/>
@@ -8779,7 +8785,7 @@
     <row r="81">
       <c r="A81" s="1" t="inlineStr">
         <is>
-          <t>F</t>
+          <t>M</t>
         </is>
       </c>
       <c r="B81" s="1" t="n"/>
@@ -8795,7 +8801,7 @@
     <row r="83">
       <c r="A83" s="1" t="inlineStr">
         <is>
-          <t>F</t>
+          <t>M</t>
         </is>
       </c>
       <c r="B83" s="1" t="n"/>
@@ -8811,7 +8817,7 @@
     <row r="85">
       <c r="A85" s="1" t="inlineStr">
         <is>
-          <t>F</t>
+          <t>M</t>
         </is>
       </c>
       <c r="B85" s="1" t="n"/>
@@ -8819,7 +8825,7 @@
     <row r="86">
       <c r="A86" s="1" t="inlineStr">
         <is>
-          <t>M</t>
+          <t>F</t>
         </is>
       </c>
       <c r="B86" s="1" t="n"/>
@@ -8827,7 +8833,7 @@
     <row r="87">
       <c r="A87" s="1" t="inlineStr">
         <is>
-          <t>M</t>
+          <t>F</t>
         </is>
       </c>
       <c r="B87" s="1" t="n"/>
@@ -8835,7 +8841,7 @@
     <row r="88">
       <c r="A88" s="1" t="inlineStr">
         <is>
-          <t>F</t>
+          <t>M</t>
         </is>
       </c>
       <c r="B88" s="1" t="n"/>
@@ -8843,7 +8849,7 @@
     <row r="89">
       <c r="A89" s="1" t="inlineStr">
         <is>
-          <t>F</t>
+          <t>M</t>
         </is>
       </c>
       <c r="B89" s="1" t="n"/>
@@ -8899,7 +8905,7 @@
     <row r="96">
       <c r="A96" s="1" t="inlineStr">
         <is>
-          <t>M</t>
+          <t>F</t>
         </is>
       </c>
       <c r="B96" s="1" t="n"/>
@@ -8907,7 +8913,7 @@
     <row r="97">
       <c r="A97" s="1" t="inlineStr">
         <is>
-          <t>M</t>
+          <t>F</t>
         </is>
       </c>
       <c r="B97" s="1" t="n"/>
@@ -8923,7 +8929,7 @@
     <row r="99">
       <c r="A99" s="1" t="inlineStr">
         <is>
-          <t>M</t>
+          <t>F</t>
         </is>
       </c>
       <c r="B99" s="1" t="n"/>
@@ -8931,7 +8937,7 @@
     <row r="100">
       <c r="A100" s="1" t="inlineStr">
         <is>
-          <t>F</t>
+          <t>M</t>
         </is>
       </c>
       <c r="B100" s="1" t="n"/>
@@ -8939,7 +8945,7 @@
     <row r="101">
       <c r="A101" s="1" t="inlineStr">
         <is>
-          <t>F</t>
+          <t>M</t>
         </is>
       </c>
       <c r="B101" s="1" t="n"/>
@@ -8955,7 +8961,7 @@
     <row r="103">
       <c r="A103" s="1" t="inlineStr">
         <is>
-          <t>M</t>
+          <t>F</t>
         </is>
       </c>
       <c r="B103" s="1" t="n"/>
@@ -8963,7 +8969,7 @@
     <row r="104">
       <c r="A104" s="1" t="inlineStr">
         <is>
-          <t>F</t>
+          <t>M</t>
         </is>
       </c>
       <c r="B104" s="1" t="n"/>
@@ -8979,7 +8985,7 @@
     <row r="106">
       <c r="A106" s="1" t="inlineStr">
         <is>
-          <t>F</t>
+          <t>M</t>
         </is>
       </c>
       <c r="B106" s="1" t="n"/>
@@ -8987,7 +8993,7 @@
     <row r="107">
       <c r="A107" s="1" t="inlineStr">
         <is>
-          <t>M</t>
+          <t>F</t>
         </is>
       </c>
       <c r="B107" s="1" t="n"/>
@@ -9011,7 +9017,7 @@
     <row r="110">
       <c r="A110" s="1" t="inlineStr">
         <is>
-          <t>F</t>
+          <t>M</t>
         </is>
       </c>
       <c r="B110" s="1" t="n"/>
@@ -9027,7 +9033,7 @@
     <row r="112">
       <c r="A112" s="1" t="inlineStr">
         <is>
-          <t>M</t>
+          <t>F</t>
         </is>
       </c>
       <c r="B112" s="1" t="n"/>
@@ -9035,7 +9041,7 @@
     <row r="113">
       <c r="A113" s="1" t="inlineStr">
         <is>
-          <t>F</t>
+          <t>M</t>
         </is>
       </c>
       <c r="B113" s="1" t="n"/>
@@ -9043,7 +9049,7 @@
     <row r="114">
       <c r="A114" s="1" t="inlineStr">
         <is>
-          <t>M</t>
+          <t>F</t>
         </is>
       </c>
       <c r="B114" s="1" t="n"/>
@@ -9051,7 +9057,7 @@
     <row r="115">
       <c r="A115" s="1" t="inlineStr">
         <is>
-          <t>M</t>
+          <t>F</t>
         </is>
       </c>
       <c r="B115" s="1" t="n"/>
@@ -9059,7 +9065,7 @@
     <row r="116">
       <c r="A116" s="1" t="inlineStr">
         <is>
-          <t>M</t>
+          <t>F</t>
         </is>
       </c>
       <c r="B116" s="1" t="n"/>
@@ -9091,7 +9097,7 @@
     <row r="120">
       <c r="A120" s="1" t="inlineStr">
         <is>
-          <t>M</t>
+          <t>F</t>
         </is>
       </c>
       <c r="B120" s="1" t="n"/>
@@ -9099,7 +9105,7 @@
     <row r="121">
       <c r="A121" s="1" t="inlineStr">
         <is>
-          <t>M</t>
+          <t>F</t>
         </is>
       </c>
       <c r="B121" s="1" t="n"/>
@@ -9115,7 +9121,7 @@
     <row r="123">
       <c r="A123" s="1" t="inlineStr">
         <is>
-          <t>F</t>
+          <t>M</t>
         </is>
       </c>
       <c r="B123" s="1" t="n"/>
@@ -9123,7 +9129,7 @@
     <row r="124">
       <c r="A124" s="1" t="inlineStr">
         <is>
-          <t>M</t>
+          <t>F</t>
         </is>
       </c>
       <c r="B124" s="1" t="n"/>
@@ -9139,7 +9145,7 @@
     <row r="126">
       <c r="A126" s="1" t="inlineStr">
         <is>
-          <t>F</t>
+          <t>M</t>
         </is>
       </c>
       <c r="B126" s="1" t="n"/>
@@ -9155,7 +9161,7 @@
     <row r="128">
       <c r="A128" s="1" t="inlineStr">
         <is>
-          <t>M</t>
+          <t>F</t>
         </is>
       </c>
       <c r="B128" s="1" t="n"/>
@@ -9163,7 +9169,7 @@
     <row r="129">
       <c r="A129" s="1" t="inlineStr">
         <is>
-          <t>M</t>
+          <t>F</t>
         </is>
       </c>
       <c r="B129" s="1" t="n"/>
@@ -9171,7 +9177,7 @@
     <row r="130">
       <c r="A130" s="1" t="inlineStr">
         <is>
-          <t>F</t>
+          <t>M</t>
         </is>
       </c>
       <c r="B130" s="1" t="n"/>
@@ -9179,7 +9185,7 @@
     <row r="131">
       <c r="A131" s="1" t="inlineStr">
         <is>
-          <t>M</t>
+          <t>F</t>
         </is>
       </c>
       <c r="B131" s="1" t="n"/>
@@ -9187,7 +9193,7 @@
     <row r="132">
       <c r="A132" s="1" t="inlineStr">
         <is>
-          <t>F</t>
+          <t>M</t>
         </is>
       </c>
       <c r="B132" s="1" t="n"/>
@@ -9195,7 +9201,7 @@
     <row r="133">
       <c r="A133" s="1" t="inlineStr">
         <is>
-          <t>F</t>
+          <t>M</t>
         </is>
       </c>
       <c r="B133" s="1" t="n"/>
@@ -9203,7 +9209,7 @@
     <row r="134">
       <c r="A134" s="1" t="inlineStr">
         <is>
-          <t>M</t>
+          <t>F</t>
         </is>
       </c>
       <c r="B134" s="1" t="n"/>
@@ -9211,7 +9217,7 @@
     <row r="135">
       <c r="A135" s="1" t="inlineStr">
         <is>
-          <t>M</t>
+          <t>F</t>
         </is>
       </c>
       <c r="B135" s="1" t="n"/>
@@ -9227,7 +9233,7 @@
     <row r="137">
       <c r="A137" s="1" t="inlineStr">
         <is>
-          <t>M</t>
+          <t>F</t>
         </is>
       </c>
       <c r="B137" s="1" t="n"/>
@@ -9251,7 +9257,7 @@
     <row r="140">
       <c r="A140" s="1" t="inlineStr">
         <is>
-          <t>M</t>
+          <t>F</t>
         </is>
       </c>
       <c r="B140" s="1" t="n"/>
@@ -9283,7 +9289,7 @@
     <row r="144">
       <c r="A144" s="1" t="inlineStr">
         <is>
-          <t>M</t>
+          <t>F</t>
         </is>
       </c>
       <c r="B144" s="1" t="n"/>
@@ -9291,7 +9297,7 @@
     <row r="145">
       <c r="A145" s="1" t="inlineStr">
         <is>
-          <t>F</t>
+          <t>M</t>
         </is>
       </c>
       <c r="B145" s="1" t="n"/>
@@ -9299,7 +9305,7 @@
     <row r="146">
       <c r="A146" s="1" t="inlineStr">
         <is>
-          <t>M</t>
+          <t>F</t>
         </is>
       </c>
       <c r="B146" s="1" t="n"/>
@@ -9307,7 +9313,7 @@
     <row r="147">
       <c r="A147" s="1" t="inlineStr">
         <is>
-          <t>M</t>
+          <t>F</t>
         </is>
       </c>
       <c r="B147" s="1" t="n"/>
@@ -9315,7 +9321,7 @@
     <row r="148">
       <c r="A148" s="1" t="inlineStr">
         <is>
-          <t>M</t>
+          <t>F</t>
         </is>
       </c>
       <c r="B148" s="1" t="n"/>
@@ -9331,7 +9337,7 @@
     <row r="150">
       <c r="A150" s="1" t="inlineStr">
         <is>
-          <t>F</t>
+          <t>M</t>
         </is>
       </c>
       <c r="B150" s="1" t="n"/>
@@ -9339,7 +9345,7 @@
     <row r="151">
       <c r="A151" s="1" t="inlineStr">
         <is>
-          <t>M</t>
+          <t>F</t>
         </is>
       </c>
       <c r="B151" s="1" t="n"/>
@@ -9363,7 +9369,7 @@
     <row r="154">
       <c r="A154" s="1" t="inlineStr">
         <is>
-          <t>M</t>
+          <t>F</t>
         </is>
       </c>
       <c r="B154" s="1" t="n"/>
@@ -9387,7 +9393,7 @@
     <row r="157">
       <c r="A157" s="1" t="inlineStr">
         <is>
-          <t>M</t>
+          <t>F</t>
         </is>
       </c>
       <c r="B157" s="1" t="n"/>
@@ -9395,7 +9401,7 @@
     <row r="158">
       <c r="A158" s="1" t="inlineStr">
         <is>
-          <t>M</t>
+          <t>F</t>
         </is>
       </c>
       <c r="B158" s="1" t="n"/>
@@ -9403,7 +9409,7 @@
     <row r="159">
       <c r="A159" s="1" t="inlineStr">
         <is>
-          <t>M</t>
+          <t>F</t>
         </is>
       </c>
       <c r="B159" s="1" t="n"/>
@@ -9411,7 +9417,7 @@
     <row r="160">
       <c r="A160" s="1" t="inlineStr">
         <is>
-          <t>M</t>
+          <t>F</t>
         </is>
       </c>
       <c r="B160" s="1" t="n"/>
@@ -9419,7 +9425,7 @@
     <row r="161">
       <c r="A161" s="1" t="inlineStr">
         <is>
-          <t>M</t>
+          <t>F</t>
         </is>
       </c>
       <c r="B161" s="1" t="n"/>
@@ -9427,7 +9433,7 @@
     <row r="162">
       <c r="A162" s="1" t="inlineStr">
         <is>
-          <t>F</t>
+          <t>M</t>
         </is>
       </c>
       <c r="B162" s="1" t="n"/>
@@ -9443,7 +9449,7 @@
     <row r="164">
       <c r="A164" s="1" t="inlineStr">
         <is>
-          <t>F</t>
+          <t>M</t>
         </is>
       </c>
       <c r="B164" s="1" t="n"/>
@@ -9451,7 +9457,7 @@
     <row r="165">
       <c r="A165" s="1" t="inlineStr">
         <is>
-          <t>M</t>
+          <t>F</t>
         </is>
       </c>
       <c r="B165" s="1" t="n"/>
@@ -9459,7 +9465,7 @@
     <row r="166">
       <c r="A166" s="1" t="inlineStr">
         <is>
-          <t>M</t>
+          <t>F</t>
         </is>
       </c>
       <c r="B166" s="1" t="n"/>
@@ -9475,7 +9481,7 @@
     <row r="168">
       <c r="A168" s="1" t="inlineStr">
         <is>
-          <t>M</t>
+          <t>F</t>
         </is>
       </c>
       <c r="B168" s="1" t="n"/>
@@ -9491,7 +9497,7 @@
     <row r="170">
       <c r="A170" s="1" t="inlineStr">
         <is>
-          <t>M</t>
+          <t>F</t>
         </is>
       </c>
       <c r="B170" s="1" t="n"/>
@@ -9499,7 +9505,7 @@
     <row r="171">
       <c r="A171" s="1" t="inlineStr">
         <is>
-          <t>F</t>
+          <t>M</t>
         </is>
       </c>
       <c r="B171" s="1" t="n"/>
@@ -9507,7 +9513,7 @@
     <row r="172">
       <c r="A172" s="1" t="inlineStr">
         <is>
-          <t>M</t>
+          <t>F</t>
         </is>
       </c>
       <c r="B172" s="1" t="n"/>
@@ -9515,7 +9521,7 @@
     <row r="173">
       <c r="A173" s="1" t="inlineStr">
         <is>
-          <t>M</t>
+          <t>F</t>
         </is>
       </c>
       <c r="B173" s="1" t="n"/>
@@ -9523,7 +9529,7 @@
     <row r="174">
       <c r="A174" s="1" t="inlineStr">
         <is>
-          <t>F</t>
+          <t>M</t>
         </is>
       </c>
       <c r="B174" s="1" t="n"/>
@@ -9531,7 +9537,7 @@
     <row r="175">
       <c r="A175" s="1" t="inlineStr">
         <is>
-          <t>M</t>
+          <t>F</t>
         </is>
       </c>
       <c r="B175" s="1" t="n"/>
@@ -9547,7 +9553,7 @@
     <row r="177">
       <c r="A177" s="1" t="inlineStr">
         <is>
-          <t>F</t>
+          <t>M</t>
         </is>
       </c>
       <c r="B177" s="1" t="n"/>
@@ -9563,7 +9569,7 @@
     <row r="179">
       <c r="A179" s="1" t="inlineStr">
         <is>
-          <t>M</t>
+          <t>F</t>
         </is>
       </c>
       <c r="B179" s="1" t="n"/>
@@ -9571,7 +9577,7 @@
     <row r="180">
       <c r="A180" s="1" t="inlineStr">
         <is>
-          <t>M</t>
+          <t>F</t>
         </is>
       </c>
       <c r="B180" s="1" t="n"/>
@@ -9579,7 +9585,7 @@
     <row r="181">
       <c r="A181" s="1" t="inlineStr">
         <is>
-          <t>M</t>
+          <t>F</t>
         </is>
       </c>
       <c r="B181" s="1" t="n"/>
@@ -9587,7 +9593,7 @@
     <row r="182">
       <c r="A182" s="1" t="inlineStr">
         <is>
-          <t>F</t>
+          <t>M</t>
         </is>
       </c>
       <c r="B182" s="1" t="n"/>
@@ -9595,7 +9601,7 @@
     <row r="183">
       <c r="A183" s="1" t="inlineStr">
         <is>
-          <t>F</t>
+          <t>M</t>
         </is>
       </c>
       <c r="B183" s="1" t="n"/>
@@ -9627,7 +9633,7 @@
     <row r="187">
       <c r="A187" s="1" t="inlineStr">
         <is>
-          <t>F</t>
+          <t>M</t>
         </is>
       </c>
       <c r="B187" s="1" t="n"/>
@@ -9643,7 +9649,7 @@
     <row r="189">
       <c r="A189" s="1" t="inlineStr">
         <is>
-          <t>M</t>
+          <t>F</t>
         </is>
       </c>
       <c r="B189" s="1" t="n"/>
@@ -9667,7 +9673,7 @@
     <row r="192">
       <c r="A192" s="1" t="inlineStr">
         <is>
-          <t>M</t>
+          <t>F</t>
         </is>
       </c>
       <c r="B192" s="1" t="n"/>
@@ -9675,7 +9681,7 @@
     <row r="193">
       <c r="A193" s="1" t="inlineStr">
         <is>
-          <t>F</t>
+          <t>M</t>
         </is>
       </c>
       <c r="B193" s="1" t="n"/>
@@ -9691,7 +9697,7 @@
     <row r="195">
       <c r="A195" s="1" t="inlineStr">
         <is>
-          <t>M</t>
+          <t>F</t>
         </is>
       </c>
       <c r="B195" s="1" t="n"/>
@@ -9699,7 +9705,7 @@
     <row r="196">
       <c r="A196" s="1" t="inlineStr">
         <is>
-          <t>M</t>
+          <t>F</t>
         </is>
       </c>
       <c r="B196" s="1" t="n"/>
@@ -9707,7 +9713,7 @@
     <row r="197">
       <c r="A197" s="1" t="inlineStr">
         <is>
-          <t>F</t>
+          <t>M</t>
         </is>
       </c>
       <c r="B197" s="1" t="n"/>
@@ -9731,7 +9737,7 @@
     <row r="200">
       <c r="A200" s="1" t="inlineStr">
         <is>
-          <t>M</t>
+          <t>F</t>
         </is>
       </c>
       <c r="B200" s="1" t="n"/>
@@ -9739,7 +9745,7 @@
     <row r="201">
       <c r="A201" s="1" t="inlineStr">
         <is>
-          <t>F</t>
+          <t>M</t>
         </is>
       </c>
       <c r="B201" s="1" t="n"/>
@@ -9755,7 +9761,7 @@
     <row r="203">
       <c r="A203" s="1" t="inlineStr">
         <is>
-          <t>F</t>
+          <t>M</t>
         </is>
       </c>
       <c r="B203" s="1" t="n"/>
@@ -9771,7 +9777,7 @@
     <row r="205">
       <c r="A205" s="1" t="inlineStr">
         <is>
-          <t>M</t>
+          <t>F</t>
         </is>
       </c>
       <c r="B205" s="1" t="n"/>
@@ -9811,7 +9817,7 @@
     <row r="210">
       <c r="A210" s="1" t="inlineStr">
         <is>
-          <t>F</t>
+          <t>M</t>
         </is>
       </c>
       <c r="B210" s="1" t="n"/>
@@ -9819,7 +9825,7 @@
     <row r="211">
       <c r="A211" s="1" t="inlineStr">
         <is>
-          <t>M</t>
+          <t>F</t>
         </is>
       </c>
       <c r="B211" s="1" t="n"/>
@@ -9827,7 +9833,7 @@
     <row r="212">
       <c r="A212" s="1" t="inlineStr">
         <is>
-          <t>F</t>
+          <t>M</t>
         </is>
       </c>
       <c r="B212" s="1" t="n"/>
@@ -9835,7 +9841,7 @@
     <row r="213">
       <c r="A213" s="1" t="inlineStr">
         <is>
-          <t>M</t>
+          <t>F</t>
         </is>
       </c>
       <c r="B213" s="1" t="n"/>
@@ -9851,7 +9857,7 @@
     <row r="215">
       <c r="A215" s="1" t="inlineStr">
         <is>
-          <t>M</t>
+          <t>F</t>
         </is>
       </c>
       <c r="B215" s="1" t="n"/>
@@ -9859,7 +9865,7 @@
     <row r="216">
       <c r="A216" s="1" t="inlineStr">
         <is>
-          <t>M</t>
+          <t>F</t>
         </is>
       </c>
       <c r="B216" s="1" t="n"/>
@@ -9867,7 +9873,7 @@
     <row r="217">
       <c r="A217" s="1" t="inlineStr">
         <is>
-          <t>F</t>
+          <t>M</t>
         </is>
       </c>
       <c r="B217" s="1" t="n"/>
@@ -9875,7 +9881,7 @@
     <row r="218">
       <c r="A218" s="1" t="inlineStr">
         <is>
-          <t>M</t>
+          <t>F</t>
         </is>
       </c>
       <c r="B218" s="1" t="n"/>
@@ -9899,7 +9905,7 @@
     <row r="221">
       <c r="A221" s="1" t="inlineStr">
         <is>
-          <t>F</t>
+          <t>M</t>
         </is>
       </c>
       <c r="B221" s="1" t="n"/>
@@ -9939,7 +9945,7 @@
     <row r="226">
       <c r="A226" s="1" t="inlineStr">
         <is>
-          <t>M</t>
+          <t>F</t>
         </is>
       </c>
       <c r="B226" s="1" t="n"/>
@@ -9947,7 +9953,7 @@
     <row r="227">
       <c r="A227" s="1" t="inlineStr">
         <is>
-          <t>M</t>
+          <t>F</t>
         </is>
       </c>
       <c r="B227" s="1" t="n"/>
@@ -9955,7 +9961,7 @@
     <row r="228">
       <c r="A228" s="1" t="inlineStr">
         <is>
-          <t>M</t>
+          <t>F</t>
         </is>
       </c>
       <c r="B228" s="1" t="n"/>
@@ -9971,7 +9977,7 @@
     <row r="230">
       <c r="A230" s="1" t="inlineStr">
         <is>
-          <t>F</t>
+          <t>M</t>
         </is>
       </c>
       <c r="B230" s="1" t="n"/>
@@ -9979,7 +9985,7 @@
     <row r="231">
       <c r="A231" s="1" t="inlineStr">
         <is>
-          <t>F</t>
+          <t>M</t>
         </is>
       </c>
       <c r="B231" s="1" t="n"/>
@@ -9995,7 +10001,7 @@
     <row r="233">
       <c r="A233" s="1" t="inlineStr">
         <is>
-          <t>M</t>
+          <t>F</t>
         </is>
       </c>
       <c r="B233" s="1" t="n"/>
@@ -10003,7 +10009,7 @@
     <row r="234">
       <c r="A234" s="1" t="inlineStr">
         <is>
-          <t>M</t>
+          <t>F</t>
         </is>
       </c>
       <c r="B234" s="1" t="n"/>
@@ -10027,7 +10033,7 @@
     <row r="237">
       <c r="A237" s="1" t="inlineStr">
         <is>
-          <t>M</t>
+          <t>F</t>
         </is>
       </c>
       <c r="B237" s="1" t="n"/>
@@ -10043,7 +10049,7 @@
     <row r="239">
       <c r="A239" s="1" t="inlineStr">
         <is>
-          <t>M</t>
+          <t>F</t>
         </is>
       </c>
       <c r="B239" s="1" t="n"/>
@@ -10051,7 +10057,7 @@
     <row r="240">
       <c r="A240" s="1" t="inlineStr">
         <is>
-          <t>F</t>
+          <t>M</t>
         </is>
       </c>
       <c r="B240" s="1" t="n"/>
@@ -10075,7 +10081,7 @@
     <row r="243">
       <c r="A243" s="1" t="inlineStr">
         <is>
-          <t>M</t>
+          <t>F</t>
         </is>
       </c>
       <c r="B243" s="1" t="n"/>
@@ -10091,7 +10097,7 @@
     <row r="245">
       <c r="A245" s="1" t="inlineStr">
         <is>
-          <t>F</t>
+          <t>M</t>
         </is>
       </c>
       <c r="B245" s="1" t="n"/>
@@ -10123,7 +10129,7 @@
     <row r="249">
       <c r="A249" s="1" t="inlineStr">
         <is>
-          <t>M</t>
+          <t>F</t>
         </is>
       </c>
       <c r="B249" s="1" t="n"/>
@@ -10131,7 +10137,7 @@
     <row r="250">
       <c r="A250" s="1" t="inlineStr">
         <is>
-          <t>M</t>
+          <t>F</t>
         </is>
       </c>
       <c r="B250" s="1" t="n"/>
@@ -10139,7 +10145,7 @@
     <row r="251">
       <c r="A251" s="1" t="inlineStr">
         <is>
-          <t>F</t>
+          <t>M</t>
         </is>
       </c>
       <c r="B251" s="1" t="n"/>
@@ -10187,7 +10193,7 @@
     <row r="257">
       <c r="A257" s="1" t="inlineStr">
         <is>
-          <t>M</t>
+          <t>F</t>
         </is>
       </c>
       <c r="B257" s="1" t="n"/>
@@ -10195,7 +10201,7 @@
     <row r="258">
       <c r="A258" s="1" t="inlineStr">
         <is>
-          <t>F</t>
+          <t>M</t>
         </is>
       </c>
       <c r="B258" s="1" t="n"/>
@@ -10211,7 +10217,7 @@
     <row r="260">
       <c r="A260" s="1" t="inlineStr">
         <is>
-          <t>M</t>
+          <t>F</t>
         </is>
       </c>
       <c r="B260" s="1" t="n"/>
@@ -10219,7 +10225,7 @@
     <row r="261">
       <c r="A261" s="1" t="inlineStr">
         <is>
-          <t>F</t>
+          <t>M</t>
         </is>
       </c>
       <c r="B261" s="1" t="n"/>
@@ -10235,7 +10241,7 @@
     <row r="263">
       <c r="A263" s="1" t="inlineStr">
         <is>
-          <t>F</t>
+          <t>M</t>
         </is>
       </c>
       <c r="B263" s="1" t="n"/>
@@ -10243,7 +10249,7 @@
     <row r="264">
       <c r="A264" s="1" t="inlineStr">
         <is>
-          <t>F</t>
+          <t>M</t>
         </is>
       </c>
       <c r="B264" s="1" t="n"/>
@@ -10251,7 +10257,7 @@
     <row r="265">
       <c r="A265" s="1" t="inlineStr">
         <is>
-          <t>F</t>
+          <t>M</t>
         </is>
       </c>
       <c r="B265" s="1" t="n"/>
@@ -10283,7 +10289,7 @@
     <row r="269">
       <c r="A269" s="1" t="inlineStr">
         <is>
-          <t>M</t>
+          <t>F</t>
         </is>
       </c>
       <c r="B269" s="1" t="n"/>
@@ -10323,7 +10329,7 @@
     <row r="274">
       <c r="A274" s="1" t="inlineStr">
         <is>
-          <t>F</t>
+          <t>M</t>
         </is>
       </c>
       <c r="B274" s="1" t="n"/>
@@ -10331,7 +10337,7 @@
     <row r="275">
       <c r="A275" s="1" t="inlineStr">
         <is>
-          <t>F</t>
+          <t>M</t>
         </is>
       </c>
       <c r="B275" s="1" t="n"/>
@@ -10339,7 +10345,7 @@
     <row r="276">
       <c r="A276" s="1" t="inlineStr">
         <is>
-          <t>M</t>
+          <t>F</t>
         </is>
       </c>
       <c r="B276" s="1" t="n"/>
@@ -10355,7 +10361,7 @@
     <row r="278">
       <c r="A278" s="1" t="inlineStr">
         <is>
-          <t>F</t>
+          <t>M</t>
         </is>
       </c>
       <c r="B278" s="1" t="n"/>
@@ -10363,7 +10369,7 @@
     <row r="279">
       <c r="A279" s="1" t="inlineStr">
         <is>
-          <t>F</t>
+          <t>M</t>
         </is>
       </c>
       <c r="B279" s="1" t="n"/>
@@ -10371,7 +10377,7 @@
     <row r="280">
       <c r="A280" s="1" t="inlineStr">
         <is>
-          <t>F</t>
+          <t>M</t>
         </is>
       </c>
       <c r="B280" s="1" t="n"/>
@@ -10387,7 +10393,7 @@
     <row r="282">
       <c r="A282" s="1" t="inlineStr">
         <is>
-          <t>F</t>
+          <t>M</t>
         </is>
       </c>
       <c r="B282" s="1" t="n"/>
@@ -10395,7 +10401,7 @@
     <row r="283">
       <c r="A283" s="1" t="inlineStr">
         <is>
-          <t>M</t>
+          <t>F</t>
         </is>
       </c>
       <c r="B283" s="1" t="n"/>
@@ -10403,7 +10409,7 @@
     <row r="284">
       <c r="A284" s="1" t="inlineStr">
         <is>
-          <t>M</t>
+          <t>F</t>
         </is>
       </c>
       <c r="B284" s="1" t="n"/>
@@ -10435,7 +10441,7 @@
     <row r="288">
       <c r="A288" s="1" t="inlineStr">
         <is>
-          <t>F</t>
+          <t>M</t>
         </is>
       </c>
       <c r="B288" s="1" t="n"/>
@@ -10451,7 +10457,7 @@
     <row r="290">
       <c r="A290" s="1" t="inlineStr">
         <is>
-          <t>M</t>
+          <t>F</t>
         </is>
       </c>
       <c r="B290" s="1" t="n"/>
@@ -10467,7 +10473,7 @@
     <row r="292">
       <c r="A292" s="1" t="inlineStr">
         <is>
-          <t>M</t>
+          <t>F</t>
         </is>
       </c>
       <c r="B292" s="1" t="n"/>
@@ -10483,7 +10489,7 @@
     <row r="294">
       <c r="A294" s="1" t="inlineStr">
         <is>
-          <t>M</t>
+          <t>F</t>
         </is>
       </c>
       <c r="B294" s="1" t="n"/>
@@ -10499,7 +10505,7 @@
     <row r="296">
       <c r="A296" s="1" t="inlineStr">
         <is>
-          <t>F</t>
+          <t>M</t>
         </is>
       </c>
       <c r="B296" s="1" t="n"/>
@@ -10507,7 +10513,7 @@
     <row r="297">
       <c r="A297" s="1" t="inlineStr">
         <is>
-          <t>M</t>
+          <t>F</t>
         </is>
       </c>
       <c r="B297" s="1" t="n"/>
@@ -10523,7 +10529,7 @@
     <row r="299">
       <c r="A299" s="1" t="inlineStr">
         <is>
-          <t>F</t>
+          <t>M</t>
         </is>
       </c>
       <c r="B299" s="1" t="n"/>
@@ -10531,7 +10537,7 @@
     <row r="300">
       <c r="A300" s="1" t="inlineStr">
         <is>
-          <t>F</t>
+          <t>M</t>
         </is>
       </c>
       <c r="B300" s="1" t="n"/>
@@ -10539,7 +10545,7 @@
     <row r="301">
       <c r="A301" s="1" t="inlineStr">
         <is>
-          <t>F</t>
+          <t>M</t>
         </is>
       </c>
       <c r="B301" s="1" t="n"/>
@@ -10547,7 +10553,7 @@
     <row r="302">
       <c r="A302" s="1" t="inlineStr">
         <is>
-          <t>M</t>
+          <t>F</t>
         </is>
       </c>
       <c r="B302" s="1" t="n"/>
@@ -10595,7 +10601,7 @@
     <row r="308">
       <c r="A308" s="1" t="inlineStr">
         <is>
-          <t>F</t>
+          <t>M</t>
         </is>
       </c>
       <c r="B308" s="1" t="n"/>
@@ -10611,7 +10617,7 @@
     <row r="310">
       <c r="A310" s="1" t="inlineStr">
         <is>
-          <t>F</t>
+          <t>M</t>
         </is>
       </c>
       <c r="B310" s="1" t="n"/>
@@ -10619,7 +10625,7 @@
     <row r="311">
       <c r="A311" s="1" t="inlineStr">
         <is>
-          <t>M</t>
+          <t>F</t>
         </is>
       </c>
       <c r="B311" s="1" t="n"/>
@@ -10627,7 +10633,7 @@
     <row r="312">
       <c r="A312" s="1" t="inlineStr">
         <is>
-          <t>F</t>
+          <t>M</t>
         </is>
       </c>
       <c r="B312" s="1" t="n"/>
@@ -10635,7 +10641,7 @@
     <row r="313">
       <c r="A313" s="1" t="inlineStr">
         <is>
-          <t>M</t>
+          <t>F</t>
         </is>
       </c>
       <c r="B313" s="1" t="n"/>
@@ -10643,7 +10649,7 @@
     <row r="314">
       <c r="A314" s="1" t="inlineStr">
         <is>
-          <t>F</t>
+          <t>M</t>
         </is>
       </c>
       <c r="B314" s="1" t="n"/>
@@ -10675,7 +10681,7 @@
     <row r="318">
       <c r="A318" s="1" t="inlineStr">
         <is>
-          <t>F</t>
+          <t>M</t>
         </is>
       </c>
       <c r="B318" s="1" t="n"/>
@@ -10699,7 +10705,7 @@
     <row r="321">
       <c r="A321" s="1" t="inlineStr">
         <is>
-          <t>M</t>
+          <t>F</t>
         </is>
       </c>
       <c r="B321" s="1" t="n"/>
@@ -10707,7 +10713,7 @@
     <row r="322">
       <c r="A322" s="1" t="inlineStr">
         <is>
-          <t>M</t>
+          <t>F</t>
         </is>
       </c>
       <c r="B322" s="1" t="n"/>
@@ -10739,7 +10745,7 @@
     <row r="326">
       <c r="A326" s="1" t="inlineStr">
         <is>
-          <t>M</t>
+          <t>F</t>
         </is>
       </c>
       <c r="B326" s="1" t="n"/>
@@ -10755,7 +10761,7 @@
     <row r="328">
       <c r="A328" s="1" t="inlineStr">
         <is>
-          <t>F</t>
+          <t>M</t>
         </is>
       </c>
       <c r="B328" s="1" t="n"/>
@@ -10763,7 +10769,7 @@
     <row r="329">
       <c r="A329" s="1" t="inlineStr">
         <is>
-          <t>M</t>
+          <t>F</t>
         </is>
       </c>
       <c r="B329" s="1" t="n"/>
@@ -10779,7 +10785,7 @@
     <row r="331">
       <c r="A331" s="1" t="inlineStr">
         <is>
-          <t>M</t>
+          <t>F</t>
         </is>
       </c>
       <c r="B331" s="1" t="n"/>
@@ -10787,7 +10793,7 @@
     <row r="332">
       <c r="A332" s="1" t="inlineStr">
         <is>
-          <t>F</t>
+          <t>M</t>
         </is>
       </c>
       <c r="B332" s="1" t="n"/>
@@ -10843,7 +10849,7 @@
     <row r="339">
       <c r="A339" s="1" t="inlineStr">
         <is>
-          <t>M</t>
+          <t>F</t>
         </is>
       </c>
       <c r="B339" s="1" t="n"/>
@@ -10867,7 +10873,7 @@
     <row r="342">
       <c r="A342" s="1" t="inlineStr">
         <is>
-          <t>F</t>
+          <t>M</t>
         </is>
       </c>
       <c r="B342" s="1" t="n"/>
@@ -10883,7 +10889,7 @@
     <row r="344">
       <c r="A344" s="1" t="inlineStr">
         <is>
-          <t>M</t>
+          <t>F</t>
         </is>
       </c>
       <c r="B344" s="1" t="n"/>
@@ -10891,7 +10897,7 @@
     <row r="345">
       <c r="A345" s="1" t="inlineStr">
         <is>
-          <t>F</t>
+          <t>M</t>
         </is>
       </c>
       <c r="B345" s="1" t="n"/>
@@ -10923,7 +10929,7 @@
     <row r="349">
       <c r="A349" s="1" t="inlineStr">
         <is>
-          <t>F</t>
+          <t>M</t>
         </is>
       </c>
       <c r="B349" s="1" t="n"/>
@@ -10931,7 +10937,7 @@
     <row r="350">
       <c r="A350" s="1" t="inlineStr">
         <is>
-          <t>M</t>
+          <t>F</t>
         </is>
       </c>
       <c r="B350" s="1" t="n"/>
@@ -10955,7 +10961,7 @@
     <row r="353">
       <c r="A353" s="1" t="inlineStr">
         <is>
-          <t>M</t>
+          <t>F</t>
         </is>
       </c>
       <c r="B353" s="1" t="n"/>
@@ -10963,7 +10969,7 @@
     <row r="354">
       <c r="A354" s="1" t="inlineStr">
         <is>
-          <t>M</t>
+          <t>F</t>
         </is>
       </c>
       <c r="B354" s="1" t="n"/>
@@ -10979,7 +10985,7 @@
     <row r="356">
       <c r="A356" s="1" t="inlineStr">
         <is>
-          <t>F</t>
+          <t>M</t>
         </is>
       </c>
       <c r="B356" s="1" t="n"/>
@@ -10995,7 +11001,7 @@
     <row r="358">
       <c r="A358" s="1" t="inlineStr">
         <is>
-          <t>M</t>
+          <t>F</t>
         </is>
       </c>
       <c r="B358" s="1" t="n"/>
@@ -11003,7 +11009,7 @@
     <row r="359">
       <c r="A359" s="1" t="inlineStr">
         <is>
-          <t>M</t>
+          <t>F</t>
         </is>
       </c>
       <c r="B359" s="1" t="n"/>
@@ -11019,7 +11025,7 @@
     <row r="361">
       <c r="A361" s="1" t="inlineStr">
         <is>
-          <t>M</t>
+          <t>F</t>
         </is>
       </c>
       <c r="B361" s="1" t="n"/>
@@ -11051,7 +11057,7 @@
     <row r="365">
       <c r="A365" s="1" t="inlineStr">
         <is>
-          <t>M</t>
+          <t>F</t>
         </is>
       </c>
       <c r="B365" s="1" t="n"/>
@@ -11059,7 +11065,7 @@
     <row r="366">
       <c r="A366" s="1" t="inlineStr">
         <is>
-          <t>M</t>
+          <t>F</t>
         </is>
       </c>
       <c r="B366" s="1" t="n"/>
@@ -11067,7 +11073,7 @@
     <row r="367">
       <c r="A367" s="1" t="inlineStr">
         <is>
-          <t>F</t>
+          <t>M</t>
         </is>
       </c>
       <c r="B367" s="1" t="n"/>
@@ -11107,7 +11113,7 @@
     <row r="372">
       <c r="A372" s="1" t="inlineStr">
         <is>
-          <t>F</t>
+          <t>M</t>
         </is>
       </c>
       <c r="B372" s="1" t="n"/>
@@ -11123,7 +11129,7 @@
     <row r="374">
       <c r="A374" s="1" t="inlineStr">
         <is>
-          <t>F</t>
+          <t>M</t>
         </is>
       </c>
       <c r="B374" s="1" t="n"/>
@@ -11131,7 +11137,7 @@
     <row r="375">
       <c r="A375" s="1" t="inlineStr">
         <is>
-          <t>F</t>
+          <t>M</t>
         </is>
       </c>
       <c r="B375" s="1" t="n"/>
@@ -11147,7 +11153,7 @@
     <row r="377">
       <c r="A377" s="1" t="inlineStr">
         <is>
-          <t>M</t>
+          <t>F</t>
         </is>
       </c>
       <c r="B377" s="1" t="n"/>
@@ -11155,7 +11161,7 @@
     <row r="378">
       <c r="A378" s="1" t="inlineStr">
         <is>
-          <t>M</t>
+          <t>F</t>
         </is>
       </c>
       <c r="B378" s="1" t="n"/>
@@ -11171,7 +11177,7 @@
     <row r="380">
       <c r="A380" s="1" t="inlineStr">
         <is>
-          <t>F</t>
+          <t>M</t>
         </is>
       </c>
       <c r="B380" s="1" t="n"/>
@@ -11179,7 +11185,7 @@
     <row r="381">
       <c r="A381" s="1" t="inlineStr">
         <is>
-          <t>M</t>
+          <t>F</t>
         </is>
       </c>
       <c r="B381" s="1" t="n"/>
@@ -11187,7 +11193,7 @@
     <row r="382">
       <c r="A382" s="1" t="inlineStr">
         <is>
-          <t>M</t>
+          <t>F</t>
         </is>
       </c>
       <c r="B382" s="1" t="n"/>
@@ -11203,7 +11209,7 @@
     <row r="384">
       <c r="A384" s="1" t="inlineStr">
         <is>
-          <t>F</t>
+          <t>M</t>
         </is>
       </c>
       <c r="B384" s="1" t="n"/>
@@ -11211,7 +11217,7 @@
     <row r="385">
       <c r="A385" s="1" t="inlineStr">
         <is>
-          <t>F</t>
+          <t>M</t>
         </is>
       </c>
       <c r="B385" s="1" t="n"/>
@@ -11219,7 +11225,7 @@
     <row r="386">
       <c r="A386" s="1" t="inlineStr">
         <is>
-          <t>F</t>
+          <t>M</t>
         </is>
       </c>
       <c r="B386" s="1" t="n"/>
@@ -11227,7 +11233,7 @@
     <row r="387">
       <c r="A387" s="1" t="inlineStr">
         <is>
-          <t>M</t>
+          <t>F</t>
         </is>
       </c>
       <c r="B387" s="1" t="n"/>
@@ -11235,7 +11241,7 @@
     <row r="388">
       <c r="A388" s="1" t="inlineStr">
         <is>
-          <t>M</t>
+          <t>F</t>
         </is>
       </c>
       <c r="B388" s="1" t="n"/>
@@ -11243,7 +11249,7 @@
     <row r="389">
       <c r="A389" s="1" t="inlineStr">
         <is>
-          <t>F</t>
+          <t>M</t>
         </is>
       </c>
       <c r="B389" s="1" t="n"/>
@@ -11291,7 +11297,7 @@
     <row r="395">
       <c r="A395" s="1" t="inlineStr">
         <is>
-          <t>M</t>
+          <t>F</t>
         </is>
       </c>
       <c r="B395" s="1" t="n"/>
@@ -11355,7 +11361,7 @@
     <row r="403">
       <c r="A403" s="1" t="inlineStr">
         <is>
-          <t>F</t>
+          <t>M</t>
         </is>
       </c>
       <c r="B403" s="1" t="n"/>
@@ -11371,7 +11377,7 @@
     <row r="405">
       <c r="A405" s="1" t="inlineStr">
         <is>
-          <t>F</t>
+          <t>M</t>
         </is>
       </c>
       <c r="B405" s="1" t="n"/>
@@ -11379,7 +11385,7 @@
     <row r="406">
       <c r="A406" s="1" t="inlineStr">
         <is>
-          <t>M</t>
+          <t>F</t>
         </is>
       </c>
       <c r="B406" s="1" t="n"/>
@@ -11403,7 +11409,7 @@
     <row r="409">
       <c r="A409" s="1" t="inlineStr">
         <is>
-          <t>F</t>
+          <t>M</t>
         </is>
       </c>
       <c r="B409" s="1" t="n"/>
@@ -11419,7 +11425,7 @@
     <row r="411">
       <c r="A411" s="1" t="inlineStr">
         <is>
-          <t>F</t>
+          <t>M</t>
         </is>
       </c>
       <c r="B411" s="1" t="n"/>
@@ -11427,7 +11433,7 @@
     <row r="412">
       <c r="A412" s="1" t="inlineStr">
         <is>
-          <t>M</t>
+          <t>F</t>
         </is>
       </c>
       <c r="B412" s="1" t="n"/>
@@ -11435,7 +11441,7 @@
     <row r="413">
       <c r="A413" s="1" t="inlineStr">
         <is>
-          <t>M</t>
+          <t>F</t>
         </is>
       </c>
       <c r="B413" s="1" t="n"/>
@@ -11443,7 +11449,7 @@
     <row r="414">
       <c r="A414" s="1" t="inlineStr">
         <is>
-          <t>M</t>
+          <t>F</t>
         </is>
       </c>
       <c r="B414" s="1" t="n"/>
@@ -11459,7 +11465,7 @@
     <row r="416">
       <c r="A416" s="1" t="inlineStr">
         <is>
-          <t>F</t>
+          <t>M</t>
         </is>
       </c>
       <c r="B416" s="1" t="n"/>
@@ -11467,7 +11473,7 @@
     <row r="417">
       <c r="A417" s="1" t="inlineStr">
         <is>
-          <t>F</t>
+          <t>M</t>
         </is>
       </c>
       <c r="B417" s="1" t="n"/>
@@ -11483,7 +11489,7 @@
     <row r="419">
       <c r="A419" s="1" t="inlineStr">
         <is>
-          <t>F</t>
+          <t>M</t>
         </is>
       </c>
       <c r="B419" s="1" t="n"/>
@@ -11499,7 +11505,7 @@
     <row r="421">
       <c r="A421" s="1" t="inlineStr">
         <is>
-          <t>F</t>
+          <t>M</t>
         </is>
       </c>
       <c r="B421" s="1" t="n"/>
@@ -11523,7 +11529,7 @@
     <row r="424">
       <c r="A424" s="1" t="inlineStr">
         <is>
-          <t>F</t>
+          <t>M</t>
         </is>
       </c>
       <c r="B424" s="1" t="n"/>
@@ -11531,7 +11537,7 @@
     <row r="425">
       <c r="A425" s="1" t="inlineStr">
         <is>
-          <t>M</t>
+          <t>F</t>
         </is>
       </c>
       <c r="B425" s="1" t="n"/>
@@ -11539,7 +11545,7 @@
     <row r="426">
       <c r="A426" s="1" t="inlineStr">
         <is>
-          <t>M</t>
+          <t>F</t>
         </is>
       </c>
       <c r="B426" s="1" t="n"/>
@@ -11547,7 +11553,7 @@
     <row r="427">
       <c r="A427" s="1" t="inlineStr">
         <is>
-          <t>F</t>
+          <t>M</t>
         </is>
       </c>
       <c r="B427" s="1" t="n"/>
@@ -11555,7 +11561,7 @@
     <row r="428">
       <c r="A428" s="1" t="inlineStr">
         <is>
-          <t>M</t>
+          <t>F</t>
         </is>
       </c>
       <c r="B428" s="1" t="n"/>
@@ -11563,7 +11569,7 @@
     <row r="429">
       <c r="A429" s="1" t="inlineStr">
         <is>
-          <t>M</t>
+          <t>F</t>
         </is>
       </c>
       <c r="B429" s="1" t="n"/>
@@ -11571,7 +11577,7 @@
     <row r="430">
       <c r="A430" s="1" t="inlineStr">
         <is>
-          <t>F</t>
+          <t>M</t>
         </is>
       </c>
       <c r="B430" s="1" t="n"/>
@@ -11587,7 +11593,7 @@
     <row r="432">
       <c r="A432" s="1" t="inlineStr">
         <is>
-          <t>M</t>
+          <t>F</t>
         </is>
       </c>
       <c r="B432" s="1" t="n"/>
@@ -11603,7 +11609,7 @@
     <row r="434">
       <c r="A434" s="1" t="inlineStr">
         <is>
-          <t>M</t>
+          <t>F</t>
         </is>
       </c>
       <c r="B434" s="1" t="n"/>
@@ -11611,7 +11617,7 @@
     <row r="435">
       <c r="A435" s="1" t="inlineStr">
         <is>
-          <t>F</t>
+          <t>M</t>
         </is>
       </c>
       <c r="B435" s="1" t="n"/>
@@ -11627,7 +11633,7 @@
     <row r="437">
       <c r="A437" s="1" t="inlineStr">
         <is>
-          <t>F</t>
+          <t>M</t>
         </is>
       </c>
       <c r="B437" s="1" t="n"/>
@@ -11635,7 +11641,7 @@
     <row r="438">
       <c r="A438" s="1" t="inlineStr">
         <is>
-          <t>F</t>
+          <t>M</t>
         </is>
       </c>
       <c r="B438" s="1" t="n"/>
@@ -11643,7 +11649,7 @@
     <row r="439">
       <c r="A439" s="1" t="inlineStr">
         <is>
-          <t>F</t>
+          <t>M</t>
         </is>
       </c>
       <c r="B439" s="1" t="n"/>
@@ -11651,7 +11657,7 @@
     <row r="440">
       <c r="A440" s="1" t="inlineStr">
         <is>
-          <t>M</t>
+          <t>F</t>
         </is>
       </c>
       <c r="B440" s="1" t="n"/>
@@ -11659,7 +11665,7 @@
     <row r="441">
       <c r="A441" s="1" t="inlineStr">
         <is>
-          <t>M</t>
+          <t>F</t>
         </is>
       </c>
       <c r="B441" s="1" t="n"/>
@@ -11683,7 +11689,7 @@
     <row r="444">
       <c r="A444" s="1" t="inlineStr">
         <is>
-          <t>M</t>
+          <t>F</t>
         </is>
       </c>
       <c r="B444" s="1" t="n"/>
@@ -11691,7 +11697,7 @@
     <row r="445">
       <c r="A445" s="1" t="inlineStr">
         <is>
-          <t>M</t>
+          <t>F</t>
         </is>
       </c>
       <c r="B445" s="1" t="n"/>
@@ -11715,7 +11721,7 @@
     <row r="448">
       <c r="A448" s="1" t="inlineStr">
         <is>
-          <t>M</t>
+          <t>F</t>
         </is>
       </c>
       <c r="B448" s="1" t="n"/>
@@ -11723,7 +11729,7 @@
     <row r="449">
       <c r="A449" s="1" t="inlineStr">
         <is>
-          <t>F</t>
+          <t>M</t>
         </is>
       </c>
       <c r="B449" s="1" t="n"/>
@@ -11739,7 +11745,7 @@
     <row r="451">
       <c r="A451" s="1" t="inlineStr">
         <is>
-          <t>F</t>
+          <t>M</t>
         </is>
       </c>
       <c r="B451" s="1" t="n"/>
@@ -11747,7 +11753,7 @@
     <row r="452">
       <c r="A452" s="1" t="inlineStr">
         <is>
-          <t>M</t>
+          <t>F</t>
         </is>
       </c>
       <c r="B452" s="1" t="n"/>
@@ -11771,7 +11777,7 @@
     <row r="455">
       <c r="A455" s="1" t="inlineStr">
         <is>
-          <t>F</t>
+          <t>M</t>
         </is>
       </c>
       <c r="B455" s="1" t="n"/>
@@ -11779,7 +11785,7 @@
     <row r="456">
       <c r="A456" s="1" t="inlineStr">
         <is>
-          <t>M</t>
+          <t>F</t>
         </is>
       </c>
       <c r="B456" s="1" t="n"/>
@@ -11795,7 +11801,7 @@
     <row r="458">
       <c r="A458" s="1" t="inlineStr">
         <is>
-          <t>M</t>
+          <t>F</t>
         </is>
       </c>
       <c r="B458" s="1" t="n"/>
@@ -11811,7 +11817,7 @@
     <row r="460">
       <c r="A460" s="1" t="inlineStr">
         <is>
-          <t>F</t>
+          <t>M</t>
         </is>
       </c>
       <c r="B460" s="1" t="n"/>
@@ -11827,7 +11833,7 @@
     <row r="462">
       <c r="A462" s="1" t="inlineStr">
         <is>
-          <t>M</t>
+          <t>F</t>
         </is>
       </c>
       <c r="B462" s="1" t="n"/>
@@ -11835,7 +11841,7 @@
     <row r="463">
       <c r="A463" s="1" t="inlineStr">
         <is>
-          <t>M</t>
+          <t>F</t>
         </is>
       </c>
       <c r="B463" s="1" t="n"/>
@@ -11867,7 +11873,7 @@
     <row r="467">
       <c r="A467" s="1" t="inlineStr">
         <is>
-          <t>M</t>
+          <t>F</t>
         </is>
       </c>
       <c r="B467" s="1" t="n"/>
@@ -11883,7 +11889,7 @@
     <row r="469">
       <c r="A469" s="1" t="inlineStr">
         <is>
-          <t>M</t>
+          <t>F</t>
         </is>
       </c>
       <c r="B469" s="1" t="n"/>
@@ -11891,7 +11897,7 @@
     <row r="470">
       <c r="A470" s="1" t="inlineStr">
         <is>
-          <t>M</t>
+          <t>F</t>
         </is>
       </c>
       <c r="B470" s="1" t="n"/>
@@ -11899,7 +11905,7 @@
     <row r="471">
       <c r="A471" s="1" t="inlineStr">
         <is>
-          <t>M</t>
+          <t>F</t>
         </is>
       </c>
       <c r="B471" s="1" t="n"/>
@@ -11907,7 +11913,7 @@
     <row r="472">
       <c r="A472" s="1" t="inlineStr">
         <is>
-          <t>M</t>
+          <t>F</t>
         </is>
       </c>
       <c r="B472" s="1" t="n"/>
@@ -11915,7 +11921,7 @@
     <row r="473">
       <c r="A473" s="1" t="inlineStr">
         <is>
-          <t>M</t>
+          <t>F</t>
         </is>
       </c>
       <c r="B473" s="1" t="n"/>
@@ -11923,7 +11929,7 @@
     <row r="474">
       <c r="A474" s="1" t="inlineStr">
         <is>
-          <t>F</t>
+          <t>M</t>
         </is>
       </c>
       <c r="B474" s="1" t="n"/>
@@ -11931,7 +11937,7 @@
     <row r="475">
       <c r="A475" s="1" t="inlineStr">
         <is>
-          <t>F</t>
+          <t>M</t>
         </is>
       </c>
       <c r="B475" s="1" t="n"/>
@@ -11963,7 +11969,7 @@
     <row r="479">
       <c r="A479" s="1" t="inlineStr">
         <is>
-          <t>M</t>
+          <t>F</t>
         </is>
       </c>
       <c r="B479" s="1" t="n"/>
@@ -11971,7 +11977,7 @@
     <row r="480">
       <c r="A480" s="1" t="inlineStr">
         <is>
-          <t>F</t>
+          <t>M</t>
         </is>
       </c>
       <c r="B480" s="1" t="n"/>
@@ -11979,7 +11985,7 @@
     <row r="481">
       <c r="A481" s="1" t="inlineStr">
         <is>
-          <t>M</t>
+          <t>F</t>
         </is>
       </c>
       <c r="B481" s="1" t="n"/>
@@ -11995,7 +12001,7 @@
     <row r="483">
       <c r="A483" s="1" t="inlineStr">
         <is>
-          <t>M</t>
+          <t>F</t>
         </is>
       </c>
       <c r="B483" s="1" t="n"/>
@@ -12011,7 +12017,7 @@
     <row r="485">
       <c r="A485" s="1" t="inlineStr">
         <is>
-          <t>M</t>
+          <t>F</t>
         </is>
       </c>
       <c r="B485" s="1" t="n"/>
@@ -12035,7 +12041,7 @@
     <row r="488">
       <c r="A488" s="1" t="inlineStr">
         <is>
-          <t>M</t>
+          <t>F</t>
         </is>
       </c>
       <c r="B488" s="1" t="n"/>
@@ -12043,7 +12049,7 @@
     <row r="489">
       <c r="A489" s="1" t="inlineStr">
         <is>
-          <t>F</t>
+          <t>M</t>
         </is>
       </c>
       <c r="B489" s="1" t="n"/>
@@ -12051,7 +12057,7 @@
     <row r="490">
       <c r="A490" s="1" t="inlineStr">
         <is>
-          <t>M</t>
+          <t>F</t>
         </is>
       </c>
       <c r="B490" s="1" t="n"/>
@@ -12059,7 +12065,7 @@
     <row r="491">
       <c r="A491" s="1" t="inlineStr">
         <is>
-          <t>F</t>
+          <t>M</t>
         </is>
       </c>
       <c r="B491" s="1" t="n"/>
@@ -12091,7 +12097,7 @@
     <row r="495">
       <c r="A495" s="1" t="inlineStr">
         <is>
-          <t>F</t>
+          <t>M</t>
         </is>
       </c>
       <c r="B495" s="1" t="n"/>
@@ -12099,7 +12105,7 @@
     <row r="496">
       <c r="A496" s="1" t="inlineStr">
         <is>
-          <t>M</t>
+          <t>F</t>
         </is>
       </c>
       <c r="B496" s="1" t="n"/>
@@ -12107,7 +12113,7 @@
     <row r="497">
       <c r="A497" s="1" t="inlineStr">
         <is>
-          <t>M</t>
+          <t>F</t>
         </is>
       </c>
       <c r="B497" s="1" t="n"/>
@@ -12115,7 +12121,7 @@
     <row r="498">
       <c r="A498" s="1" t="inlineStr">
         <is>
-          <t>M</t>
+          <t>F</t>
         </is>
       </c>
       <c r="B498" s="1" t="n"/>
@@ -12131,7 +12137,7 @@
     <row r="500">
       <c r="A500" s="1" t="inlineStr">
         <is>
-          <t>F</t>
+          <t>M</t>
         </is>
       </c>
       <c r="B500" s="1" t="n"/>
@@ -12139,7 +12145,7 @@
     <row r="501">
       <c r="A501" s="1" t="inlineStr">
         <is>
-          <t>F</t>
+          <t>M</t>
         </is>
       </c>
       <c r="B501" s="1" t="n"/>
@@ -12147,7 +12153,7 @@
     <row r="502">
       <c r="A502" s="1" t="inlineStr">
         <is>
-          <t>F</t>
+          <t>M</t>
         </is>
       </c>
       <c r="B502" s="1" t="n"/>
@@ -12163,7 +12169,7 @@
     <row r="504">
       <c r="A504" s="1" t="inlineStr">
         <is>
-          <t>F</t>
+          <t>M</t>
         </is>
       </c>
       <c r="B504" s="1" t="n"/>
@@ -12171,7 +12177,7 @@
     <row r="505">
       <c r="A505" s="1" t="inlineStr">
         <is>
-          <t>M</t>
+          <t>F</t>
         </is>
       </c>
       <c r="B505" s="1" t="n"/>
@@ -12179,7 +12185,7 @@
     <row r="506">
       <c r="A506" s="1" t="inlineStr">
         <is>
-          <t>M</t>
+          <t>F</t>
         </is>
       </c>
       <c r="B506" s="1" t="n"/>
@@ -12195,7 +12201,7 @@
     <row r="508">
       <c r="A508" s="1" t="inlineStr">
         <is>
-          <t>M</t>
+          <t>F</t>
         </is>
       </c>
       <c r="B508" s="1" t="n"/>
@@ -12203,7 +12209,7 @@
     <row r="509">
       <c r="A509" s="1" t="inlineStr">
         <is>
-          <t>M</t>
+          <t>F</t>
         </is>
       </c>
       <c r="B509" s="1" t="n"/>
@@ -12211,7 +12217,7 @@
     <row r="510">
       <c r="A510" s="1" t="inlineStr">
         <is>
-          <t>M</t>
+          <t>F</t>
         </is>
       </c>
       <c r="B510" s="1" t="n"/>
@@ -12219,7 +12225,7 @@
     <row r="511">
       <c r="A511" s="1" t="inlineStr">
         <is>
-          <t>M</t>
+          <t>F</t>
         </is>
       </c>
       <c r="B511" s="1" t="n"/>
@@ -12251,7 +12257,7 @@
     <row r="515">
       <c r="A515" s="1" t="inlineStr">
         <is>
-          <t>F</t>
+          <t>M</t>
         </is>
       </c>
       <c r="B515" s="1" t="n"/>
@@ -12267,7 +12273,7 @@
     <row r="517">
       <c r="A517" s="1" t="inlineStr">
         <is>
-          <t>F</t>
+          <t>M</t>
         </is>
       </c>
       <c r="B517" s="1" t="n"/>
@@ -12283,7 +12289,7 @@
     <row r="519">
       <c r="A519" s="1" t="inlineStr">
         <is>
-          <t>M</t>
+          <t>F</t>
         </is>
       </c>
       <c r="B519" s="1" t="n"/>
@@ -12299,7 +12305,7 @@
     <row r="521">
       <c r="A521" s="1" t="inlineStr">
         <is>
-          <t>M</t>
+          <t>F</t>
         </is>
       </c>
       <c r="B521" s="1" t="n"/>
@@ -12307,7 +12313,7 @@
     <row r="522">
       <c r="A522" s="1" t="inlineStr">
         <is>
-          <t>F</t>
+          <t>M</t>
         </is>
       </c>
       <c r="B522" s="1" t="n"/>
@@ -12339,7 +12345,7 @@
     <row r="526">
       <c r="A526" s="1" t="inlineStr">
         <is>
-          <t>F</t>
+          <t>M</t>
         </is>
       </c>
       <c r="B526" s="1" t="n"/>
@@ -12363,7 +12369,7 @@
     <row r="529">
       <c r="A529" s="1" t="inlineStr">
         <is>
-          <t>M</t>
+          <t>F</t>
         </is>
       </c>
       <c r="B529" s="1" t="n"/>
@@ -12371,7 +12377,7 @@
     <row r="530">
       <c r="A530" s="1" t="inlineStr">
         <is>
-          <t>F</t>
+          <t>M</t>
         </is>
       </c>
       <c r="B530" s="1" t="n"/>
@@ -12379,7 +12385,7 @@
     <row r="531">
       <c r="A531" s="1" t="inlineStr">
         <is>
-          <t>M</t>
+          <t>F</t>
         </is>
       </c>
       <c r="B531" s="1" t="n"/>
@@ -12395,7 +12401,7 @@
     <row r="533">
       <c r="A533" s="1" t="inlineStr">
         <is>
-          <t>M</t>
+          <t>F</t>
         </is>
       </c>
       <c r="B533" s="1" t="n"/>
@@ -12403,7 +12409,7 @@
     <row r="534">
       <c r="A534" s="1" t="inlineStr">
         <is>
-          <t>M</t>
+          <t>F</t>
         </is>
       </c>
       <c r="B534" s="1" t="n"/>
@@ -12411,7 +12417,7 @@
     <row r="535">
       <c r="A535" s="1" t="inlineStr">
         <is>
-          <t>M</t>
+          <t>F</t>
         </is>
       </c>
       <c r="B535" s="1" t="n"/>
@@ -12419,7 +12425,7 @@
     <row r="536">
       <c r="A536" s="1" t="inlineStr">
         <is>
-          <t>F</t>
+          <t>M</t>
         </is>
       </c>
       <c r="B536" s="1" t="n"/>
@@ -12427,7 +12433,7 @@
     <row r="537">
       <c r="A537" s="1" t="inlineStr">
         <is>
-          <t>M</t>
+          <t>F</t>
         </is>
       </c>
       <c r="B537" s="1" t="n"/>
@@ -12467,7 +12473,7 @@
     <row r="542">
       <c r="A542" s="1" t="inlineStr">
         <is>
-          <t>F</t>
+          <t>M</t>
         </is>
       </c>
       <c r="B542" s="1" t="n"/>
@@ -12491,7 +12497,7 @@
     <row r="545">
       <c r="A545" s="1" t="inlineStr">
         <is>
-          <t>F</t>
+          <t>M</t>
         </is>
       </c>
       <c r="B545" s="1" t="n"/>
@@ -12499,7 +12505,7 @@
     <row r="546">
       <c r="A546" s="1" t="inlineStr">
         <is>
-          <t>F</t>
+          <t>M</t>
         </is>
       </c>
       <c r="B546" s="1" t="n"/>
@@ -12523,7 +12529,7 @@
     <row r="549">
       <c r="A549" s="1" t="inlineStr">
         <is>
-          <t>M</t>
+          <t>F</t>
         </is>
       </c>
       <c r="B549" s="1" t="n"/>
@@ -12531,7 +12537,7 @@
     <row r="550">
       <c r="A550" s="1" t="inlineStr">
         <is>
-          <t>F</t>
+          <t>M</t>
         </is>
       </c>
       <c r="B550" s="1" t="n"/>
@@ -12539,7 +12545,7 @@
     <row r="551">
       <c r="A551" s="1" t="inlineStr">
         <is>
-          <t>F</t>
+          <t>M</t>
         </is>
       </c>
       <c r="B551" s="1" t="n"/>
@@ -12547,7 +12553,7 @@
     <row r="552">
       <c r="A552" s="1" t="inlineStr">
         <is>
-          <t>M</t>
+          <t>F</t>
         </is>
       </c>
       <c r="B552" s="1" t="n"/>
@@ -12555,7 +12561,7 @@
     <row r="553">
       <c r="A553" s="1" t="inlineStr">
         <is>
-          <t>M</t>
+          <t>F</t>
         </is>
       </c>
       <c r="B553" s="1" t="n"/>
@@ -12563,7 +12569,7 @@
     <row r="554">
       <c r="A554" s="1" t="inlineStr">
         <is>
-          <t>M</t>
+          <t>F</t>
         </is>
       </c>
       <c r="B554" s="1" t="n"/>
@@ -12571,7 +12577,7 @@
     <row r="555">
       <c r="A555" s="1" t="inlineStr">
         <is>
-          <t>M</t>
+          <t>F</t>
         </is>
       </c>
       <c r="B555" s="1" t="n"/>
@@ -12579,7 +12585,7 @@
     <row r="556">
       <c r="A556" s="1" t="inlineStr">
         <is>
-          <t>M</t>
+          <t>F</t>
         </is>
       </c>
       <c r="B556" s="1" t="n"/>
@@ -12611,7 +12617,7 @@
     <row r="560">
       <c r="A560" s="1" t="inlineStr">
         <is>
-          <t>F</t>
+          <t>M</t>
         </is>
       </c>
       <c r="B560" s="1" t="n"/>
@@ -12619,7 +12625,7 @@
     <row r="561">
       <c r="A561" s="1" t="inlineStr">
         <is>
-          <t>F</t>
+          <t>M</t>
         </is>
       </c>
       <c r="B561" s="1" t="n"/>
@@ -12635,7 +12641,7 @@
     <row r="563">
       <c r="A563" s="1" t="inlineStr">
         <is>
-          <t>F</t>
+          <t>M</t>
         </is>
       </c>
       <c r="B563" s="1" t="n"/>
@@ -12651,7 +12657,7 @@
     <row r="565">
       <c r="A565" s="1" t="inlineStr">
         <is>
-          <t>M</t>
+          <t>F</t>
         </is>
       </c>
       <c r="B565" s="1" t="n"/>
@@ -12659,7 +12665,7 @@
     <row r="566">
       <c r="A566" s="1" t="inlineStr">
         <is>
-          <t>F</t>
+          <t>M</t>
         </is>
       </c>
       <c r="B566" s="1" t="n"/>
@@ -12699,7 +12705,7 @@
     <row r="571">
       <c r="A571" s="1" t="inlineStr">
         <is>
-          <t>M</t>
+          <t>F</t>
         </is>
       </c>
       <c r="B571" s="1" t="n"/>
@@ -12707,7 +12713,7 @@
     <row r="572">
       <c r="A572" s="1" t="inlineStr">
         <is>
-          <t>M</t>
+          <t>F</t>
         </is>
       </c>
       <c r="B572" s="1" t="n"/>
@@ -12715,7 +12721,7 @@
     <row r="573">
       <c r="A573" s="1" t="inlineStr">
         <is>
-          <t>F</t>
+          <t>M</t>
         </is>
       </c>
       <c r="B573" s="1" t="n"/>
@@ -12723,7 +12729,7 @@
     <row r="574">
       <c r="A574" s="1" t="inlineStr">
         <is>
-          <t>F</t>
+          <t>M</t>
         </is>
       </c>
       <c r="B574" s="1" t="n"/>
@@ -12763,7 +12769,7 @@
     <row r="579">
       <c r="A579" s="1" t="inlineStr">
         <is>
-          <t>F</t>
+          <t>M</t>
         </is>
       </c>
       <c r="B579" s="1" t="n"/>
@@ -12771,7 +12777,7 @@
     <row r="580">
       <c r="A580" s="1" t="inlineStr">
         <is>
-          <t>M</t>
+          <t>F</t>
         </is>
       </c>
       <c r="B580" s="1" t="n"/>
@@ -12779,7 +12785,7 @@
     <row r="581">
       <c r="A581" s="1" t="inlineStr">
         <is>
-          <t>F</t>
+          <t>M</t>
         </is>
       </c>
       <c r="B581" s="1" t="n"/>
@@ -12795,7 +12801,7 @@
     <row r="583">
       <c r="A583" s="1" t="inlineStr">
         <is>
-          <t>F</t>
+          <t>M</t>
         </is>
       </c>
       <c r="B583" s="1" t="n"/>
@@ -12803,7 +12809,7 @@
     <row r="584">
       <c r="A584" s="1" t="inlineStr">
         <is>
-          <t>F</t>
+          <t>M</t>
         </is>
       </c>
       <c r="B584" s="1" t="n"/>
@@ -12811,7 +12817,7 @@
     <row r="585">
       <c r="A585" s="1" t="inlineStr">
         <is>
-          <t>F</t>
+          <t>M</t>
         </is>
       </c>
       <c r="B585" s="1" t="n"/>
@@ -12819,7 +12825,7 @@
     <row r="586">
       <c r="A586" s="1" t="inlineStr">
         <is>
-          <t>M</t>
+          <t>C</t>
         </is>
       </c>
       <c r="B586" s="1" t="n"/>
@@ -12827,7 +12833,7 @@
     <row r="587">
       <c r="A587" s="1" t="inlineStr">
         <is>
-          <t>M</t>
+          <t>F</t>
         </is>
       </c>
       <c r="B587" s="1" t="n"/>
@@ -12843,7 +12849,7 @@
     <row r="589">
       <c r="A589" s="1" t="inlineStr">
         <is>
-          <t>F</t>
+          <t>M</t>
         </is>
       </c>
       <c r="B589" s="1" t="n"/>
@@ -12851,7 +12857,7 @@
     <row r="590">
       <c r="A590" s="1" t="inlineStr">
         <is>
-          <t>F</t>
+          <t>M</t>
         </is>
       </c>
       <c r="B590" s="1" t="n"/>
@@ -12867,7 +12873,7 @@
     <row r="592">
       <c r="A592" s="1" t="inlineStr">
         <is>
-          <t>M</t>
+          <t>F</t>
         </is>
       </c>
       <c r="B592" s="1" t="n"/>
@@ -12875,7 +12881,7 @@
     <row r="593">
       <c r="A593" s="1" t="inlineStr">
         <is>
-          <t>F</t>
+          <t>M</t>
         </is>
       </c>
       <c r="B593" s="1" t="n"/>
@@ -12883,7 +12889,7 @@
     <row r="594">
       <c r="A594" s="1" t="inlineStr">
         <is>
-          <t>F</t>
+          <t>M</t>
         </is>
       </c>
       <c r="B594" s="1" t="n"/>
@@ -12891,7 +12897,7 @@
     <row r="595">
       <c r="A595" s="1" t="inlineStr">
         <is>
-          <t>M</t>
+          <t>F</t>
         </is>
       </c>
       <c r="B595" s="1" t="n"/>
@@ -12907,7 +12913,7 @@
     <row r="597">
       <c r="A597" s="1" t="inlineStr">
         <is>
-          <t>M</t>
+          <t>F</t>
         </is>
       </c>
       <c r="B597" s="1" t="n"/>
@@ -12915,7 +12921,7 @@
     <row r="598">
       <c r="A598" s="1" t="inlineStr">
         <is>
-          <t>F</t>
+          <t>M</t>
         </is>
       </c>
       <c r="B598" s="1" t="n"/>
@@ -12923,7 +12929,7 @@
     <row r="599">
       <c r="A599" s="1" t="inlineStr">
         <is>
-          <t>F</t>
+          <t>M</t>
         </is>
       </c>
       <c r="B599" s="1" t="n"/>
@@ -12931,7 +12937,7 @@
     <row r="600">
       <c r="A600" s="1" t="inlineStr">
         <is>
-          <t>F</t>
+          <t>M</t>
         </is>
       </c>
       <c r="B600" s="1" t="n"/>
@@ -12939,7 +12945,7 @@
     <row r="601">
       <c r="A601" s="1" t="inlineStr">
         <is>
-          <t>M</t>
+          <t>F</t>
         </is>
       </c>
       <c r="B601" s="1" t="n"/>
@@ -12955,7 +12961,7 @@
     <row r="603">
       <c r="A603" s="1" t="inlineStr">
         <is>
-          <t>F</t>
+          <t>M</t>
         </is>
       </c>
       <c r="B603" s="1" t="n"/>
@@ -12971,7 +12977,7 @@
     <row r="605">
       <c r="A605" s="1" t="inlineStr">
         <is>
-          <t>F</t>
+          <t>M</t>
         </is>
       </c>
       <c r="B605" s="1" t="n"/>
@@ -12979,7 +12985,7 @@
     <row r="606">
       <c r="A606" s="1" t="inlineStr">
         <is>
-          <t>F</t>
+          <t>M</t>
         </is>
       </c>
       <c r="B606" s="1" t="n"/>
@@ -12995,7 +13001,7 @@
     <row r="608">
       <c r="A608" s="1" t="inlineStr">
         <is>
-          <t>M</t>
+          <t>F</t>
         </is>
       </c>
       <c r="B608" s="1" t="n"/>
@@ -13003,7 +13009,7 @@
     <row r="609">
       <c r="A609" s="1" t="inlineStr">
         <is>
-          <t>F</t>
+          <t>M</t>
         </is>
       </c>
       <c r="B609" s="1" t="n"/>
@@ -13011,7 +13017,7 @@
     <row r="610">
       <c r="A610" s="1" t="inlineStr">
         <is>
-          <t>F</t>
+          <t>M</t>
         </is>
       </c>
       <c r="B610" s="1" t="n"/>
@@ -13019,7 +13025,7 @@
     <row r="611">
       <c r="A611" s="1" t="inlineStr">
         <is>
-          <t>M</t>
+          <t>F</t>
         </is>
       </c>
       <c r="B611" s="1" t="n"/>
@@ -13027,7 +13033,7 @@
     <row r="612">
       <c r="A612" s="1" t="inlineStr">
         <is>
-          <t>M</t>
+          <t>F</t>
         </is>
       </c>
       <c r="B612" s="1" t="n"/>
@@ -13043,7 +13049,7 @@
     <row r="614">
       <c r="A614" s="1" t="inlineStr">
         <is>
-          <t>F</t>
+          <t>M</t>
         </is>
       </c>
       <c r="B614" s="1" t="n"/>
@@ -13059,7 +13065,7 @@
     <row r="616">
       <c r="A616" s="1" t="inlineStr">
         <is>
-          <t>M</t>
+          <t>F</t>
         </is>
       </c>
       <c r="B616" s="1" t="n"/>
@@ -13067,7 +13073,7 @@
     <row r="617">
       <c r="A617" s="1" t="inlineStr">
         <is>
-          <t>F</t>
+          <t>M</t>
         </is>
       </c>
       <c r="B617" s="1" t="n"/>
@@ -13075,7 +13081,7 @@
     <row r="618">
       <c r="A618" s="1" t="inlineStr">
         <is>
-          <t>M</t>
+          <t>F</t>
         </is>
       </c>
       <c r="B618" s="1" t="n"/>
@@ -13083,7 +13089,7 @@
     <row r="619">
       <c r="A619" s="1" t="inlineStr">
         <is>
-          <t>M</t>
+          <t>F</t>
         </is>
       </c>
       <c r="B619" s="1" t="n"/>
@@ -13091,7 +13097,7 @@
     <row r="620">
       <c r="A620" s="1" t="inlineStr">
         <is>
-          <t>M</t>
+          <t>F</t>
         </is>
       </c>
       <c r="B620" s="1" t="n"/>
@@ -13099,7 +13105,7 @@
     <row r="621">
       <c r="A621" s="1" t="inlineStr">
         <is>
-          <t>F</t>
+          <t>M</t>
         </is>
       </c>
       <c r="B621" s="1" t="n"/>
@@ -13107,7 +13113,7 @@
     <row r="622">
       <c r="A622" s="1" t="inlineStr">
         <is>
-          <t>M</t>
+          <t>F</t>
         </is>
       </c>
       <c r="B622" s="1" t="n"/>
@@ -13115,7 +13121,7 @@
     <row r="623">
       <c r="A623" s="1" t="inlineStr">
         <is>
-          <t>F</t>
+          <t>M</t>
         </is>
       </c>
       <c r="B623" s="1" t="n"/>
@@ -13147,7 +13153,7 @@
     <row r="627">
       <c r="A627" s="1" t="inlineStr">
         <is>
-          <t>M</t>
+          <t>F</t>
         </is>
       </c>
       <c r="B627" s="1" t="n"/>
@@ -13171,7 +13177,7 @@
     <row r="630">
       <c r="A630" s="1" t="inlineStr">
         <is>
-          <t>M</t>
+          <t>F</t>
         </is>
       </c>
       <c r="B630" s="1" t="n"/>
@@ -13179,7 +13185,7 @@
     <row r="631">
       <c r="A631" s="1" t="inlineStr">
         <is>
-          <t>F</t>
+          <t>M</t>
         </is>
       </c>
       <c r="B631" s="1" t="n"/>
@@ -13187,7 +13193,7 @@
     <row r="632">
       <c r="A632" s="1" t="inlineStr">
         <is>
-          <t>F</t>
+          <t>M</t>
         </is>
       </c>
       <c r="B632" s="1" t="n"/>
@@ -13195,7 +13201,7 @@
     <row r="633">
       <c r="A633" s="1" t="inlineStr">
         <is>
-          <t>F</t>
+          <t>M</t>
         </is>
       </c>
       <c r="B633" s="1" t="n"/>
@@ -13211,7 +13217,7 @@
     <row r="635">
       <c r="A635" s="1" t="inlineStr">
         <is>
-          <t>M</t>
+          <t>F</t>
         </is>
       </c>
       <c r="B635" s="1" t="n"/>
@@ -13227,7 +13233,7 @@
     <row r="637">
       <c r="A637" s="1" t="inlineStr">
         <is>
-          <t>M</t>
+          <t>F</t>
         </is>
       </c>
       <c r="B637" s="1" t="n"/>
@@ -13235,7 +13241,7 @@
     <row r="638">
       <c r="A638" s="1" t="inlineStr">
         <is>
-          <t>M</t>
+          <t>F</t>
         </is>
       </c>
       <c r="B638" s="1" t="n"/>
@@ -13275,7 +13281,7 @@
     <row r="643">
       <c r="A643" s="1" t="inlineStr">
         <is>
-          <t>M</t>
+          <t>F</t>
         </is>
       </c>
       <c r="B643" s="1" t="n"/>
@@ -13291,7 +13297,7 @@
     <row r="645">
       <c r="A645" s="1" t="inlineStr">
         <is>
-          <t>M</t>
+          <t>F</t>
         </is>
       </c>
       <c r="B645" s="1" t="n"/>
@@ -13299,7 +13305,7 @@
     <row r="646">
       <c r="A646" s="1" t="inlineStr">
         <is>
-          <t>M</t>
+          <t>F</t>
         </is>
       </c>
       <c r="B646" s="1" t="n"/>
@@ -13307,7 +13313,7 @@
     <row r="647">
       <c r="A647" s="1" t="inlineStr">
         <is>
-          <t>M</t>
+          <t>F</t>
         </is>
       </c>
       <c r="B647" s="1" t="n"/>
@@ -13315,7 +13321,7 @@
     <row r="648">
       <c r="A648" s="1" t="inlineStr">
         <is>
-          <t>F</t>
+          <t>M</t>
         </is>
       </c>
       <c r="B648" s="1" t="n"/>
@@ -13323,7 +13329,7 @@
     <row r="649">
       <c r="A649" s="1" t="inlineStr">
         <is>
-          <t>M</t>
+          <t>F</t>
         </is>
       </c>
       <c r="B649" s="1" t="n"/>
@@ -13331,7 +13337,7 @@
     <row r="650">
       <c r="A650" s="1" t="inlineStr">
         <is>
-          <t>F</t>
+          <t>M</t>
         </is>
       </c>
       <c r="B650" s="1" t="n"/>
@@ -13363,7 +13369,7 @@
     <row r="654">
       <c r="A654" s="1" t="inlineStr">
         <is>
-          <t>F</t>
+          <t>M</t>
         </is>
       </c>
       <c r="B654" s="1" t="n"/>
@@ -13379,7 +13385,7 @@
     <row r="656">
       <c r="A656" s="1" t="inlineStr">
         <is>
-          <t>M</t>
+          <t>F</t>
         </is>
       </c>
       <c r="B656" s="1" t="n"/>
@@ -13387,7 +13393,7 @@
     <row r="657">
       <c r="A657" s="1" t="inlineStr">
         <is>
-          <t>M</t>
+          <t>F</t>
         </is>
       </c>
       <c r="B657" s="1" t="n"/>
@@ -13403,7 +13409,7 @@
     <row r="659">
       <c r="A659" s="1" t="inlineStr">
         <is>
-          <t>F</t>
+          <t>M</t>
         </is>
       </c>
       <c r="B659" s="1" t="n"/>
@@ -13411,7 +13417,7 @@
     <row r="660">
       <c r="A660" s="1" t="inlineStr">
         <is>
-          <t>F</t>
+          <t>M</t>
         </is>
       </c>
       <c r="B660" s="1" t="n"/>
@@ -13419,7 +13425,7 @@
     <row r="661">
       <c r="A661" s="1" t="inlineStr">
         <is>
-          <t>M</t>
+          <t>F</t>
         </is>
       </c>
       <c r="B661" s="1" t="n"/>
@@ -13427,7 +13433,7 @@
     <row r="662">
       <c r="A662" s="1" t="inlineStr">
         <is>
-          <t>F</t>
+          <t>M</t>
         </is>
       </c>
       <c r="B662" s="1" t="n"/>
@@ -13451,7 +13457,7 @@
     <row r="665">
       <c r="A665" s="1" t="inlineStr">
         <is>
-          <t>F</t>
+          <t>M</t>
         </is>
       </c>
       <c r="B665" s="1" t="n"/>
@@ -13459,7 +13465,7 @@
     <row r="666">
       <c r="A666" s="1" t="inlineStr">
         <is>
-          <t>M</t>
+          <t>F</t>
         </is>
       </c>
       <c r="B666" s="1" t="n"/>
@@ -13475,7 +13481,7 @@
     <row r="668">
       <c r="A668" s="1" t="inlineStr">
         <is>
-          <t>M</t>
+          <t>F</t>
         </is>
       </c>
       <c r="B668" s="1" t="n"/>
@@ -13483,7 +13489,7 @@
     <row r="669">
       <c r="A669" s="1" t="inlineStr">
         <is>
-          <t>F</t>
+          <t>M</t>
         </is>
       </c>
       <c r="B669" s="1" t="n"/>
@@ -13499,7 +13505,7 @@
     <row r="671">
       <c r="A671" s="1" t="inlineStr">
         <is>
-          <t>M</t>
+          <t>F</t>
         </is>
       </c>
       <c r="B671" s="1" t="n"/>
@@ -13523,7 +13529,7 @@
     <row r="674">
       <c r="A674" s="1" t="inlineStr">
         <is>
-          <t>M</t>
+          <t>F</t>
         </is>
       </c>
       <c r="B674" s="1" t="n"/>
@@ -13531,7 +13537,7 @@
     <row r="675">
       <c r="A675" s="1" t="inlineStr">
         <is>
-          <t>M</t>
+          <t>F</t>
         </is>
       </c>
       <c r="B675" s="1" t="n"/>
@@ -13539,7 +13545,7 @@
     <row r="676">
       <c r="A676" s="1" t="inlineStr">
         <is>
-          <t>M</t>
+          <t>F</t>
         </is>
       </c>
       <c r="B676" s="1" t="n"/>
@@ -13547,7 +13553,7 @@
     <row r="677">
       <c r="A677" s="1" t="inlineStr">
         <is>
-          <t>F</t>
+          <t>M</t>
         </is>
       </c>
       <c r="B677" s="1" t="n"/>
@@ -13555,7 +13561,7 @@
     <row r="678">
       <c r="A678" s="1" t="inlineStr">
         <is>
-          <t>M</t>
+          <t>F</t>
         </is>
       </c>
       <c r="B678" s="1" t="n"/>
@@ -13579,7 +13585,7 @@
     <row r="681">
       <c r="A681" s="1" t="inlineStr">
         <is>
-          <t>F</t>
+          <t>M</t>
         </is>
       </c>
       <c r="B681" s="1" t="n"/>
@@ -13595,7 +13601,7 @@
     <row r="683">
       <c r="A683" s="1" t="inlineStr">
         <is>
-          <t>F</t>
+          <t>M</t>
         </is>
       </c>
       <c r="B683" s="1" t="n"/>
@@ -13603,7 +13609,7 @@
     <row r="684">
       <c r="A684" s="1" t="inlineStr">
         <is>
-          <t>F</t>
+          <t>M</t>
         </is>
       </c>
       <c r="B684" s="1" t="n"/>
@@ -13611,7 +13617,7 @@
     <row r="685">
       <c r="A685" s="1" t="inlineStr">
         <is>
-          <t>M</t>
+          <t>F</t>
         </is>
       </c>
       <c r="B685" s="1" t="n"/>
@@ -13627,7 +13633,7 @@
     <row r="687">
       <c r="A687" s="1" t="inlineStr">
         <is>
-          <t>M</t>
+          <t>F</t>
         </is>
       </c>
       <c r="B687" s="1" t="n"/>
@@ -13635,7 +13641,7 @@
     <row r="688">
       <c r="A688" s="1" t="inlineStr">
         <is>
-          <t>M</t>
+          <t>F</t>
         </is>
       </c>
       <c r="B688" s="1" t="n"/>
@@ -13643,7 +13649,7 @@
     <row r="689">
       <c r="A689" s="1" t="inlineStr">
         <is>
-          <t>M</t>
+          <t>F</t>
         </is>
       </c>
       <c r="B689" s="1" t="n"/>
@@ -13651,7 +13657,7 @@
     <row r="690">
       <c r="A690" s="1" t="inlineStr">
         <is>
-          <t>F</t>
+          <t>M</t>
         </is>
       </c>
       <c r="B690" s="1" t="n"/>
@@ -13659,7 +13665,7 @@
     <row r="691">
       <c r="A691" s="1" t="inlineStr">
         <is>
-          <t>M</t>
+          <t>F</t>
         </is>
       </c>
       <c r="B691" s="1" t="n"/>
@@ -13667,7 +13673,7 @@
     <row r="692">
       <c r="A692" s="1" t="inlineStr">
         <is>
-          <t>F</t>
+          <t>M</t>
         </is>
       </c>
       <c r="B692" s="1" t="n"/>
@@ -13683,7 +13689,7 @@
     <row r="694">
       <c r="A694" s="1" t="inlineStr">
         <is>
-          <t>F</t>
+          <t>M</t>
         </is>
       </c>
       <c r="B694" s="1" t="n"/>
@@ -13691,7 +13697,7 @@
     <row r="695">
       <c r="A695" s="1" t="inlineStr">
         <is>
-          <t>M</t>
+          <t>F</t>
         </is>
       </c>
       <c r="B695" s="1" t="n"/>
@@ -13739,7 +13745,7 @@
     <row r="701">
       <c r="A701" s="1" t="inlineStr">
         <is>
-          <t>F</t>
+          <t>M</t>
         </is>
       </c>
       <c r="B701" s="1" t="n"/>
@@ -13763,7 +13769,7 @@
     <row r="704">
       <c r="A704" s="1" t="inlineStr">
         <is>
-          <t>M</t>
+          <t>F</t>
         </is>
       </c>
       <c r="B704" s="1" t="n"/>
@@ -13771,7 +13777,7 @@
     <row r="705">
       <c r="A705" s="1" t="inlineStr">
         <is>
-          <t>M</t>
+          <t>F</t>
         </is>
       </c>
       <c r="B705" s="1" t="n"/>
@@ -13779,7 +13785,7 @@
     <row r="706">
       <c r="A706" s="1" t="inlineStr">
         <is>
-          <t>F</t>
+          <t>M</t>
         </is>
       </c>
       <c r="B706" s="1" t="n"/>
@@ -13787,7 +13793,7 @@
     <row r="707">
       <c r="A707" s="1" t="inlineStr">
         <is>
-          <t>F</t>
+          <t>M</t>
         </is>
       </c>
       <c r="B707" s="1" t="n"/>
@@ -13795,7 +13801,7 @@
     <row r="708">
       <c r="A708" s="1" t="inlineStr">
         <is>
-          <t>F</t>
+          <t>M</t>
         </is>
       </c>
       <c r="B708" s="1" t="n"/>
@@ -13803,7 +13809,7 @@
     <row r="709">
       <c r="A709" s="1" t="inlineStr">
         <is>
-          <t>F</t>
+          <t>M</t>
         </is>
       </c>
       <c r="B709" s="1" t="n"/>
@@ -13819,7 +13825,7 @@
     <row r="711">
       <c r="A711" s="1" t="inlineStr">
         <is>
-          <t>F</t>
+          <t>M</t>
         </is>
       </c>
       <c r="B711" s="1" t="n"/>
@@ -13843,7 +13849,7 @@
     <row r="714">
       <c r="A714" s="1" t="inlineStr">
         <is>
-          <t>F</t>
+          <t>M</t>
         </is>
       </c>
       <c r="B714" s="1" t="n"/>
@@ -13859,7 +13865,7 @@
     <row r="716">
       <c r="A716" s="1" t="inlineStr">
         <is>
-          <t>M</t>
+          <t>F</t>
         </is>
       </c>
       <c r="B716" s="1" t="n"/>
@@ -13867,7 +13873,7 @@
     <row r="717">
       <c r="A717" s="1" t="inlineStr">
         <is>
-          <t>F</t>
+          <t>M</t>
         </is>
       </c>
       <c r="B717" s="1" t="n"/>
@@ -13875,7 +13881,7 @@
     <row r="718">
       <c r="A718" s="1" t="inlineStr">
         <is>
-          <t>M</t>
+          <t>F</t>
         </is>
       </c>
       <c r="B718" s="1" t="n"/>
@@ -13883,7 +13889,7 @@
     <row r="719">
       <c r="A719" s="1" t="inlineStr">
         <is>
-          <t>F</t>
+          <t>M</t>
         </is>
       </c>
       <c r="B719" s="1" t="n"/>
@@ -13907,7 +13913,7 @@
     <row r="722">
       <c r="A722" s="1" t="inlineStr">
         <is>
-          <t>F</t>
+          <t>M</t>
         </is>
       </c>
       <c r="B722" s="1" t="n"/>
@@ -13923,7 +13929,7 @@
     <row r="724">
       <c r="A724" s="1" t="inlineStr">
         <is>
-          <t>F</t>
+          <t>M</t>
         </is>
       </c>
       <c r="B724" s="1" t="n"/>
@@ -13939,7 +13945,7 @@
     <row r="726">
       <c r="A726" s="1" t="inlineStr">
         <is>
-          <t>F</t>
+          <t>M</t>
         </is>
       </c>
       <c r="B726" s="1" t="n"/>
@@ -13947,7 +13953,7 @@
     <row r="727">
       <c r="A727" s="1" t="inlineStr">
         <is>
-          <t>M</t>
+          <t>F</t>
         </is>
       </c>
       <c r="B727" s="1" t="n"/>
@@ -13955,7 +13961,7 @@
     <row r="728">
       <c r="A728" s="1" t="inlineStr">
         <is>
-          <t>M</t>
+          <t>F</t>
         </is>
       </c>
       <c r="B728" s="1" t="n"/>
@@ -13979,7 +13985,7 @@
     <row r="731">
       <c r="A731" s="1" t="inlineStr">
         <is>
-          <t>F</t>
+          <t>M</t>
         </is>
       </c>
       <c r="B731" s="1" t="n"/>
@@ -13995,7 +14001,7 @@
     <row r="733">
       <c r="A733" s="1" t="inlineStr">
         <is>
-          <t>F</t>
+          <t>M</t>
         </is>
       </c>
       <c r="B733" s="1" t="n"/>
@@ -14003,7 +14009,7 @@
     <row r="734">
       <c r="A734" s="1" t="inlineStr">
         <is>
-          <t>F</t>
+          <t>M</t>
         </is>
       </c>
       <c r="B734" s="1" t="n"/>
@@ -14011,7 +14017,7 @@
     <row r="735">
       <c r="A735" s="1" t="inlineStr">
         <is>
-          <t>F</t>
+          <t>M</t>
         </is>
       </c>
       <c r="B735" s="1" t="n"/>
@@ -14019,7 +14025,7 @@
     <row r="736">
       <c r="A736" s="1" t="inlineStr">
         <is>
-          <t>F</t>
+          <t>M</t>
         </is>
       </c>
       <c r="B736" s="1" t="n"/>
@@ -14027,7 +14033,7 @@
     <row r="737">
       <c r="A737" s="1" t="inlineStr">
         <is>
-          <t>M</t>
+          <t>F</t>
         </is>
       </c>
       <c r="B737" s="1" t="n"/>
@@ -14035,7 +14041,7 @@
     <row r="738">
       <c r="A738" s="1" t="inlineStr">
         <is>
-          <t>M</t>
+          <t>F</t>
         </is>
       </c>
       <c r="B738" s="1" t="n"/>
@@ -14043,7 +14049,7 @@
     <row r="739">
       <c r="A739" s="1" t="inlineStr">
         <is>
-          <t>M</t>
+          <t>F</t>
         </is>
       </c>
       <c r="B739" s="1" t="n"/>
@@ -14067,7 +14073,7 @@
     <row r="742">
       <c r="A742" s="1" t="inlineStr">
         <is>
-          <t>F</t>
+          <t>M</t>
         </is>
       </c>
       <c r="B742" s="1" t="n"/>
@@ -14075,7 +14081,7 @@
     <row r="743">
       <c r="A743" s="1" t="inlineStr">
         <is>
-          <t>F</t>
+          <t>M</t>
         </is>
       </c>
       <c r="B743" s="1" t="n"/>
@@ -14091,7 +14097,7 @@
     <row r="745">
       <c r="A745" s="1" t="inlineStr">
         <is>
-          <t>F</t>
+          <t>M</t>
         </is>
       </c>
       <c r="B745" s="1" t="n"/>
@@ -14147,7 +14153,7 @@
     <row r="752">
       <c r="A752" s="1" t="inlineStr">
         <is>
-          <t>M</t>
+          <t>F</t>
         </is>
       </c>
       <c r="B752" s="1" t="n"/>
@@ -14171,7 +14177,7 @@
     <row r="755">
       <c r="A755" s="1" t="inlineStr">
         <is>
-          <t>M</t>
+          <t>F</t>
         </is>
       </c>
       <c r="B755" s="1" t="n"/>
@@ -14179,7 +14185,7 @@
     <row r="756">
       <c r="A756" s="1" t="inlineStr">
         <is>
-          <t>M</t>
+          <t>F</t>
         </is>
       </c>
       <c r="B756" s="1" t="n"/>
@@ -14211,7 +14217,7 @@
     <row r="760">
       <c r="A760" s="1" t="inlineStr">
         <is>
-          <t>M</t>
+          <t>F</t>
         </is>
       </c>
       <c r="B760" s="1" t="n"/>
@@ -14219,7 +14225,7 @@
     <row r="761">
       <c r="A761" s="1" t="inlineStr">
         <is>
-          <t>M</t>
+          <t>F</t>
         </is>
       </c>
       <c r="B761" s="1" t="n"/>
@@ -14259,7 +14265,7 @@
     <row r="766">
       <c r="A766" s="1" t="inlineStr">
         <is>
-          <t>M</t>
+          <t>F</t>
         </is>
       </c>
       <c r="B766" s="1" t="n"/>
@@ -14267,7 +14273,7 @@
     <row r="767">
       <c r="A767" s="1" t="inlineStr">
         <is>
-          <t>M</t>
+          <t>F</t>
         </is>
       </c>
       <c r="B767" s="1" t="n"/>
@@ -14275,7 +14281,7 @@
     <row r="768">
       <c r="A768" s="1" t="inlineStr">
         <is>
-          <t>F</t>
+          <t>M</t>
         </is>
       </c>
       <c r="B768" s="1" t="n"/>
@@ -14283,7 +14289,7 @@
     <row r="769">
       <c r="A769" s="1" t="inlineStr">
         <is>
-          <t>F</t>
+          <t>M</t>
         </is>
       </c>
       <c r="B769" s="1" t="n"/>
@@ -14307,7 +14313,7 @@
     <row r="772">
       <c r="A772" s="1" t="inlineStr">
         <is>
-          <t>F</t>
+          <t>M</t>
         </is>
       </c>
       <c r="B772" s="1" t="n"/>
@@ -14331,7 +14337,7 @@
     <row r="775">
       <c r="A775" s="1" t="inlineStr">
         <is>
-          <t>M</t>
+          <t>F</t>
         </is>
       </c>
       <c r="B775" s="1" t="n"/>
@@ -14347,7 +14353,7 @@
     <row r="777">
       <c r="A777" s="1" t="inlineStr">
         <is>
-          <t>F</t>
+          <t>M</t>
         </is>
       </c>
       <c r="B777" s="1" t="n"/>
@@ -14371,7 +14377,7 @@
     <row r="780">
       <c r="A780" s="1" t="inlineStr">
         <is>
-          <t>M</t>
+          <t>F</t>
         </is>
       </c>
       <c r="B780" s="1" t="n"/>
@@ -14387,7 +14393,7 @@
     <row r="782">
       <c r="A782" s="1" t="inlineStr">
         <is>
-          <t>M</t>
+          <t>F</t>
         </is>
       </c>
       <c r="B782" s="1" t="n"/>
@@ -14427,7 +14433,7 @@
     <row r="787">
       <c r="A787" s="1" t="inlineStr">
         <is>
-          <t>M</t>
+          <t>F</t>
         </is>
       </c>
       <c r="B787" s="1" t="n"/>
@@ -14443,7 +14449,7 @@
     <row r="789">
       <c r="A789" s="1" t="inlineStr">
         <is>
-          <t>M</t>
+          <t>F</t>
         </is>
       </c>
       <c r="B789" s="1" t="n"/>
@@ -14451,7 +14457,7 @@
     <row r="790">
       <c r="A790" s="1" t="inlineStr">
         <is>
-          <t>F</t>
+          <t>M</t>
         </is>
       </c>
       <c r="B790" s="1" t="n"/>
@@ -14459,7 +14465,7 @@
     <row r="791">
       <c r="A791" s="1" t="inlineStr">
         <is>
-          <t>F</t>
+          <t>M</t>
         </is>
       </c>
       <c r="B791" s="1" t="n"/>
@@ -14467,7 +14473,7 @@
     <row r="792">
       <c r="A792" s="1" t="inlineStr">
         <is>
-          <t>F</t>
+          <t>M</t>
         </is>
       </c>
       <c r="B792" s="1" t="n"/>
@@ -14483,7 +14489,7 @@
     <row r="794">
       <c r="A794" s="1" t="inlineStr">
         <is>
-          <t>F</t>
+          <t>M</t>
         </is>
       </c>
       <c r="B794" s="1" t="n"/>
@@ -14491,7 +14497,7 @@
     <row r="795">
       <c r="A795" s="1" t="inlineStr">
         <is>
-          <t>F</t>
+          <t>M</t>
         </is>
       </c>
       <c r="B795" s="1" t="n"/>
@@ -14499,7 +14505,7 @@
     <row r="796">
       <c r="A796" s="1" t="inlineStr">
         <is>
-          <t>M</t>
+          <t>F</t>
         </is>
       </c>
       <c r="B796" s="1" t="n"/>
@@ -14515,7 +14521,7 @@
     <row r="798">
       <c r="A798" s="1" t="inlineStr">
         <is>
-          <t>F</t>
+          <t>M</t>
         </is>
       </c>
       <c r="B798" s="1" t="n"/>
@@ -14531,7 +14537,7 @@
     <row r="800">
       <c r="A800" s="1" t="inlineStr">
         <is>
-          <t>F</t>
+          <t>M</t>
         </is>
       </c>
       <c r="B800" s="1" t="n"/>
@@ -14547,7 +14553,7 @@
     <row r="802">
       <c r="A802" s="1" t="inlineStr">
         <is>
-          <t>M</t>
+          <t>F</t>
         </is>
       </c>
       <c r="B802" s="1" t="n"/>
@@ -14555,7 +14561,7 @@
     <row r="803">
       <c r="A803" s="1" t="inlineStr">
         <is>
-          <t>M</t>
+          <t>F</t>
         </is>
       </c>
       <c r="B803" s="1" t="n"/>
@@ -14579,7 +14585,7 @@
     <row r="806">
       <c r="A806" s="1" t="inlineStr">
         <is>
-          <t>M</t>
+          <t>F</t>
         </is>
       </c>
       <c r="B806" s="1" t="n"/>
@@ -14595,7 +14601,7 @@
     <row r="808">
       <c r="A808" s="1" t="inlineStr">
         <is>
-          <t>M</t>
+          <t>F</t>
         </is>
       </c>
       <c r="B808" s="1" t="n"/>
@@ -14603,7 +14609,7 @@
     <row r="809">
       <c r="A809" s="1" t="inlineStr">
         <is>
-          <t>F</t>
+          <t>M</t>
         </is>
       </c>
       <c r="B809" s="1" t="n"/>
@@ -14611,7 +14617,7 @@
     <row r="810">
       <c r="A810" s="1" t="inlineStr">
         <is>
-          <t>M</t>
+          <t>F</t>
         </is>
       </c>
       <c r="B810" s="1" t="n"/>
@@ -14619,7 +14625,7 @@
     <row r="811">
       <c r="A811" s="1" t="inlineStr">
         <is>
-          <t>M</t>
+          <t>F</t>
         </is>
       </c>
       <c r="B811" s="1" t="n"/>
@@ -14635,7 +14641,7 @@
     <row r="813">
       <c r="A813" s="1" t="inlineStr">
         <is>
-          <t>M</t>
+          <t>F</t>
         </is>
       </c>
       <c r="B813" s="1" t="n"/>
@@ -14651,7 +14657,7 @@
     <row r="815">
       <c r="A815" s="1" t="inlineStr">
         <is>
-          <t>F</t>
+          <t>M</t>
         </is>
       </c>
       <c r="B815" s="1" t="n"/>
@@ -14659,7 +14665,7 @@
     <row r="816">
       <c r="A816" s="1" t="inlineStr">
         <is>
-          <t>F</t>
+          <t>M</t>
         </is>
       </c>
       <c r="B816" s="1" t="n"/>
@@ -14667,7 +14673,7 @@
     <row r="817">
       <c r="A817" s="1" t="inlineStr">
         <is>
-          <t>F</t>
+          <t>M</t>
         </is>
       </c>
       <c r="B817" s="1" t="n"/>
@@ -14683,7 +14689,7 @@
     <row r="819">
       <c r="A819" s="1" t="inlineStr">
         <is>
-          <t>F</t>
+          <t>M</t>
         </is>
       </c>
       <c r="B819" s="1" t="n"/>
@@ -14715,7 +14721,7 @@
     <row r="823">
       <c r="A823" s="1" t="inlineStr">
         <is>
-          <t>M</t>
+          <t>F</t>
         </is>
       </c>
       <c r="B823" s="1" t="n"/>
@@ -14731,7 +14737,7 @@
     <row r="825">
       <c r="A825" s="1" t="inlineStr">
         <is>
-          <t>M</t>
+          <t>F</t>
         </is>
       </c>
       <c r="B825" s="1" t="n"/>
@@ -14747,7 +14753,7 @@
     <row r="827">
       <c r="A827" s="1" t="inlineStr">
         <is>
-          <t>M</t>
+          <t>F</t>
         </is>
       </c>
       <c r="B827" s="1" t="n"/>
@@ -14779,7 +14785,7 @@
     <row r="831">
       <c r="A831" s="1" t="inlineStr">
         <is>
-          <t>M</t>
+          <t>F</t>
         </is>
       </c>
       <c r="B831" s="1" t="n"/>
@@ -14787,7 +14793,7 @@
     <row r="832">
       <c r="A832" s="1" t="inlineStr">
         <is>
-          <t>F</t>
+          <t>M</t>
         </is>
       </c>
       <c r="B832" s="1" t="n"/>
@@ -14803,7 +14809,7 @@
     <row r="834">
       <c r="A834" s="1" t="inlineStr">
         <is>
-          <t>F</t>
+          <t>M</t>
         </is>
       </c>
       <c r="B834" s="1" t="n"/>
@@ -14811,7 +14817,7 @@
     <row r="835">
       <c r="A835" s="1" t="inlineStr">
         <is>
-          <t>F</t>
+          <t>M</t>
         </is>
       </c>
       <c r="B835" s="1" t="n"/>
@@ -14827,7 +14833,7 @@
     <row r="837">
       <c r="A837" s="1" t="inlineStr">
         <is>
-          <t>F</t>
+          <t>M</t>
         </is>
       </c>
       <c r="B837" s="1" t="n"/>
@@ -14835,7 +14841,7 @@
     <row r="838">
       <c r="A838" s="1" t="inlineStr">
         <is>
-          <t>F</t>
+          <t>M</t>
         </is>
       </c>
       <c r="B838" s="1" t="n"/>
@@ -14843,7 +14849,7 @@
     <row r="839">
       <c r="A839" s="1" t="inlineStr">
         <is>
-          <t>M</t>
+          <t>F</t>
         </is>
       </c>
       <c r="B839" s="1" t="n"/>
@@ -14851,7 +14857,7 @@
     <row r="840">
       <c r="A840" s="1" t="inlineStr">
         <is>
-          <t>M</t>
+          <t>F</t>
         </is>
       </c>
       <c r="B840" s="1" t="n"/>
@@ -14883,7 +14889,7 @@
     <row r="844">
       <c r="A844" s="1" t="inlineStr">
         <is>
-          <t>F</t>
+          <t>M</t>
         </is>
       </c>
       <c r="B844" s="1" t="n"/>
@@ -14891,7 +14897,7 @@
     <row r="845">
       <c r="A845" s="1" t="inlineStr">
         <is>
-          <t>F</t>
+          <t>M</t>
         </is>
       </c>
       <c r="B845" s="1" t="n"/>
@@ -14899,7 +14905,7 @@
     <row r="846">
       <c r="A846" s="1" t="inlineStr">
         <is>
-          <t>M</t>
+          <t>F</t>
         </is>
       </c>
       <c r="B846" s="1" t="n"/>
@@ -14907,7 +14913,7 @@
     <row r="847">
       <c r="A847" s="1" t="inlineStr">
         <is>
-          <t>F</t>
+          <t>M</t>
         </is>
       </c>
       <c r="B847" s="1" t="n"/>
@@ -14915,7 +14921,7 @@
     <row r="848">
       <c r="A848" s="1" t="inlineStr">
         <is>
-          <t>F</t>
+          <t>M</t>
         </is>
       </c>
       <c r="B848" s="1" t="n"/>
@@ -14931,7 +14937,7 @@
     <row r="850">
       <c r="A850" s="1" t="inlineStr">
         <is>
-          <t>F</t>
+          <t>M</t>
         </is>
       </c>
       <c r="B850" s="1" t="n"/>
@@ -14939,7 +14945,7 @@
     <row r="851">
       <c r="A851" s="1" t="inlineStr">
         <is>
-          <t>M</t>
+          <t>F</t>
         </is>
       </c>
       <c r="B851" s="1" t="n"/>
@@ -14947,7 +14953,7 @@
     <row r="852">
       <c r="A852" s="1" t="inlineStr">
         <is>
-          <t>F</t>
+          <t>M</t>
         </is>
       </c>
       <c r="B852" s="1" t="n"/>
@@ -14955,7 +14961,7 @@
     <row r="853">
       <c r="A853" s="1" t="inlineStr">
         <is>
-          <t>M</t>
+          <t>F</t>
         </is>
       </c>
       <c r="B853" s="1" t="n"/>
@@ -15003,7 +15009,7 @@
     <row r="859">
       <c r="A859" s="1" t="inlineStr">
         <is>
-          <t>M</t>
+          <t>F</t>
         </is>
       </c>
       <c r="B859" s="1" t="n"/>
@@ -15019,7 +15025,7 @@
     <row r="861">
       <c r="A861" s="1" t="inlineStr">
         <is>
-          <t>F</t>
+          <t>M</t>
         </is>
       </c>
       <c r="B861" s="1" t="n"/>
@@ -15035,7 +15041,7 @@
     <row r="863">
       <c r="A863" s="1" t="inlineStr">
         <is>
-          <t>F</t>
+          <t>M</t>
         </is>
       </c>
       <c r="B863" s="1" t="n"/>
@@ -15043,7 +15049,7 @@
     <row r="864">
       <c r="A864" s="1" t="inlineStr">
         <is>
-          <t>M</t>
+          <t>F</t>
         </is>
       </c>
       <c r="B864" s="1" t="n"/>
@@ -15051,7 +15057,7 @@
     <row r="865">
       <c r="A865" s="1" t="inlineStr">
         <is>
-          <t>M</t>
+          <t>F</t>
         </is>
       </c>
       <c r="B865" s="1" t="n"/>
@@ -15059,7 +15065,7 @@
     <row r="866">
       <c r="A866" s="1" t="inlineStr">
         <is>
-          <t>F</t>
+          <t>M</t>
         </is>
       </c>
       <c r="B866" s="1" t="n"/>
@@ -15067,7 +15073,7 @@
     <row r="867">
       <c r="A867" s="1" t="inlineStr">
         <is>
-          <t>M</t>
+          <t>F</t>
         </is>
       </c>
       <c r="B867" s="1" t="n"/>
@@ -15083,7 +15089,7 @@
     <row r="869">
       <c r="A869" s="1" t="inlineStr">
         <is>
-          <t>M</t>
+          <t>F</t>
         </is>
       </c>
       <c r="B869" s="1" t="n"/>
@@ -15099,7 +15105,7 @@
     <row r="871">
       <c r="A871" s="1" t="inlineStr">
         <is>
-          <t>F</t>
+          <t>M</t>
         </is>
       </c>
       <c r="B871" s="1" t="n"/>
@@ -15107,7 +15113,7 @@
     <row r="872">
       <c r="A872" s="1" t="inlineStr">
         <is>
-          <t>M</t>
+          <t>F</t>
         </is>
       </c>
       <c r="B872" s="1" t="n"/>
@@ -15115,7 +15121,7 @@
     <row r="873">
       <c r="A873" s="1" t="inlineStr">
         <is>
-          <t>F</t>
+          <t>M</t>
         </is>
       </c>
       <c r="B873" s="1" t="n"/>
@@ -15123,7 +15129,7 @@
     <row r="874">
       <c r="A874" s="1" t="inlineStr">
         <is>
-          <t>M</t>
+          <t>F</t>
         </is>
       </c>
       <c r="B874" s="1" t="n"/>
@@ -15131,7 +15137,7 @@
     <row r="875">
       <c r="A875" s="1" t="inlineStr">
         <is>
-          <t>F</t>
+          <t>M</t>
         </is>
       </c>
       <c r="B875" s="1" t="n"/>
@@ -15147,7 +15153,7 @@
     <row r="877">
       <c r="A877" s="1" t="inlineStr">
         <is>
-          <t>M</t>
+          <t>F</t>
         </is>
       </c>
       <c r="B877" s="1" t="n"/>
@@ -15155,7 +15161,7 @@
     <row r="878">
       <c r="A878" s="1" t="inlineStr">
         <is>
-          <t>F</t>
+          <t>M</t>
         </is>
       </c>
       <c r="B878" s="1" t="n"/>
@@ -15163,7 +15169,7 @@
     <row r="879">
       <c r="A879" s="1" t="inlineStr">
         <is>
-          <t>F</t>
+          <t>M</t>
         </is>
       </c>
       <c r="B879" s="1" t="n"/>
@@ -15187,7 +15193,7 @@
     <row r="882">
       <c r="A882" s="1" t="inlineStr">
         <is>
-          <t>F</t>
+          <t>M</t>
         </is>
       </c>
       <c r="B882" s="1" t="n"/>
@@ -15195,7 +15201,7 @@
     <row r="883">
       <c r="A883" s="1" t="inlineStr">
         <is>
-          <t>F</t>
+          <t>M</t>
         </is>
       </c>
       <c r="B883" s="1" t="n"/>
@@ -15203,7 +15209,7 @@
     <row r="884">
       <c r="A884" s="1" t="inlineStr">
         <is>
-          <t>M</t>
+          <t>F</t>
         </is>
       </c>
       <c r="B884" s="1" t="n"/>
@@ -15211,7 +15217,7 @@
     <row r="885">
       <c r="A885" s="1" t="inlineStr">
         <is>
-          <t>F</t>
+          <t>M</t>
         </is>
       </c>
       <c r="B885" s="1" t="n"/>
@@ -15227,7 +15233,7 @@
     <row r="887">
       <c r="A887" s="1" t="inlineStr">
         <is>
-          <t>M</t>
+          <t>F</t>
         </is>
       </c>
       <c r="B887" s="1" t="n"/>
@@ -15235,7 +15241,7 @@
     <row r="888">
       <c r="A888" s="1" t="inlineStr">
         <is>
-          <t>M</t>
+          <t>F</t>
         </is>
       </c>
       <c r="B888" s="1" t="n"/>
@@ -15259,7 +15265,7 @@
     <row r="891">
       <c r="A891" s="1" t="inlineStr">
         <is>
-          <t>F</t>
+          <t>M</t>
         </is>
       </c>
       <c r="B891" s="1" t="n"/>
@@ -15275,7 +15281,7 @@
     <row r="893">
       <c r="A893" s="1" t="inlineStr">
         <is>
-          <t>F</t>
+          <t>M</t>
         </is>
       </c>
       <c r="B893" s="1" t="n"/>
@@ -15283,7 +15289,7 @@
     <row r="894">
       <c r="A894" s="1" t="inlineStr">
         <is>
-          <t>F</t>
+          <t>M</t>
         </is>
       </c>
       <c r="B894" s="1" t="n"/>
@@ -15291,7 +15297,7 @@
     <row r="895">
       <c r="A895" s="1" t="inlineStr">
         <is>
-          <t>F</t>
+          <t>M</t>
         </is>
       </c>
       <c r="B895" s="1" t="n"/>
@@ -15299,7 +15305,7 @@
     <row r="896">
       <c r="A896" s="1" t="inlineStr">
         <is>
-          <t>F</t>
+          <t>M</t>
         </is>
       </c>
       <c r="B896" s="1" t="n"/>
@@ -15307,7 +15313,7 @@
     <row r="897">
       <c r="A897" s="1" t="inlineStr">
         <is>
-          <t>M</t>
+          <t>F</t>
         </is>
       </c>
       <c r="B897" s="1" t="n"/>
@@ -15323,7 +15329,7 @@
     <row r="899">
       <c r="A899" s="1" t="inlineStr">
         <is>
-          <t>M</t>
+          <t>F</t>
         </is>
       </c>
       <c r="B899" s="1" t="n"/>
@@ -15347,7 +15353,7 @@
     <row r="902">
       <c r="A902" s="1" t="inlineStr">
         <is>
-          <t>F</t>
+          <t>M</t>
         </is>
       </c>
       <c r="B902" s="1" t="n"/>
@@ -15371,7 +15377,7 @@
     <row r="905">
       <c r="A905" s="1" t="inlineStr">
         <is>
-          <t>M</t>
+          <t>F</t>
         </is>
       </c>
       <c r="B905" s="1" t="n"/>
@@ -15379,7 +15385,7 @@
     <row r="906">
       <c r="A906" s="1" t="inlineStr">
         <is>
-          <t>M</t>
+          <t>F</t>
         </is>
       </c>
       <c r="B906" s="1" t="n"/>
@@ -15411,7 +15417,7 @@
     <row r="910">
       <c r="A910" s="1" t="inlineStr">
         <is>
-          <t>F</t>
+          <t>M</t>
         </is>
       </c>
       <c r="B910" s="1" t="n"/>
@@ -15427,7 +15433,7 @@
     <row r="912">
       <c r="A912" s="1" t="inlineStr">
         <is>
-          <t>M</t>
+          <t>F</t>
         </is>
       </c>
       <c r="B912" s="1" t="n"/>
@@ -15451,7 +15457,7 @@
     <row r="915">
       <c r="A915" s="1" t="inlineStr">
         <is>
-          <t>F</t>
+          <t>M</t>
         </is>
       </c>
       <c r="B915" s="1" t="n"/>
@@ -15459,7 +15465,7 @@
     <row r="916">
       <c r="A916" s="1" t="inlineStr">
         <is>
-          <t>F</t>
+          <t>M</t>
         </is>
       </c>
       <c r="B916" s="1" t="n"/>
@@ -15467,7 +15473,7 @@
     <row r="917">
       <c r="A917" s="1" t="inlineStr">
         <is>
-          <t>F</t>
+          <t>M</t>
         </is>
       </c>
       <c r="B917" s="1" t="n"/>
@@ -15499,7 +15505,7 @@
     <row r="921">
       <c r="A921" s="1" t="inlineStr">
         <is>
-          <t>M</t>
+          <t>F</t>
         </is>
       </c>
       <c r="B921" s="1" t="n"/>
@@ -15507,7 +15513,7 @@
     <row r="922">
       <c r="A922" s="1" t="inlineStr">
         <is>
-          <t>M</t>
+          <t>F</t>
         </is>
       </c>
       <c r="B922" s="1" t="n"/>
@@ -15515,7 +15521,7 @@
     <row r="923">
       <c r="A923" s="1" t="inlineStr">
         <is>
-          <t>M</t>
+          <t>F</t>
         </is>
       </c>
       <c r="B923" s="1" t="n"/>
@@ -15523,7 +15529,7 @@
     <row r="924">
       <c r="A924" s="1" t="inlineStr">
         <is>
-          <t>F</t>
+          <t>M</t>
         </is>
       </c>
       <c r="B924" s="1" t="n"/>
@@ -15531,7 +15537,7 @@
     <row r="925">
       <c r="A925" s="1" t="inlineStr">
         <is>
-          <t>M</t>
+          <t>F</t>
         </is>
       </c>
       <c r="B925" s="1" t="n"/>
@@ -15539,7 +15545,7 @@
     <row r="926">
       <c r="A926" s="1" t="inlineStr">
         <is>
-          <t>F</t>
+          <t>M</t>
         </is>
       </c>
       <c r="B926" s="1" t="n"/>
@@ -15547,7 +15553,7 @@
     <row r="927">
       <c r="A927" s="1" t="inlineStr">
         <is>
-          <t>M</t>
+          <t>F</t>
         </is>
       </c>
       <c r="B927" s="1" t="n"/>
@@ -15563,7 +15569,7 @@
     <row r="929">
       <c r="A929" s="1" t="inlineStr">
         <is>
-          <t>M</t>
+          <t>F</t>
         </is>
       </c>
       <c r="B929" s="1" t="n"/>
@@ -15579,7 +15585,7 @@
     <row r="931">
       <c r="A931" s="1" t="inlineStr">
         <is>
-          <t>F</t>
+          <t>M</t>
         </is>
       </c>
       <c r="B931" s="1" t="n"/>
@@ -15603,7 +15609,7 @@
     <row r="934">
       <c r="A934" s="1" t="inlineStr">
         <is>
-          <t>M</t>
+          <t>F</t>
         </is>
       </c>
       <c r="B934" s="1" t="n"/>
@@ -15627,7 +15633,7 @@
     <row r="937">
       <c r="A937" s="1" t="inlineStr">
         <is>
-          <t>M</t>
+          <t>F</t>
         </is>
       </c>
       <c r="B937" s="1" t="n"/>
@@ -15635,7 +15641,7 @@
     <row r="938">
       <c r="A938" s="1" t="inlineStr">
         <is>
-          <t>F</t>
+          <t>M</t>
         </is>
       </c>
       <c r="B938" s="1" t="n"/>
@@ -15675,7 +15681,7 @@
     <row r="943">
       <c r="A943" s="1" t="inlineStr">
         <is>
-          <t>M</t>
+          <t>F</t>
         </is>
       </c>
       <c r="B943" s="1" t="n"/>
@@ -15691,7 +15697,7 @@
     <row r="945">
       <c r="A945" s="1" t="inlineStr">
         <is>
-          <t>M</t>
+          <t>F</t>
         </is>
       </c>
       <c r="B945" s="1" t="n"/>
@@ -15715,7 +15721,7 @@
     <row r="948">
       <c r="A948" s="1" t="inlineStr">
         <is>
-          <t>M</t>
+          <t>F</t>
         </is>
       </c>
       <c r="B948" s="1" t="n"/>
@@ -15723,7 +15729,7 @@
     <row r="949">
       <c r="A949" s="1" t="inlineStr">
         <is>
-          <t>M</t>
+          <t>F</t>
         </is>
       </c>
       <c r="B949" s="1" t="n"/>
@@ -15731,7 +15737,7 @@
     <row r="950">
       <c r="A950" s="1" t="inlineStr">
         <is>
-          <t>M</t>
+          <t>F</t>
         </is>
       </c>
       <c r="B950" s="1" t="n"/>
@@ -15739,7 +15745,7 @@
     <row r="951">
       <c r="A951" s="1" t="inlineStr">
         <is>
-          <t>F</t>
+          <t>M</t>
         </is>
       </c>
       <c r="B951" s="1" t="n"/>

--- a/Assignment#5/Assignment_5_Data_and_Template.xlsx
+++ b/Assignment#5/Assignment_5_Data_and_Template.xlsx
@@ -8113,7 +8113,7 @@
     <row r="2">
       <c r="A2" s="1" t="inlineStr">
         <is>
-          <t>F</t>
+          <t>C</t>
         </is>
       </c>
       <c r="B2" s="1" t="n"/>
@@ -8139,7 +8139,7 @@
         </is>
       </c>
       <c r="F3" s="1" t="n">
-        <v>287</v>
+        <v>406</v>
       </c>
     </row>
     <row r="4">
@@ -8155,7 +8155,7 @@
         </is>
       </c>
       <c r="F4" s="1" t="n">
-        <v>405</v>
+        <v>286</v>
       </c>
     </row>
     <row r="5">
@@ -8169,7 +8169,7 @@
     <row r="6">
       <c r="A6" s="1" t="inlineStr">
         <is>
-          <t>F</t>
+          <t>C</t>
         </is>
       </c>
       <c r="B6" s="1" t="n"/>
@@ -8185,7 +8185,7 @@
     <row r="8">
       <c r="A8" s="1" t="inlineStr">
         <is>
-          <t>C</t>
+          <t>F</t>
         </is>
       </c>
       <c r="B8" s="1" t="n"/>
@@ -8201,7 +8201,7 @@
     <row r="9">
       <c r="A9" s="1" t="inlineStr">
         <is>
-          <t>F</t>
+          <t>C</t>
         </is>
       </c>
       <c r="B9" s="1" t="n"/>
@@ -8217,7 +8217,7 @@
     <row r="10">
       <c r="A10" s="1" t="inlineStr">
         <is>
-          <t>F</t>
+          <t>C</t>
         </is>
       </c>
       <c r="B10" s="1" t="n"/>
@@ -8225,7 +8225,7 @@
     <row r="11">
       <c r="A11" s="1" t="inlineStr">
         <is>
-          <t>C</t>
+          <t>F</t>
         </is>
       </c>
       <c r="B11" s="1" t="n"/>
@@ -8241,7 +8241,7 @@
     <row r="13">
       <c r="A13" s="1" t="inlineStr">
         <is>
-          <t>F</t>
+          <t>C</t>
         </is>
       </c>
       <c r="B13" s="1" t="n"/>
@@ -8249,7 +8249,7 @@
     <row r="14">
       <c r="A14" s="1" t="inlineStr">
         <is>
-          <t>C</t>
+          <t>F</t>
         </is>
       </c>
       <c r="B14" s="1" t="n"/>
@@ -8289,7 +8289,7 @@
     <row r="19">
       <c r="A19" s="1" t="inlineStr">
         <is>
-          <t>C</t>
+          <t>F</t>
         </is>
       </c>
       <c r="B19" s="1" t="n"/>
@@ -8297,7 +8297,7 @@
     <row r="20">
       <c r="A20" s="1" t="inlineStr">
         <is>
-          <t>C</t>
+          <t>F</t>
         </is>
       </c>
       <c r="B20" s="1" t="n"/>
@@ -8305,7 +8305,7 @@
     <row r="21">
       <c r="A21" s="1" t="inlineStr">
         <is>
-          <t>F</t>
+          <t>C</t>
         </is>
       </c>
       <c r="B21" s="1" t="n"/>
@@ -8313,7 +8313,7 @@
     <row r="22">
       <c r="A22" s="1" t="inlineStr">
         <is>
-          <t>C</t>
+          <t>F</t>
         </is>
       </c>
       <c r="B22" s="1" t="n"/>
@@ -8321,7 +8321,7 @@
     <row r="23">
       <c r="A23" s="1" t="inlineStr">
         <is>
-          <t>C</t>
+          <t>F</t>
         </is>
       </c>
       <c r="B23" s="1" t="n"/>
@@ -8329,7 +8329,7 @@
     <row r="24">
       <c r="A24" s="1" t="inlineStr">
         <is>
-          <t>F</t>
+          <t>C</t>
         </is>
       </c>
       <c r="B24" s="1" t="n"/>
@@ -8337,7 +8337,7 @@
     <row r="25">
       <c r="A25" s="1" t="inlineStr">
         <is>
-          <t>C</t>
+          <t>F</t>
         </is>
       </c>
       <c r="B25" s="1" t="n"/>
@@ -8345,7 +8345,7 @@
     <row r="26">
       <c r="A26" s="1" t="inlineStr">
         <is>
-          <t>C</t>
+          <t>F</t>
         </is>
       </c>
       <c r="B26" s="1" t="n"/>
@@ -8361,7 +8361,7 @@
     <row r="28">
       <c r="A28" s="1" t="inlineStr">
         <is>
-          <t>F</t>
+          <t>C</t>
         </is>
       </c>
       <c r="B28" s="1" t="n"/>
@@ -8369,7 +8369,7 @@
     <row r="29">
       <c r="A29" s="1" t="inlineStr">
         <is>
-          <t>C</t>
+          <t>F</t>
         </is>
       </c>
       <c r="B29" s="1" t="n"/>
@@ -8393,7 +8393,7 @@
     <row r="32">
       <c r="A32" s="1" t="inlineStr">
         <is>
-          <t>F</t>
+          <t>C</t>
         </is>
       </c>
       <c r="B32" s="1" t="n"/>
@@ -8401,7 +8401,7 @@
     <row r="33">
       <c r="A33" s="1" t="inlineStr">
         <is>
-          <t>C</t>
+          <t>F</t>
         </is>
       </c>
       <c r="B33" s="1" t="n"/>
@@ -8409,7 +8409,7 @@
     <row r="34">
       <c r="A34" s="1" t="inlineStr">
         <is>
-          <t>C</t>
+          <t>F</t>
         </is>
       </c>
       <c r="B34" s="1" t="n"/>
@@ -8417,7 +8417,7 @@
     <row r="35">
       <c r="A35" s="1" t="inlineStr">
         <is>
-          <t>F</t>
+          <t>C</t>
         </is>
       </c>
       <c r="B35" s="1" t="n"/>
@@ -8425,7 +8425,7 @@
     <row r="36">
       <c r="A36" s="1" t="inlineStr">
         <is>
-          <t>F</t>
+          <t>C</t>
         </is>
       </c>
       <c r="B36" s="1" t="n"/>
@@ -8441,7 +8441,7 @@
     <row r="38">
       <c r="A38" s="1" t="inlineStr">
         <is>
-          <t>C</t>
+          <t>F</t>
         </is>
       </c>
       <c r="B38" s="1" t="n"/>
@@ -8449,7 +8449,7 @@
     <row r="39">
       <c r="A39" s="1" t="inlineStr">
         <is>
-          <t>C</t>
+          <t>F</t>
         </is>
       </c>
       <c r="B39" s="1" t="n"/>
@@ -8457,7 +8457,7 @@
     <row r="40">
       <c r="A40" s="1" t="inlineStr">
         <is>
-          <t>F</t>
+          <t>C</t>
         </is>
       </c>
       <c r="B40" s="1" t="n"/>
@@ -8481,7 +8481,7 @@
     <row r="43">
       <c r="A43" s="1" t="inlineStr">
         <is>
-          <t>C</t>
+          <t>F</t>
         </is>
       </c>
       <c r="B43" s="1" t="n"/>
@@ -8489,7 +8489,7 @@
     <row r="44">
       <c r="A44" s="1" t="inlineStr">
         <is>
-          <t>C</t>
+          <t>F</t>
         </is>
       </c>
       <c r="B44" s="1" t="n"/>
@@ -8497,7 +8497,7 @@
     <row r="45">
       <c r="A45" s="1" t="inlineStr">
         <is>
-          <t>C</t>
+          <t>F</t>
         </is>
       </c>
       <c r="B45" s="1" t="n"/>
@@ -8513,7 +8513,7 @@
     <row r="47">
       <c r="A47" s="1" t="inlineStr">
         <is>
-          <t>F</t>
+          <t>C</t>
         </is>
       </c>
       <c r="B47" s="1" t="n"/>
@@ -8521,7 +8521,7 @@
     <row r="48">
       <c r="A48" s="1" t="inlineStr">
         <is>
-          <t>F</t>
+          <t>C</t>
         </is>
       </c>
       <c r="B48" s="1" t="n"/>
@@ -8545,7 +8545,7 @@
     <row r="51">
       <c r="A51" s="1" t="inlineStr">
         <is>
-          <t>C</t>
+          <t>F</t>
         </is>
       </c>
       <c r="B51" s="1" t="n"/>
@@ -8561,7 +8561,7 @@
     <row r="53">
       <c r="A53" s="1" t="inlineStr">
         <is>
-          <t>F</t>
+          <t>C</t>
         </is>
       </c>
       <c r="B53" s="1" t="n"/>
@@ -8577,7 +8577,7 @@
     <row r="55">
       <c r="A55" s="1" t="inlineStr">
         <is>
-          <t>C</t>
+          <t>F</t>
         </is>
       </c>
       <c r="B55" s="1" t="n"/>
@@ -8585,7 +8585,7 @@
     <row r="56">
       <c r="A56" s="1" t="inlineStr">
         <is>
-          <t>C</t>
+          <t>F</t>
         </is>
       </c>
       <c r="B56" s="1" t="n"/>
@@ -8601,7 +8601,7 @@
     <row r="58">
       <c r="A58" s="1" t="inlineStr">
         <is>
-          <t>C</t>
+          <t>F</t>
         </is>
       </c>
       <c r="B58" s="1" t="n"/>
@@ -8625,7 +8625,7 @@
     <row r="61">
       <c r="A61" s="1" t="inlineStr">
         <is>
-          <t>F</t>
+          <t>C</t>
         </is>
       </c>
       <c r="B61" s="1" t="n"/>
@@ -8633,7 +8633,7 @@
     <row r="62">
       <c r="A62" s="1" t="inlineStr">
         <is>
-          <t>F</t>
+          <t>C</t>
         </is>
       </c>
       <c r="B62" s="1" t="n"/>
@@ -8641,7 +8641,7 @@
     <row r="63">
       <c r="A63" s="1" t="inlineStr">
         <is>
-          <t>C</t>
+          <t>F</t>
         </is>
       </c>
       <c r="B63" s="1" t="n"/>
@@ -8649,7 +8649,7 @@
     <row r="64">
       <c r="A64" s="1" t="inlineStr">
         <is>
-          <t>C</t>
+          <t>F</t>
         </is>
       </c>
       <c r="B64" s="1" t="n"/>
@@ -8657,7 +8657,7 @@
     <row r="65">
       <c r="A65" s="1" t="inlineStr">
         <is>
-          <t>C</t>
+          <t>F</t>
         </is>
       </c>
       <c r="B65" s="1" t="n"/>
@@ -8665,7 +8665,7 @@
     <row r="66">
       <c r="A66" s="1" t="inlineStr">
         <is>
-          <t>C</t>
+          <t>F</t>
         </is>
       </c>
       <c r="B66" s="1" t="n"/>
@@ -8673,7 +8673,7 @@
     <row r="67">
       <c r="A67" s="1" t="inlineStr">
         <is>
-          <t>F</t>
+          <t>C</t>
         </is>
       </c>
       <c r="B67" s="1" t="n"/>
@@ -8689,7 +8689,7 @@
     <row r="69">
       <c r="A69" s="1" t="inlineStr">
         <is>
-          <t>C</t>
+          <t>F</t>
         </is>
       </c>
       <c r="B69" s="1" t="n"/>
@@ -8697,7 +8697,7 @@
     <row r="70">
       <c r="A70" s="1" t="inlineStr">
         <is>
-          <t>F</t>
+          <t>C</t>
         </is>
       </c>
       <c r="B70" s="1" t="n"/>
@@ -8705,7 +8705,7 @@
     <row r="71">
       <c r="A71" s="1" t="inlineStr">
         <is>
-          <t>C</t>
+          <t>F</t>
         </is>
       </c>
       <c r="B71" s="1" t="n"/>
@@ -8713,7 +8713,7 @@
     <row r="72">
       <c r="A72" s="1" t="inlineStr">
         <is>
-          <t>C</t>
+          <t>F</t>
         </is>
       </c>
       <c r="B72" s="1" t="n"/>
@@ -8721,7 +8721,7 @@
     <row r="73">
       <c r="A73" s="1" t="inlineStr">
         <is>
-          <t>F</t>
+          <t>C</t>
         </is>
       </c>
       <c r="B73" s="1" t="n"/>
@@ -8729,7 +8729,7 @@
     <row r="74">
       <c r="A74" s="1" t="inlineStr">
         <is>
-          <t>C</t>
+          <t>F</t>
         </is>
       </c>
       <c r="B74" s="1" t="n"/>
@@ -8737,7 +8737,7 @@
     <row r="75">
       <c r="A75" s="1" t="inlineStr">
         <is>
-          <t>F</t>
+          <t>C</t>
         </is>
       </c>
       <c r="B75" s="1" t="n"/>
@@ -8761,7 +8761,7 @@
     <row r="78">
       <c r="A78" s="1" t="inlineStr">
         <is>
-          <t>F</t>
+          <t>C</t>
         </is>
       </c>
       <c r="B78" s="1" t="n"/>
@@ -8769,7 +8769,7 @@
     <row r="79">
       <c r="A79" s="1" t="inlineStr">
         <is>
-          <t>F</t>
+          <t>C</t>
         </is>
       </c>
       <c r="B79" s="1" t="n"/>
@@ -8777,7 +8777,7 @@
     <row r="80">
       <c r="A80" s="1" t="inlineStr">
         <is>
-          <t>C</t>
+          <t>F</t>
         </is>
       </c>
       <c r="B80" s="1" t="n"/>
@@ -8793,7 +8793,7 @@
     <row r="82">
       <c r="A82" s="1" t="inlineStr">
         <is>
-          <t>C</t>
+          <t>F</t>
         </is>
       </c>
       <c r="B82" s="1" t="n"/>
@@ -8809,7 +8809,7 @@
     <row r="84">
       <c r="A84" s="1" t="inlineStr">
         <is>
-          <t>C</t>
+          <t>F</t>
         </is>
       </c>
       <c r="B84" s="1" t="n"/>
@@ -8825,7 +8825,7 @@
     <row r="86">
       <c r="A86" s="1" t="inlineStr">
         <is>
-          <t>F</t>
+          <t>C</t>
         </is>
       </c>
       <c r="B86" s="1" t="n"/>
@@ -8833,7 +8833,7 @@
     <row r="87">
       <c r="A87" s="1" t="inlineStr">
         <is>
-          <t>F</t>
+          <t>C</t>
         </is>
       </c>
       <c r="B87" s="1" t="n"/>
@@ -8857,7 +8857,7 @@
     <row r="90">
       <c r="A90" s="1" t="inlineStr">
         <is>
-          <t>C</t>
+          <t>F</t>
         </is>
       </c>
       <c r="B90" s="1" t="n"/>
@@ -8865,7 +8865,7 @@
     <row r="91">
       <c r="A91" s="1" t="inlineStr">
         <is>
-          <t>C</t>
+          <t>F</t>
         </is>
       </c>
       <c r="B91" s="1" t="n"/>
@@ -8873,7 +8873,7 @@
     <row r="92">
       <c r="A92" s="1" t="inlineStr">
         <is>
-          <t>C</t>
+          <t>F</t>
         </is>
       </c>
       <c r="B92" s="1" t="n"/>
@@ -8881,7 +8881,7 @@
     <row r="93">
       <c r="A93" s="1" t="inlineStr">
         <is>
-          <t>C</t>
+          <t>F</t>
         </is>
       </c>
       <c r="B93" s="1" t="n"/>
@@ -8889,7 +8889,7 @@
     <row r="94">
       <c r="A94" s="1" t="inlineStr">
         <is>
-          <t>C</t>
+          <t>F</t>
         </is>
       </c>
       <c r="B94" s="1" t="n"/>
@@ -8897,7 +8897,7 @@
     <row r="95">
       <c r="A95" s="1" t="inlineStr">
         <is>
-          <t>C</t>
+          <t>F</t>
         </is>
       </c>
       <c r="B95" s="1" t="n"/>
@@ -8905,7 +8905,7 @@
     <row r="96">
       <c r="A96" s="1" t="inlineStr">
         <is>
-          <t>F</t>
+          <t>C</t>
         </is>
       </c>
       <c r="B96" s="1" t="n"/>
@@ -8913,7 +8913,7 @@
     <row r="97">
       <c r="A97" s="1" t="inlineStr">
         <is>
-          <t>F</t>
+          <t>C</t>
         </is>
       </c>
       <c r="B97" s="1" t="n"/>
@@ -8921,7 +8921,7 @@
     <row r="98">
       <c r="A98" s="1" t="inlineStr">
         <is>
-          <t>C</t>
+          <t>F</t>
         </is>
       </c>
       <c r="B98" s="1" t="n"/>
@@ -8929,7 +8929,7 @@
     <row r="99">
       <c r="A99" s="1" t="inlineStr">
         <is>
-          <t>F</t>
+          <t>C</t>
         </is>
       </c>
       <c r="B99" s="1" t="n"/>
@@ -8953,7 +8953,7 @@
     <row r="102">
       <c r="A102" s="1" t="inlineStr">
         <is>
-          <t>C</t>
+          <t>F</t>
         </is>
       </c>
       <c r="B102" s="1" t="n"/>
@@ -8961,7 +8961,7 @@
     <row r="103">
       <c r="A103" s="1" t="inlineStr">
         <is>
-          <t>F</t>
+          <t>C</t>
         </is>
       </c>
       <c r="B103" s="1" t="n"/>
@@ -8977,7 +8977,7 @@
     <row r="105">
       <c r="A105" s="1" t="inlineStr">
         <is>
-          <t>C</t>
+          <t>F</t>
         </is>
       </c>
       <c r="B105" s="1" t="n"/>
@@ -8993,7 +8993,7 @@
     <row r="107">
       <c r="A107" s="1" t="inlineStr">
         <is>
-          <t>F</t>
+          <t>C</t>
         </is>
       </c>
       <c r="B107" s="1" t="n"/>
@@ -9001,7 +9001,7 @@
     <row r="108">
       <c r="A108" s="1" t="inlineStr">
         <is>
-          <t>C</t>
+          <t>F</t>
         </is>
       </c>
       <c r="B108" s="1" t="n"/>
@@ -9009,7 +9009,7 @@
     <row r="109">
       <c r="A109" s="1" t="inlineStr">
         <is>
-          <t>C</t>
+          <t>F</t>
         </is>
       </c>
       <c r="B109" s="1" t="n"/>
@@ -9025,7 +9025,7 @@
     <row r="111">
       <c r="A111" s="1" t="inlineStr">
         <is>
-          <t>C</t>
+          <t>F</t>
         </is>
       </c>
       <c r="B111" s="1" t="n"/>
@@ -9033,7 +9033,7 @@
     <row r="112">
       <c r="A112" s="1" t="inlineStr">
         <is>
-          <t>F</t>
+          <t>C</t>
         </is>
       </c>
       <c r="B112" s="1" t="n"/>
@@ -9049,7 +9049,7 @@
     <row r="114">
       <c r="A114" s="1" t="inlineStr">
         <is>
-          <t>F</t>
+          <t>C</t>
         </is>
       </c>
       <c r="B114" s="1" t="n"/>
@@ -9057,7 +9057,7 @@
     <row r="115">
       <c r="A115" s="1" t="inlineStr">
         <is>
-          <t>F</t>
+          <t>C</t>
         </is>
       </c>
       <c r="B115" s="1" t="n"/>
@@ -9065,7 +9065,7 @@
     <row r="116">
       <c r="A116" s="1" t="inlineStr">
         <is>
-          <t>F</t>
+          <t>C</t>
         </is>
       </c>
       <c r="B116" s="1" t="n"/>
@@ -9073,7 +9073,7 @@
     <row r="117">
       <c r="A117" s="1" t="inlineStr">
         <is>
-          <t>C</t>
+          <t>F</t>
         </is>
       </c>
       <c r="B117" s="1" t="n"/>
@@ -9081,7 +9081,7 @@
     <row r="118">
       <c r="A118" s="1" t="inlineStr">
         <is>
-          <t>C</t>
+          <t>F</t>
         </is>
       </c>
       <c r="B118" s="1" t="n"/>
@@ -9089,7 +9089,7 @@
     <row r="119">
       <c r="A119" s="1" t="inlineStr">
         <is>
-          <t>C</t>
+          <t>F</t>
         </is>
       </c>
       <c r="B119" s="1" t="n"/>
@@ -9097,7 +9097,7 @@
     <row r="120">
       <c r="A120" s="1" t="inlineStr">
         <is>
-          <t>F</t>
+          <t>C</t>
         </is>
       </c>
       <c r="B120" s="1" t="n"/>
@@ -9105,7 +9105,7 @@
     <row r="121">
       <c r="A121" s="1" t="inlineStr">
         <is>
-          <t>F</t>
+          <t>C</t>
         </is>
       </c>
       <c r="B121" s="1" t="n"/>
@@ -9113,7 +9113,7 @@
     <row r="122">
       <c r="A122" s="1" t="inlineStr">
         <is>
-          <t>C</t>
+          <t>F</t>
         </is>
       </c>
       <c r="B122" s="1" t="n"/>
@@ -9129,7 +9129,7 @@
     <row r="124">
       <c r="A124" s="1" t="inlineStr">
         <is>
-          <t>F</t>
+          <t>C</t>
         </is>
       </c>
       <c r="B124" s="1" t="n"/>
@@ -9137,7 +9137,7 @@
     <row r="125">
       <c r="A125" s="1" t="inlineStr">
         <is>
-          <t>C</t>
+          <t>F</t>
         </is>
       </c>
       <c r="B125" s="1" t="n"/>
@@ -9153,7 +9153,7 @@
     <row r="127">
       <c r="A127" s="1" t="inlineStr">
         <is>
-          <t>C</t>
+          <t>F</t>
         </is>
       </c>
       <c r="B127" s="1" t="n"/>
@@ -9161,7 +9161,7 @@
     <row r="128">
       <c r="A128" s="1" t="inlineStr">
         <is>
-          <t>F</t>
+          <t>C</t>
         </is>
       </c>
       <c r="B128" s="1" t="n"/>
@@ -9169,7 +9169,7 @@
     <row r="129">
       <c r="A129" s="1" t="inlineStr">
         <is>
-          <t>F</t>
+          <t>C</t>
         </is>
       </c>
       <c r="B129" s="1" t="n"/>
@@ -9185,7 +9185,7 @@
     <row r="131">
       <c r="A131" s="1" t="inlineStr">
         <is>
-          <t>F</t>
+          <t>C</t>
         </is>
       </c>
       <c r="B131" s="1" t="n"/>
@@ -9209,7 +9209,7 @@
     <row r="134">
       <c r="A134" s="1" t="inlineStr">
         <is>
-          <t>F</t>
+          <t>C</t>
         </is>
       </c>
       <c r="B134" s="1" t="n"/>
@@ -9217,7 +9217,7 @@
     <row r="135">
       <c r="A135" s="1" t="inlineStr">
         <is>
-          <t>F</t>
+          <t>C</t>
         </is>
       </c>
       <c r="B135" s="1" t="n"/>
@@ -9225,7 +9225,7 @@
     <row r="136">
       <c r="A136" s="1" t="inlineStr">
         <is>
-          <t>C</t>
+          <t>F</t>
         </is>
       </c>
       <c r="B136" s="1" t="n"/>
@@ -9233,7 +9233,7 @@
     <row r="137">
       <c r="A137" s="1" t="inlineStr">
         <is>
-          <t>F</t>
+          <t>C</t>
         </is>
       </c>
       <c r="B137" s="1" t="n"/>
@@ -9241,7 +9241,7 @@
     <row r="138">
       <c r="A138" s="1" t="inlineStr">
         <is>
-          <t>C</t>
+          <t>F</t>
         </is>
       </c>
       <c r="B138" s="1" t="n"/>
@@ -9249,7 +9249,7 @@
     <row r="139">
       <c r="A139" s="1" t="inlineStr">
         <is>
-          <t>C</t>
+          <t>F</t>
         </is>
       </c>
       <c r="B139" s="1" t="n"/>
@@ -9257,7 +9257,7 @@
     <row r="140">
       <c r="A140" s="1" t="inlineStr">
         <is>
-          <t>F</t>
+          <t>C</t>
         </is>
       </c>
       <c r="B140" s="1" t="n"/>
@@ -9265,7 +9265,7 @@
     <row r="141">
       <c r="A141" s="1" t="inlineStr">
         <is>
-          <t>C</t>
+          <t>F</t>
         </is>
       </c>
       <c r="B141" s="1" t="n"/>
@@ -9273,7 +9273,7 @@
     <row r="142">
       <c r="A142" s="1" t="inlineStr">
         <is>
-          <t>C</t>
+          <t>F</t>
         </is>
       </c>
       <c r="B142" s="1" t="n"/>
@@ -9281,7 +9281,7 @@
     <row r="143">
       <c r="A143" s="1" t="inlineStr">
         <is>
-          <t>C</t>
+          <t>F</t>
         </is>
       </c>
       <c r="B143" s="1" t="n"/>
@@ -9289,7 +9289,7 @@
     <row r="144">
       <c r="A144" s="1" t="inlineStr">
         <is>
-          <t>F</t>
+          <t>C</t>
         </is>
       </c>
       <c r="B144" s="1" t="n"/>
@@ -9305,7 +9305,7 @@
     <row r="146">
       <c r="A146" s="1" t="inlineStr">
         <is>
-          <t>F</t>
+          <t>C</t>
         </is>
       </c>
       <c r="B146" s="1" t="n"/>
@@ -9313,7 +9313,7 @@
     <row r="147">
       <c r="A147" s="1" t="inlineStr">
         <is>
-          <t>F</t>
+          <t>C</t>
         </is>
       </c>
       <c r="B147" s="1" t="n"/>
@@ -9321,7 +9321,7 @@
     <row r="148">
       <c r="A148" s="1" t="inlineStr">
         <is>
-          <t>F</t>
+          <t>C</t>
         </is>
       </c>
       <c r="B148" s="1" t="n"/>
@@ -9329,7 +9329,7 @@
     <row r="149">
       <c r="A149" s="1" t="inlineStr">
         <is>
-          <t>C</t>
+          <t>F</t>
         </is>
       </c>
       <c r="B149" s="1" t="n"/>
@@ -9345,7 +9345,7 @@
     <row r="151">
       <c r="A151" s="1" t="inlineStr">
         <is>
-          <t>F</t>
+          <t>C</t>
         </is>
       </c>
       <c r="B151" s="1" t="n"/>
@@ -9353,7 +9353,7 @@
     <row r="152">
       <c r="A152" s="1" t="inlineStr">
         <is>
-          <t>C</t>
+          <t>F</t>
         </is>
       </c>
       <c r="B152" s="1" t="n"/>
@@ -9361,7 +9361,7 @@
     <row r="153">
       <c r="A153" s="1" t="inlineStr">
         <is>
-          <t>C</t>
+          <t>F</t>
         </is>
       </c>
       <c r="B153" s="1" t="n"/>
@@ -9369,7 +9369,7 @@
     <row r="154">
       <c r="A154" s="1" t="inlineStr">
         <is>
-          <t>F</t>
+          <t>C</t>
         </is>
       </c>
       <c r="B154" s="1" t="n"/>
@@ -9377,7 +9377,7 @@
     <row r="155">
       <c r="A155" s="1" t="inlineStr">
         <is>
-          <t>C</t>
+          <t>F</t>
         </is>
       </c>
       <c r="B155" s="1" t="n"/>
@@ -9385,7 +9385,7 @@
     <row r="156">
       <c r="A156" s="1" t="inlineStr">
         <is>
-          <t>C</t>
+          <t>F</t>
         </is>
       </c>
       <c r="B156" s="1" t="n"/>
@@ -9393,7 +9393,7 @@
     <row r="157">
       <c r="A157" s="1" t="inlineStr">
         <is>
-          <t>F</t>
+          <t>C</t>
         </is>
       </c>
       <c r="B157" s="1" t="n"/>
@@ -9401,7 +9401,7 @@
     <row r="158">
       <c r="A158" s="1" t="inlineStr">
         <is>
-          <t>F</t>
+          <t>C</t>
         </is>
       </c>
       <c r="B158" s="1" t="n"/>
@@ -9409,7 +9409,7 @@
     <row r="159">
       <c r="A159" s="1" t="inlineStr">
         <is>
-          <t>F</t>
+          <t>C</t>
         </is>
       </c>
       <c r="B159" s="1" t="n"/>
@@ -9417,7 +9417,7 @@
     <row r="160">
       <c r="A160" s="1" t="inlineStr">
         <is>
-          <t>F</t>
+          <t>C</t>
         </is>
       </c>
       <c r="B160" s="1" t="n"/>
@@ -9425,7 +9425,7 @@
     <row r="161">
       <c r="A161" s="1" t="inlineStr">
         <is>
-          <t>F</t>
+          <t>C</t>
         </is>
       </c>
       <c r="B161" s="1" t="n"/>
@@ -9441,7 +9441,7 @@
     <row r="163">
       <c r="A163" s="1" t="inlineStr">
         <is>
-          <t>C</t>
+          <t>F</t>
         </is>
       </c>
       <c r="B163" s="1" t="n"/>
@@ -9457,7 +9457,7 @@
     <row r="165">
       <c r="A165" s="1" t="inlineStr">
         <is>
-          <t>F</t>
+          <t>C</t>
         </is>
       </c>
       <c r="B165" s="1" t="n"/>
@@ -9465,7 +9465,7 @@
     <row r="166">
       <c r="A166" s="1" t="inlineStr">
         <is>
-          <t>F</t>
+          <t>C</t>
         </is>
       </c>
       <c r="B166" s="1" t="n"/>
@@ -9473,7 +9473,7 @@
     <row r="167">
       <c r="A167" s="1" t="inlineStr">
         <is>
-          <t>C</t>
+          <t>F</t>
         </is>
       </c>
       <c r="B167" s="1" t="n"/>
@@ -9481,7 +9481,7 @@
     <row r="168">
       <c r="A168" s="1" t="inlineStr">
         <is>
-          <t>F</t>
+          <t>C</t>
         </is>
       </c>
       <c r="B168" s="1" t="n"/>
@@ -9489,7 +9489,7 @@
     <row r="169">
       <c r="A169" s="1" t="inlineStr">
         <is>
-          <t>C</t>
+          <t>F</t>
         </is>
       </c>
       <c r="B169" s="1" t="n"/>
@@ -9497,7 +9497,7 @@
     <row r="170">
       <c r="A170" s="1" t="inlineStr">
         <is>
-          <t>F</t>
+          <t>C</t>
         </is>
       </c>
       <c r="B170" s="1" t="n"/>
@@ -9513,7 +9513,7 @@
     <row r="172">
       <c r="A172" s="1" t="inlineStr">
         <is>
-          <t>F</t>
+          <t>C</t>
         </is>
       </c>
       <c r="B172" s="1" t="n"/>
@@ -9521,7 +9521,7 @@
     <row r="173">
       <c r="A173" s="1" t="inlineStr">
         <is>
-          <t>F</t>
+          <t>C</t>
         </is>
       </c>
       <c r="B173" s="1" t="n"/>
@@ -9537,7 +9537,7 @@
     <row r="175">
       <c r="A175" s="1" t="inlineStr">
         <is>
-          <t>F</t>
+          <t>C</t>
         </is>
       </c>
       <c r="B175" s="1" t="n"/>
@@ -9545,7 +9545,7 @@
     <row r="176">
       <c r="A176" s="1" t="inlineStr">
         <is>
-          <t>C</t>
+          <t>F</t>
         </is>
       </c>
       <c r="B176" s="1" t="n"/>
@@ -9561,7 +9561,7 @@
     <row r="178">
       <c r="A178" s="1" t="inlineStr">
         <is>
-          <t>C</t>
+          <t>F</t>
         </is>
       </c>
       <c r="B178" s="1" t="n"/>
@@ -9569,7 +9569,7 @@
     <row r="179">
       <c r="A179" s="1" t="inlineStr">
         <is>
-          <t>F</t>
+          <t>C</t>
         </is>
       </c>
       <c r="B179" s="1" t="n"/>
@@ -9577,7 +9577,7 @@
     <row r="180">
       <c r="A180" s="1" t="inlineStr">
         <is>
-          <t>F</t>
+          <t>C</t>
         </is>
       </c>
       <c r="B180" s="1" t="n"/>
@@ -9585,7 +9585,7 @@
     <row r="181">
       <c r="A181" s="1" t="inlineStr">
         <is>
-          <t>F</t>
+          <t>C</t>
         </is>
       </c>
       <c r="B181" s="1" t="n"/>
@@ -9609,7 +9609,7 @@
     <row r="184">
       <c r="A184" s="1" t="inlineStr">
         <is>
-          <t>C</t>
+          <t>F</t>
         </is>
       </c>
       <c r="B184" s="1" t="n"/>
@@ -9617,7 +9617,7 @@
     <row r="185">
       <c r="A185" s="1" t="inlineStr">
         <is>
-          <t>C</t>
+          <t>F</t>
         </is>
       </c>
       <c r="B185" s="1" t="n"/>
@@ -9625,7 +9625,7 @@
     <row r="186">
       <c r="A186" s="1" t="inlineStr">
         <is>
-          <t>C</t>
+          <t>F</t>
         </is>
       </c>
       <c r="B186" s="1" t="n"/>
@@ -9641,7 +9641,7 @@
     <row r="188">
       <c r="A188" s="1" t="inlineStr">
         <is>
-          <t>C</t>
+          <t>F</t>
         </is>
       </c>
       <c r="B188" s="1" t="n"/>
@@ -9649,7 +9649,7 @@
     <row r="189">
       <c r="A189" s="1" t="inlineStr">
         <is>
-          <t>F</t>
+          <t>C</t>
         </is>
       </c>
       <c r="B189" s="1" t="n"/>
@@ -9657,7 +9657,7 @@
     <row r="190">
       <c r="A190" s="1" t="inlineStr">
         <is>
-          <t>C</t>
+          <t>F</t>
         </is>
       </c>
       <c r="B190" s="1" t="n"/>
@@ -9665,7 +9665,7 @@
     <row r="191">
       <c r="A191" s="1" t="inlineStr">
         <is>
-          <t>C</t>
+          <t>F</t>
         </is>
       </c>
       <c r="B191" s="1" t="n"/>
@@ -9673,7 +9673,7 @@
     <row r="192">
       <c r="A192" s="1" t="inlineStr">
         <is>
-          <t>F</t>
+          <t>C</t>
         </is>
       </c>
       <c r="B192" s="1" t="n"/>
@@ -9689,7 +9689,7 @@
     <row r="194">
       <c r="A194" s="1" t="inlineStr">
         <is>
-          <t>C</t>
+          <t>F</t>
         </is>
       </c>
       <c r="B194" s="1" t="n"/>
@@ -9697,7 +9697,7 @@
     <row r="195">
       <c r="A195" s="1" t="inlineStr">
         <is>
-          <t>F</t>
+          <t>C</t>
         </is>
       </c>
       <c r="B195" s="1" t="n"/>
@@ -9705,7 +9705,7 @@
     <row r="196">
       <c r="A196" s="1" t="inlineStr">
         <is>
-          <t>F</t>
+          <t>C</t>
         </is>
       </c>
       <c r="B196" s="1" t="n"/>
@@ -9721,7 +9721,7 @@
     <row r="198">
       <c r="A198" s="1" t="inlineStr">
         <is>
-          <t>C</t>
+          <t>F</t>
         </is>
       </c>
       <c r="B198" s="1" t="n"/>
@@ -9729,7 +9729,7 @@
     <row r="199">
       <c r="A199" s="1" t="inlineStr">
         <is>
-          <t>C</t>
+          <t>F</t>
         </is>
       </c>
       <c r="B199" s="1" t="n"/>
@@ -9737,7 +9737,7 @@
     <row r="200">
       <c r="A200" s="1" t="inlineStr">
         <is>
-          <t>F</t>
+          <t>C</t>
         </is>
       </c>
       <c r="B200" s="1" t="n"/>
@@ -9753,7 +9753,7 @@
     <row r="202">
       <c r="A202" s="1" t="inlineStr">
         <is>
-          <t>C</t>
+          <t>F</t>
         </is>
       </c>
       <c r="B202" s="1" t="n"/>
@@ -9769,7 +9769,7 @@
     <row r="204">
       <c r="A204" s="1" t="inlineStr">
         <is>
-          <t>C</t>
+          <t>F</t>
         </is>
       </c>
       <c r="B204" s="1" t="n"/>
@@ -9777,7 +9777,7 @@
     <row r="205">
       <c r="A205" s="1" t="inlineStr">
         <is>
-          <t>F</t>
+          <t>C</t>
         </is>
       </c>
       <c r="B205" s="1" t="n"/>
@@ -9785,7 +9785,7 @@
     <row r="206">
       <c r="A206" s="1" t="inlineStr">
         <is>
-          <t>C</t>
+          <t>F</t>
         </is>
       </c>
       <c r="B206" s="1" t="n"/>
@@ -9793,7 +9793,7 @@
     <row r="207">
       <c r="A207" s="1" t="inlineStr">
         <is>
-          <t>C</t>
+          <t>F</t>
         </is>
       </c>
       <c r="B207" s="1" t="n"/>
@@ -9801,7 +9801,7 @@
     <row r="208">
       <c r="A208" s="1" t="inlineStr">
         <is>
-          <t>C</t>
+          <t>F</t>
         </is>
       </c>
       <c r="B208" s="1" t="n"/>
@@ -9809,7 +9809,7 @@
     <row r="209">
       <c r="A209" s="1" t="inlineStr">
         <is>
-          <t>C</t>
+          <t>F</t>
         </is>
       </c>
       <c r="B209" s="1" t="n"/>
@@ -9825,7 +9825,7 @@
     <row r="211">
       <c r="A211" s="1" t="inlineStr">
         <is>
-          <t>F</t>
+          <t>C</t>
         </is>
       </c>
       <c r="B211" s="1" t="n"/>
@@ -9841,7 +9841,7 @@
     <row r="213">
       <c r="A213" s="1" t="inlineStr">
         <is>
-          <t>F</t>
+          <t>C</t>
         </is>
       </c>
       <c r="B213" s="1" t="n"/>
@@ -9849,7 +9849,7 @@
     <row r="214">
       <c r="A214" s="1" t="inlineStr">
         <is>
-          <t>C</t>
+          <t>F</t>
         </is>
       </c>
       <c r="B214" s="1" t="n"/>
@@ -9857,7 +9857,7 @@
     <row r="215">
       <c r="A215" s="1" t="inlineStr">
         <is>
-          <t>F</t>
+          <t>C</t>
         </is>
       </c>
       <c r="B215" s="1" t="n"/>
@@ -9865,7 +9865,7 @@
     <row r="216">
       <c r="A216" s="1" t="inlineStr">
         <is>
-          <t>F</t>
+          <t>C</t>
         </is>
       </c>
       <c r="B216" s="1" t="n"/>
@@ -9881,7 +9881,7 @@
     <row r="218">
       <c r="A218" s="1" t="inlineStr">
         <is>
-          <t>F</t>
+          <t>C</t>
         </is>
       </c>
       <c r="B218" s="1" t="n"/>
@@ -9889,7 +9889,7 @@
     <row r="219">
       <c r="A219" s="1" t="inlineStr">
         <is>
-          <t>C</t>
+          <t>F</t>
         </is>
       </c>
       <c r="B219" s="1" t="n"/>
@@ -9897,7 +9897,7 @@
     <row r="220">
       <c r="A220" s="1" t="inlineStr">
         <is>
-          <t>C</t>
+          <t>F</t>
         </is>
       </c>
       <c r="B220" s="1" t="n"/>
@@ -9913,7 +9913,7 @@
     <row r="222">
       <c r="A222" s="1" t="inlineStr">
         <is>
-          <t>C</t>
+          <t>F</t>
         </is>
       </c>
       <c r="B222" s="1" t="n"/>
@@ -9921,7 +9921,7 @@
     <row r="223">
       <c r="A223" s="1" t="inlineStr">
         <is>
-          <t>C</t>
+          <t>F</t>
         </is>
       </c>
       <c r="B223" s="1" t="n"/>
@@ -9929,7 +9929,7 @@
     <row r="224">
       <c r="A224" s="1" t="inlineStr">
         <is>
-          <t>C</t>
+          <t>F</t>
         </is>
       </c>
       <c r="B224" s="1" t="n"/>
@@ -9937,7 +9937,7 @@
     <row r="225">
       <c r="A225" s="1" t="inlineStr">
         <is>
-          <t>C</t>
+          <t>F</t>
         </is>
       </c>
       <c r="B225" s="1" t="n"/>
@@ -9945,7 +9945,7 @@
     <row r="226">
       <c r="A226" s="1" t="inlineStr">
         <is>
-          <t>F</t>
+          <t>C</t>
         </is>
       </c>
       <c r="B226" s="1" t="n"/>
@@ -9953,7 +9953,7 @@
     <row r="227">
       <c r="A227" s="1" t="inlineStr">
         <is>
-          <t>F</t>
+          <t>C</t>
         </is>
       </c>
       <c r="B227" s="1" t="n"/>
@@ -9961,7 +9961,7 @@
     <row r="228">
       <c r="A228" s="1" t="inlineStr">
         <is>
-          <t>F</t>
+          <t>C</t>
         </is>
       </c>
       <c r="B228" s="1" t="n"/>
@@ -9969,7 +9969,7 @@
     <row r="229">
       <c r="A229" s="1" t="inlineStr">
         <is>
-          <t>C</t>
+          <t>F</t>
         </is>
       </c>
       <c r="B229" s="1" t="n"/>
@@ -9993,7 +9993,7 @@
     <row r="232">
       <c r="A232" s="1" t="inlineStr">
         <is>
-          <t>C</t>
+          <t>F</t>
         </is>
       </c>
       <c r="B232" s="1" t="n"/>
@@ -10001,7 +10001,7 @@
     <row r="233">
       <c r="A233" s="1" t="inlineStr">
         <is>
-          <t>F</t>
+          <t>C</t>
         </is>
       </c>
       <c r="B233" s="1" t="n"/>
@@ -10009,7 +10009,7 @@
     <row r="234">
       <c r="A234" s="1" t="inlineStr">
         <is>
-          <t>F</t>
+          <t>C</t>
         </is>
       </c>
       <c r="B234" s="1" t="n"/>
@@ -10017,7 +10017,7 @@
     <row r="235">
       <c r="A235" s="1" t="inlineStr">
         <is>
-          <t>C</t>
+          <t>F</t>
         </is>
       </c>
       <c r="B235" s="1" t="n"/>
@@ -10025,7 +10025,7 @@
     <row r="236">
       <c r="A236" s="1" t="inlineStr">
         <is>
-          <t>C</t>
+          <t>F</t>
         </is>
       </c>
       <c r="B236" s="1" t="n"/>
@@ -10033,7 +10033,7 @@
     <row r="237">
       <c r="A237" s="1" t="inlineStr">
         <is>
-          <t>F</t>
+          <t>C</t>
         </is>
       </c>
       <c r="B237" s="1" t="n"/>
@@ -10041,7 +10041,7 @@
     <row r="238">
       <c r="A238" s="1" t="inlineStr">
         <is>
-          <t>C</t>
+          <t>F</t>
         </is>
       </c>
       <c r="B238" s="1" t="n"/>
@@ -10049,7 +10049,7 @@
     <row r="239">
       <c r="A239" s="1" t="inlineStr">
         <is>
-          <t>F</t>
+          <t>C</t>
         </is>
       </c>
       <c r="B239" s="1" t="n"/>
@@ -10065,7 +10065,7 @@
     <row r="241">
       <c r="A241" s="1" t="inlineStr">
         <is>
-          <t>C</t>
+          <t>F</t>
         </is>
       </c>
       <c r="B241" s="1" t="n"/>
@@ -10073,7 +10073,7 @@
     <row r="242">
       <c r="A242" s="1" t="inlineStr">
         <is>
-          <t>C</t>
+          <t>F</t>
         </is>
       </c>
       <c r="B242" s="1" t="n"/>
@@ -10081,7 +10081,7 @@
     <row r="243">
       <c r="A243" s="1" t="inlineStr">
         <is>
-          <t>F</t>
+          <t>C</t>
         </is>
       </c>
       <c r="B243" s="1" t="n"/>
@@ -10089,7 +10089,7 @@
     <row r="244">
       <c r="A244" s="1" t="inlineStr">
         <is>
-          <t>C</t>
+          <t>F</t>
         </is>
       </c>
       <c r="B244" s="1" t="n"/>
@@ -10105,7 +10105,7 @@
     <row r="246">
       <c r="A246" s="1" t="inlineStr">
         <is>
-          <t>C</t>
+          <t>F</t>
         </is>
       </c>
       <c r="B246" s="1" t="n"/>
@@ -10113,7 +10113,7 @@
     <row r="247">
       <c r="A247" s="1" t="inlineStr">
         <is>
-          <t>C</t>
+          <t>F</t>
         </is>
       </c>
       <c r="B247" s="1" t="n"/>
@@ -10121,7 +10121,7 @@
     <row r="248">
       <c r="A248" s="1" t="inlineStr">
         <is>
-          <t>C</t>
+          <t>F</t>
         </is>
       </c>
       <c r="B248" s="1" t="n"/>
@@ -10129,7 +10129,7 @@
     <row r="249">
       <c r="A249" s="1" t="inlineStr">
         <is>
-          <t>F</t>
+          <t>C</t>
         </is>
       </c>
       <c r="B249" s="1" t="n"/>
@@ -10137,7 +10137,7 @@
     <row r="250">
       <c r="A250" s="1" t="inlineStr">
         <is>
-          <t>F</t>
+          <t>C</t>
         </is>
       </c>
       <c r="B250" s="1" t="n"/>
@@ -10153,7 +10153,7 @@
     <row r="252">
       <c r="A252" s="1" t="inlineStr">
         <is>
-          <t>C</t>
+          <t>F</t>
         </is>
       </c>
       <c r="B252" s="1" t="n"/>
@@ -10161,7 +10161,7 @@
     <row r="253">
       <c r="A253" s="1" t="inlineStr">
         <is>
-          <t>C</t>
+          <t>F</t>
         </is>
       </c>
       <c r="B253" s="1" t="n"/>
@@ -10169,7 +10169,7 @@
     <row r="254">
       <c r="A254" s="1" t="inlineStr">
         <is>
-          <t>C</t>
+          <t>F</t>
         </is>
       </c>
       <c r="B254" s="1" t="n"/>
@@ -10177,7 +10177,7 @@
     <row r="255">
       <c r="A255" s="1" t="inlineStr">
         <is>
-          <t>C</t>
+          <t>F</t>
         </is>
       </c>
       <c r="B255" s="1" t="n"/>
@@ -10185,7 +10185,7 @@
     <row r="256">
       <c r="A256" s="1" t="inlineStr">
         <is>
-          <t>C</t>
+          <t>F</t>
         </is>
       </c>
       <c r="B256" s="1" t="n"/>
@@ -10193,7 +10193,7 @@
     <row r="257">
       <c r="A257" s="1" t="inlineStr">
         <is>
-          <t>F</t>
+          <t>C</t>
         </is>
       </c>
       <c r="B257" s="1" t="n"/>
@@ -10209,7 +10209,7 @@
     <row r="259">
       <c r="A259" s="1" t="inlineStr">
         <is>
-          <t>C</t>
+          <t>F</t>
         </is>
       </c>
       <c r="B259" s="1" t="n"/>
@@ -10217,7 +10217,7 @@
     <row r="260">
       <c r="A260" s="1" t="inlineStr">
         <is>
-          <t>F</t>
+          <t>C</t>
         </is>
       </c>
       <c r="B260" s="1" t="n"/>
@@ -10233,7 +10233,7 @@
     <row r="262">
       <c r="A262" s="1" t="inlineStr">
         <is>
-          <t>C</t>
+          <t>F</t>
         </is>
       </c>
       <c r="B262" s="1" t="n"/>
@@ -10265,7 +10265,7 @@
     <row r="266">
       <c r="A266" s="1" t="inlineStr">
         <is>
-          <t>C</t>
+          <t>F</t>
         </is>
       </c>
       <c r="B266" s="1" t="n"/>
@@ -10273,7 +10273,7 @@
     <row r="267">
       <c r="A267" s="1" t="inlineStr">
         <is>
-          <t>C</t>
+          <t>F</t>
         </is>
       </c>
       <c r="B267" s="1" t="n"/>
@@ -10281,7 +10281,7 @@
     <row r="268">
       <c r="A268" s="1" t="inlineStr">
         <is>
-          <t>C</t>
+          <t>F</t>
         </is>
       </c>
       <c r="B268" s="1" t="n"/>
@@ -10289,7 +10289,7 @@
     <row r="269">
       <c r="A269" s="1" t="inlineStr">
         <is>
-          <t>F</t>
+          <t>C</t>
         </is>
       </c>
       <c r="B269" s="1" t="n"/>
@@ -10297,7 +10297,7 @@
     <row r="270">
       <c r="A270" s="1" t="inlineStr">
         <is>
-          <t>C</t>
+          <t>F</t>
         </is>
       </c>
       <c r="B270" s="1" t="n"/>
@@ -10305,7 +10305,7 @@
     <row r="271">
       <c r="A271" s="1" t="inlineStr">
         <is>
-          <t>C</t>
+          <t>F</t>
         </is>
       </c>
       <c r="B271" s="1" t="n"/>
@@ -10313,7 +10313,7 @@
     <row r="272">
       <c r="A272" s="1" t="inlineStr">
         <is>
-          <t>C</t>
+          <t>F</t>
         </is>
       </c>
       <c r="B272" s="1" t="n"/>
@@ -10321,7 +10321,7 @@
     <row r="273">
       <c r="A273" s="1" t="inlineStr">
         <is>
-          <t>C</t>
+          <t>F</t>
         </is>
       </c>
       <c r="B273" s="1" t="n"/>
@@ -10345,7 +10345,7 @@
     <row r="276">
       <c r="A276" s="1" t="inlineStr">
         <is>
-          <t>F</t>
+          <t>C</t>
         </is>
       </c>
       <c r="B276" s="1" t="n"/>
@@ -10353,7 +10353,7 @@
     <row r="277">
       <c r="A277" s="1" t="inlineStr">
         <is>
-          <t>C</t>
+          <t>F</t>
         </is>
       </c>
       <c r="B277" s="1" t="n"/>
@@ -10385,7 +10385,7 @@
     <row r="281">
       <c r="A281" s="1" t="inlineStr">
         <is>
-          <t>C</t>
+          <t>F</t>
         </is>
       </c>
       <c r="B281" s="1" t="n"/>
@@ -10401,7 +10401,7 @@
     <row r="283">
       <c r="A283" s="1" t="inlineStr">
         <is>
-          <t>F</t>
+          <t>C</t>
         </is>
       </c>
       <c r="B283" s="1" t="n"/>
@@ -10409,7 +10409,7 @@
     <row r="284">
       <c r="A284" s="1" t="inlineStr">
         <is>
-          <t>F</t>
+          <t>C</t>
         </is>
       </c>
       <c r="B284" s="1" t="n"/>
@@ -10417,7 +10417,7 @@
     <row r="285">
       <c r="A285" s="1" t="inlineStr">
         <is>
-          <t>C</t>
+          <t>F</t>
         </is>
       </c>
       <c r="B285" s="1" t="n"/>
@@ -10425,7 +10425,7 @@
     <row r="286">
       <c r="A286" s="1" t="inlineStr">
         <is>
-          <t>C</t>
+          <t>F</t>
         </is>
       </c>
       <c r="B286" s="1" t="n"/>
@@ -10433,7 +10433,7 @@
     <row r="287">
       <c r="A287" s="1" t="inlineStr">
         <is>
-          <t>C</t>
+          <t>F</t>
         </is>
       </c>
       <c r="B287" s="1" t="n"/>
@@ -10449,7 +10449,7 @@
     <row r="289">
       <c r="A289" s="1" t="inlineStr">
         <is>
-          <t>C</t>
+          <t>F</t>
         </is>
       </c>
       <c r="B289" s="1" t="n"/>
@@ -10457,7 +10457,7 @@
     <row r="290">
       <c r="A290" s="1" t="inlineStr">
         <is>
-          <t>F</t>
+          <t>C</t>
         </is>
       </c>
       <c r="B290" s="1" t="n"/>
@@ -10465,7 +10465,7 @@
     <row r="291">
       <c r="A291" s="1" t="inlineStr">
         <is>
-          <t>C</t>
+          <t>F</t>
         </is>
       </c>
       <c r="B291" s="1" t="n"/>
@@ -10473,7 +10473,7 @@
     <row r="292">
       <c r="A292" s="1" t="inlineStr">
         <is>
-          <t>F</t>
+          <t>C</t>
         </is>
       </c>
       <c r="B292" s="1" t="n"/>
@@ -10481,7 +10481,7 @@
     <row r="293">
       <c r="A293" s="1" t="inlineStr">
         <is>
-          <t>C</t>
+          <t>F</t>
         </is>
       </c>
       <c r="B293" s="1" t="n"/>
@@ -10489,7 +10489,7 @@
     <row r="294">
       <c r="A294" s="1" t="inlineStr">
         <is>
-          <t>F</t>
+          <t>C</t>
         </is>
       </c>
       <c r="B294" s="1" t="n"/>
@@ -10497,7 +10497,7 @@
     <row r="295">
       <c r="A295" s="1" t="inlineStr">
         <is>
-          <t>C</t>
+          <t>F</t>
         </is>
       </c>
       <c r="B295" s="1" t="n"/>
@@ -10513,7 +10513,7 @@
     <row r="297">
       <c r="A297" s="1" t="inlineStr">
         <is>
-          <t>F</t>
+          <t>C</t>
         </is>
       </c>
       <c r="B297" s="1" t="n"/>
@@ -10521,7 +10521,7 @@
     <row r="298">
       <c r="A298" s="1" t="inlineStr">
         <is>
-          <t>C</t>
+          <t>F</t>
         </is>
       </c>
       <c r="B298" s="1" t="n"/>
@@ -10553,7 +10553,7 @@
     <row r="302">
       <c r="A302" s="1" t="inlineStr">
         <is>
-          <t>F</t>
+          <t>C</t>
         </is>
       </c>
       <c r="B302" s="1" t="n"/>
@@ -10561,7 +10561,7 @@
     <row r="303">
       <c r="A303" s="1" t="inlineStr">
         <is>
-          <t>C</t>
+          <t>F</t>
         </is>
       </c>
       <c r="B303" s="1" t="n"/>
@@ -10569,7 +10569,7 @@
     <row r="304">
       <c r="A304" s="1" t="inlineStr">
         <is>
-          <t>C</t>
+          <t>F</t>
         </is>
       </c>
       <c r="B304" s="1" t="n"/>
@@ -10577,7 +10577,7 @@
     <row r="305">
       <c r="A305" s="1" t="inlineStr">
         <is>
-          <t>C</t>
+          <t>F</t>
         </is>
       </c>
       <c r="B305" s="1" t="n"/>
@@ -10585,7 +10585,7 @@
     <row r="306">
       <c r="A306" s="1" t="inlineStr">
         <is>
-          <t>C</t>
+          <t>F</t>
         </is>
       </c>
       <c r="B306" s="1" t="n"/>
@@ -10593,7 +10593,7 @@
     <row r="307">
       <c r="A307" s="1" t="inlineStr">
         <is>
-          <t>C</t>
+          <t>F</t>
         </is>
       </c>
       <c r="B307" s="1" t="n"/>
@@ -10609,7 +10609,7 @@
     <row r="309">
       <c r="A309" s="1" t="inlineStr">
         <is>
-          <t>C</t>
+          <t>F</t>
         </is>
       </c>
       <c r="B309" s="1" t="n"/>
@@ -10625,7 +10625,7 @@
     <row r="311">
       <c r="A311" s="1" t="inlineStr">
         <is>
-          <t>F</t>
+          <t>C</t>
         </is>
       </c>
       <c r="B311" s="1" t="n"/>
@@ -10641,7 +10641,7 @@
     <row r="313">
       <c r="A313" s="1" t="inlineStr">
         <is>
-          <t>F</t>
+          <t>C</t>
         </is>
       </c>
       <c r="B313" s="1" t="n"/>
@@ -10657,7 +10657,7 @@
     <row r="315">
       <c r="A315" s="1" t="inlineStr">
         <is>
-          <t>C</t>
+          <t>F</t>
         </is>
       </c>
       <c r="B315" s="1" t="n"/>
@@ -10665,7 +10665,7 @@
     <row r="316">
       <c r="A316" s="1" t="inlineStr">
         <is>
-          <t>C</t>
+          <t>F</t>
         </is>
       </c>
       <c r="B316" s="1" t="n"/>
@@ -10673,7 +10673,7 @@
     <row r="317">
       <c r="A317" s="1" t="inlineStr">
         <is>
-          <t>C</t>
+          <t>F</t>
         </is>
       </c>
       <c r="B317" s="1" t="n"/>
@@ -10689,7 +10689,7 @@
     <row r="319">
       <c r="A319" s="1" t="inlineStr">
         <is>
-          <t>C</t>
+          <t>F</t>
         </is>
       </c>
       <c r="B319" s="1" t="n"/>
@@ -10697,7 +10697,7 @@
     <row r="320">
       <c r="A320" s="1" t="inlineStr">
         <is>
-          <t>C</t>
+          <t>F</t>
         </is>
       </c>
       <c r="B320" s="1" t="n"/>
@@ -10705,7 +10705,7 @@
     <row r="321">
       <c r="A321" s="1" t="inlineStr">
         <is>
-          <t>F</t>
+          <t>C</t>
         </is>
       </c>
       <c r="B321" s="1" t="n"/>
@@ -10713,7 +10713,7 @@
     <row r="322">
       <c r="A322" s="1" t="inlineStr">
         <is>
-          <t>F</t>
+          <t>C</t>
         </is>
       </c>
       <c r="B322" s="1" t="n"/>
@@ -10721,7 +10721,7 @@
     <row r="323">
       <c r="A323" s="1" t="inlineStr">
         <is>
-          <t>C</t>
+          <t>F</t>
         </is>
       </c>
       <c r="B323" s="1" t="n"/>
@@ -10729,7 +10729,7 @@
     <row r="324">
       <c r="A324" s="1" t="inlineStr">
         <is>
-          <t>C</t>
+          <t>F</t>
         </is>
       </c>
       <c r="B324" s="1" t="n"/>
@@ -10737,7 +10737,7 @@
     <row r="325">
       <c r="A325" s="1" t="inlineStr">
         <is>
-          <t>C</t>
+          <t>F</t>
         </is>
       </c>
       <c r="B325" s="1" t="n"/>
@@ -10745,7 +10745,7 @@
     <row r="326">
       <c r="A326" s="1" t="inlineStr">
         <is>
-          <t>F</t>
+          <t>C</t>
         </is>
       </c>
       <c r="B326" s="1" t="n"/>
@@ -10753,7 +10753,7 @@
     <row r="327">
       <c r="A327" s="1" t="inlineStr">
         <is>
-          <t>C</t>
+          <t>F</t>
         </is>
       </c>
       <c r="B327" s="1" t="n"/>
@@ -10769,7 +10769,7 @@
     <row r="329">
       <c r="A329" s="1" t="inlineStr">
         <is>
-          <t>F</t>
+          <t>C</t>
         </is>
       </c>
       <c r="B329" s="1" t="n"/>
@@ -10777,7 +10777,7 @@
     <row r="330">
       <c r="A330" s="1" t="inlineStr">
         <is>
-          <t>C</t>
+          <t>F</t>
         </is>
       </c>
       <c r="B330" s="1" t="n"/>
@@ -10785,7 +10785,7 @@
     <row r="331">
       <c r="A331" s="1" t="inlineStr">
         <is>
-          <t>F</t>
+          <t>C</t>
         </is>
       </c>
       <c r="B331" s="1" t="n"/>
@@ -10801,7 +10801,7 @@
     <row r="333">
       <c r="A333" s="1" t="inlineStr">
         <is>
-          <t>C</t>
+          <t>F</t>
         </is>
       </c>
       <c r="B333" s="1" t="n"/>
@@ -10809,7 +10809,7 @@
     <row r="334">
       <c r="A334" s="1" t="inlineStr">
         <is>
-          <t>C</t>
+          <t>F</t>
         </is>
       </c>
       <c r="B334" s="1" t="n"/>
@@ -10817,7 +10817,7 @@
     <row r="335">
       <c r="A335" s="1" t="inlineStr">
         <is>
-          <t>C</t>
+          <t>F</t>
         </is>
       </c>
       <c r="B335" s="1" t="n"/>
@@ -10825,7 +10825,7 @@
     <row r="336">
       <c r="A336" s="1" t="inlineStr">
         <is>
-          <t>C</t>
+          <t>F</t>
         </is>
       </c>
       <c r="B336" s="1" t="n"/>
@@ -10833,7 +10833,7 @@
     <row r="337">
       <c r="A337" s="1" t="inlineStr">
         <is>
-          <t>C</t>
+          <t>F</t>
         </is>
       </c>
       <c r="B337" s="1" t="n"/>
@@ -10841,7 +10841,7 @@
     <row r="338">
       <c r="A338" s="1" t="inlineStr">
         <is>
-          <t>C</t>
+          <t>F</t>
         </is>
       </c>
       <c r="B338" s="1" t="n"/>
@@ -10849,7 +10849,7 @@
     <row r="339">
       <c r="A339" s="1" t="inlineStr">
         <is>
-          <t>F</t>
+          <t>C</t>
         </is>
       </c>
       <c r="B339" s="1" t="n"/>
@@ -10857,7 +10857,7 @@
     <row r="340">
       <c r="A340" s="1" t="inlineStr">
         <is>
-          <t>C</t>
+          <t>F</t>
         </is>
       </c>
       <c r="B340" s="1" t="n"/>
@@ -10865,7 +10865,7 @@
     <row r="341">
       <c r="A341" s="1" t="inlineStr">
         <is>
-          <t>C</t>
+          <t>F</t>
         </is>
       </c>
       <c r="B341" s="1" t="n"/>
@@ -10881,7 +10881,7 @@
     <row r="343">
       <c r="A343" s="1" t="inlineStr">
         <is>
-          <t>C</t>
+          <t>F</t>
         </is>
       </c>
       <c r="B343" s="1" t="n"/>
@@ -10889,7 +10889,7 @@
     <row r="344">
       <c r="A344" s="1" t="inlineStr">
         <is>
-          <t>F</t>
+          <t>C</t>
         </is>
       </c>
       <c r="B344" s="1" t="n"/>
@@ -10905,7 +10905,7 @@
     <row r="346">
       <c r="A346" s="1" t="inlineStr">
         <is>
-          <t>C</t>
+          <t>F</t>
         </is>
       </c>
       <c r="B346" s="1" t="n"/>
@@ -10913,7 +10913,7 @@
     <row r="347">
       <c r="A347" s="1" t="inlineStr">
         <is>
-          <t>C</t>
+          <t>F</t>
         </is>
       </c>
       <c r="B347" s="1" t="n"/>
@@ -10921,7 +10921,7 @@
     <row r="348">
       <c r="A348" s="1" t="inlineStr">
         <is>
-          <t>C</t>
+          <t>F</t>
         </is>
       </c>
       <c r="B348" s="1" t="n"/>
@@ -10937,7 +10937,7 @@
     <row r="350">
       <c r="A350" s="1" t="inlineStr">
         <is>
-          <t>F</t>
+          <t>C</t>
         </is>
       </c>
       <c r="B350" s="1" t="n"/>
@@ -10945,7 +10945,7 @@
     <row r="351">
       <c r="A351" s="1" t="inlineStr">
         <is>
-          <t>C</t>
+          <t>F</t>
         </is>
       </c>
       <c r="B351" s="1" t="n"/>
@@ -10953,7 +10953,7 @@
     <row r="352">
       <c r="A352" s="1" t="inlineStr">
         <is>
-          <t>C</t>
+          <t>F</t>
         </is>
       </c>
       <c r="B352" s="1" t="n"/>
@@ -10961,7 +10961,7 @@
     <row r="353">
       <c r="A353" s="1" t="inlineStr">
         <is>
-          <t>F</t>
+          <t>C</t>
         </is>
       </c>
       <c r="B353" s="1" t="n"/>
@@ -10969,7 +10969,7 @@
     <row r="354">
       <c r="A354" s="1" t="inlineStr">
         <is>
-          <t>F</t>
+          <t>C</t>
         </is>
       </c>
       <c r="B354" s="1" t="n"/>
@@ -10977,7 +10977,7 @@
     <row r="355">
       <c r="A355" s="1" t="inlineStr">
         <is>
-          <t>C</t>
+          <t>F</t>
         </is>
       </c>
       <c r="B355" s="1" t="n"/>
@@ -10993,7 +10993,7 @@
     <row r="357">
       <c r="A357" s="1" t="inlineStr">
         <is>
-          <t>C</t>
+          <t>F</t>
         </is>
       </c>
       <c r="B357" s="1" t="n"/>
@@ -11001,7 +11001,7 @@
     <row r="358">
       <c r="A358" s="1" t="inlineStr">
         <is>
-          <t>F</t>
+          <t>C</t>
         </is>
       </c>
       <c r="B358" s="1" t="n"/>
@@ -11009,7 +11009,7 @@
     <row r="359">
       <c r="A359" s="1" t="inlineStr">
         <is>
-          <t>F</t>
+          <t>C</t>
         </is>
       </c>
       <c r="B359" s="1" t="n"/>
@@ -11017,7 +11017,7 @@
     <row r="360">
       <c r="A360" s="1" t="inlineStr">
         <is>
-          <t>C</t>
+          <t>F</t>
         </is>
       </c>
       <c r="B360" s="1" t="n"/>
@@ -11025,7 +11025,7 @@
     <row r="361">
       <c r="A361" s="1" t="inlineStr">
         <is>
-          <t>F</t>
+          <t>C</t>
         </is>
       </c>
       <c r="B361" s="1" t="n"/>
@@ -11033,7 +11033,7 @@
     <row r="362">
       <c r="A362" s="1" t="inlineStr">
         <is>
-          <t>C</t>
+          <t>F</t>
         </is>
       </c>
       <c r="B362" s="1" t="n"/>
@@ -11041,7 +11041,7 @@
     <row r="363">
       <c r="A363" s="1" t="inlineStr">
         <is>
-          <t>C</t>
+          <t>F</t>
         </is>
       </c>
       <c r="B363" s="1" t="n"/>
@@ -11049,7 +11049,7 @@
     <row r="364">
       <c r="A364" s="1" t="inlineStr">
         <is>
-          <t>C</t>
+          <t>F</t>
         </is>
       </c>
       <c r="B364" s="1" t="n"/>
@@ -11057,7 +11057,7 @@
     <row r="365">
       <c r="A365" s="1" t="inlineStr">
         <is>
-          <t>F</t>
+          <t>C</t>
         </is>
       </c>
       <c r="B365" s="1" t="n"/>
@@ -11065,7 +11065,7 @@
     <row r="366">
       <c r="A366" s="1" t="inlineStr">
         <is>
-          <t>F</t>
+          <t>C</t>
         </is>
       </c>
       <c r="B366" s="1" t="n"/>
@@ -11081,7 +11081,7 @@
     <row r="368">
       <c r="A368" s="1" t="inlineStr">
         <is>
-          <t>C</t>
+          <t>F</t>
         </is>
       </c>
       <c r="B368" s="1" t="n"/>
@@ -11089,7 +11089,7 @@
     <row r="369">
       <c r="A369" s="1" t="inlineStr">
         <is>
-          <t>C</t>
+          <t>F</t>
         </is>
       </c>
       <c r="B369" s="1" t="n"/>
@@ -11097,7 +11097,7 @@
     <row r="370">
       <c r="A370" s="1" t="inlineStr">
         <is>
-          <t>C</t>
+          <t>F</t>
         </is>
       </c>
       <c r="B370" s="1" t="n"/>
@@ -11105,7 +11105,7 @@
     <row r="371">
       <c r="A371" s="1" t="inlineStr">
         <is>
-          <t>C</t>
+          <t>F</t>
         </is>
       </c>
       <c r="B371" s="1" t="n"/>
@@ -11121,7 +11121,7 @@
     <row r="373">
       <c r="A373" s="1" t="inlineStr">
         <is>
-          <t>C</t>
+          <t>F</t>
         </is>
       </c>
       <c r="B373" s="1" t="n"/>
@@ -11145,7 +11145,7 @@
     <row r="376">
       <c r="A376" s="1" t="inlineStr">
         <is>
-          <t>C</t>
+          <t>F</t>
         </is>
       </c>
       <c r="B376" s="1" t="n"/>
@@ -11153,7 +11153,7 @@
     <row r="377">
       <c r="A377" s="1" t="inlineStr">
         <is>
-          <t>F</t>
+          <t>C</t>
         </is>
       </c>
       <c r="B377" s="1" t="n"/>
@@ -11161,7 +11161,7 @@
     <row r="378">
       <c r="A378" s="1" t="inlineStr">
         <is>
-          <t>F</t>
+          <t>C</t>
         </is>
       </c>
       <c r="B378" s="1" t="n"/>
@@ -11169,7 +11169,7 @@
     <row r="379">
       <c r="A379" s="1" t="inlineStr">
         <is>
-          <t>C</t>
+          <t>F</t>
         </is>
       </c>
       <c r="B379" s="1" t="n"/>
@@ -11185,7 +11185,7 @@
     <row r="381">
       <c r="A381" s="1" t="inlineStr">
         <is>
-          <t>F</t>
+          <t>C</t>
         </is>
       </c>
       <c r="B381" s="1" t="n"/>
@@ -11193,7 +11193,7 @@
     <row r="382">
       <c r="A382" s="1" t="inlineStr">
         <is>
-          <t>F</t>
+          <t>C</t>
         </is>
       </c>
       <c r="B382" s="1" t="n"/>
@@ -11201,7 +11201,7 @@
     <row r="383">
       <c r="A383" s="1" t="inlineStr">
         <is>
-          <t>C</t>
+          <t>F</t>
         </is>
       </c>
       <c r="B383" s="1" t="n"/>
@@ -11233,7 +11233,7 @@
     <row r="387">
       <c r="A387" s="1" t="inlineStr">
         <is>
-          <t>F</t>
+          <t>C</t>
         </is>
       </c>
       <c r="B387" s="1" t="n"/>
@@ -11241,7 +11241,7 @@
     <row r="388">
       <c r="A388" s="1" t="inlineStr">
         <is>
-          <t>F</t>
+          <t>C</t>
         </is>
       </c>
       <c r="B388" s="1" t="n"/>
@@ -11257,7 +11257,7 @@
     <row r="390">
       <c r="A390" s="1" t="inlineStr">
         <is>
-          <t>C</t>
+          <t>F</t>
         </is>
       </c>
       <c r="B390" s="1" t="n"/>
@@ -11265,7 +11265,7 @@
     <row r="391">
       <c r="A391" s="1" t="inlineStr">
         <is>
-          <t>C</t>
+          <t>F</t>
         </is>
       </c>
       <c r="B391" s="1" t="n"/>
@@ -11273,7 +11273,7 @@
     <row r="392">
       <c r="A392" s="1" t="inlineStr">
         <is>
-          <t>C</t>
+          <t>F</t>
         </is>
       </c>
       <c r="B392" s="1" t="n"/>
@@ -11281,7 +11281,7 @@
     <row r="393">
       <c r="A393" s="1" t="inlineStr">
         <is>
-          <t>C</t>
+          <t>F</t>
         </is>
       </c>
       <c r="B393" s="1" t="n"/>
@@ -11289,7 +11289,7 @@
     <row r="394">
       <c r="A394" s="1" t="inlineStr">
         <is>
-          <t>C</t>
+          <t>F</t>
         </is>
       </c>
       <c r="B394" s="1" t="n"/>
@@ -11297,7 +11297,7 @@
     <row r="395">
       <c r="A395" s="1" t="inlineStr">
         <is>
-          <t>F</t>
+          <t>C</t>
         </is>
       </c>
       <c r="B395" s="1" t="n"/>
@@ -11305,7 +11305,7 @@
     <row r="396">
       <c r="A396" s="1" t="inlineStr">
         <is>
-          <t>C</t>
+          <t>F</t>
         </is>
       </c>
       <c r="B396" s="1" t="n"/>
@@ -11313,7 +11313,7 @@
     <row r="397">
       <c r="A397" s="1" t="inlineStr">
         <is>
-          <t>C</t>
+          <t>F</t>
         </is>
       </c>
       <c r="B397" s="1" t="n"/>
@@ -11321,7 +11321,7 @@
     <row r="398">
       <c r="A398" s="1" t="inlineStr">
         <is>
-          <t>C</t>
+          <t>F</t>
         </is>
       </c>
       <c r="B398" s="1" t="n"/>
@@ -11329,7 +11329,7 @@
     <row r="399">
       <c r="A399" s="1" t="inlineStr">
         <is>
-          <t>C</t>
+          <t>F</t>
         </is>
       </c>
       <c r="B399" s="1" t="n"/>
@@ -11337,7 +11337,7 @@
     <row r="400">
       <c r="A400" s="1" t="inlineStr">
         <is>
-          <t>C</t>
+          <t>F</t>
         </is>
       </c>
       <c r="B400" s="1" t="n"/>
@@ -11345,7 +11345,7 @@
     <row r="401">
       <c r="A401" s="1" t="inlineStr">
         <is>
-          <t>C</t>
+          <t>F</t>
         </is>
       </c>
       <c r="B401" s="1" t="n"/>
@@ -11353,7 +11353,7 @@
     <row r="402">
       <c r="A402" s="1" t="inlineStr">
         <is>
-          <t>C</t>
+          <t>F</t>
         </is>
       </c>
       <c r="B402" s="1" t="n"/>
@@ -11369,7 +11369,7 @@
     <row r="404">
       <c r="A404" s="1" t="inlineStr">
         <is>
-          <t>C</t>
+          <t>F</t>
         </is>
       </c>
       <c r="B404" s="1" t="n"/>
@@ -11385,7 +11385,7 @@
     <row r="406">
       <c r="A406" s="1" t="inlineStr">
         <is>
-          <t>F</t>
+          <t>C</t>
         </is>
       </c>
       <c r="B406" s="1" t="n"/>
@@ -11393,7 +11393,7 @@
     <row r="407">
       <c r="A407" s="1" t="inlineStr">
         <is>
-          <t>C</t>
+          <t>F</t>
         </is>
       </c>
       <c r="B407" s="1" t="n"/>
@@ -11401,7 +11401,7 @@
     <row r="408">
       <c r="A408" s="1" t="inlineStr">
         <is>
-          <t>C</t>
+          <t>F</t>
         </is>
       </c>
       <c r="B408" s="1" t="n"/>
@@ -11417,7 +11417,7 @@
     <row r="410">
       <c r="A410" s="1" t="inlineStr">
         <is>
-          <t>C</t>
+          <t>F</t>
         </is>
       </c>
       <c r="B410" s="1" t="n"/>
@@ -11433,7 +11433,7 @@
     <row r="412">
       <c r="A412" s="1" t="inlineStr">
         <is>
-          <t>F</t>
+          <t>C</t>
         </is>
       </c>
       <c r="B412" s="1" t="n"/>
@@ -11441,7 +11441,7 @@
     <row r="413">
       <c r="A413" s="1" t="inlineStr">
         <is>
-          <t>F</t>
+          <t>C</t>
         </is>
       </c>
       <c r="B413" s="1" t="n"/>
@@ -11449,7 +11449,7 @@
     <row r="414">
       <c r="A414" s="1" t="inlineStr">
         <is>
-          <t>F</t>
+          <t>C</t>
         </is>
       </c>
       <c r="B414" s="1" t="n"/>
@@ -11457,7 +11457,7 @@
     <row r="415">
       <c r="A415" s="1" t="inlineStr">
         <is>
-          <t>C</t>
+          <t>F</t>
         </is>
       </c>
       <c r="B415" s="1" t="n"/>
@@ -11481,7 +11481,7 @@
     <row r="418">
       <c r="A418" s="1" t="inlineStr">
         <is>
-          <t>C</t>
+          <t>F</t>
         </is>
       </c>
       <c r="B418" s="1" t="n"/>
@@ -11497,7 +11497,7 @@
     <row r="420">
       <c r="A420" s="1" t="inlineStr">
         <is>
-          <t>C</t>
+          <t>F</t>
         </is>
       </c>
       <c r="B420" s="1" t="n"/>
@@ -11513,7 +11513,7 @@
     <row r="422">
       <c r="A422" s="1" t="inlineStr">
         <is>
-          <t>C</t>
+          <t>F</t>
         </is>
       </c>
       <c r="B422" s="1" t="n"/>
@@ -11521,7 +11521,7 @@
     <row r="423">
       <c r="A423" s="1" t="inlineStr">
         <is>
-          <t>C</t>
+          <t>F</t>
         </is>
       </c>
       <c r="B423" s="1" t="n"/>
@@ -11537,7 +11537,7 @@
     <row r="425">
       <c r="A425" s="1" t="inlineStr">
         <is>
-          <t>F</t>
+          <t>C</t>
         </is>
       </c>
       <c r="B425" s="1" t="n"/>
@@ -11545,7 +11545,7 @@
     <row r="426">
       <c r="A426" s="1" t="inlineStr">
         <is>
-          <t>F</t>
+          <t>C</t>
         </is>
       </c>
       <c r="B426" s="1" t="n"/>
@@ -11561,7 +11561,7 @@
     <row r="428">
       <c r="A428" s="1" t="inlineStr">
         <is>
-          <t>F</t>
+          <t>C</t>
         </is>
       </c>
       <c r="B428" s="1" t="n"/>
@@ -11569,7 +11569,7 @@
     <row r="429">
       <c r="A429" s="1" t="inlineStr">
         <is>
-          <t>F</t>
+          <t>C</t>
         </is>
       </c>
       <c r="B429" s="1" t="n"/>
@@ -11585,7 +11585,7 @@
     <row r="431">
       <c r="A431" s="1" t="inlineStr">
         <is>
-          <t>C</t>
+          <t>F</t>
         </is>
       </c>
       <c r="B431" s="1" t="n"/>
@@ -11593,7 +11593,7 @@
     <row r="432">
       <c r="A432" s="1" t="inlineStr">
         <is>
-          <t>F</t>
+          <t>C</t>
         </is>
       </c>
       <c r="B432" s="1" t="n"/>
@@ -11601,7 +11601,7 @@
     <row r="433">
       <c r="A433" s="1" t="inlineStr">
         <is>
-          <t>C</t>
+          <t>F</t>
         </is>
       </c>
       <c r="B433" s="1" t="n"/>
@@ -11609,7 +11609,7 @@
     <row r="434">
       <c r="A434" s="1" t="inlineStr">
         <is>
-          <t>F</t>
+          <t>C</t>
         </is>
       </c>
       <c r="B434" s="1" t="n"/>
@@ -11625,7 +11625,7 @@
     <row r="436">
       <c r="A436" s="1" t="inlineStr">
         <is>
-          <t>C</t>
+          <t>F</t>
         </is>
       </c>
       <c r="B436" s="1" t="n"/>
@@ -11657,7 +11657,7 @@
     <row r="440">
       <c r="A440" s="1" t="inlineStr">
         <is>
-          <t>F</t>
+          <t>C</t>
         </is>
       </c>
       <c r="B440" s="1" t="n"/>
@@ -11665,7 +11665,7 @@
     <row r="441">
       <c r="A441" s="1" t="inlineStr">
         <is>
-          <t>F</t>
+          <t>C</t>
         </is>
       </c>
       <c r="B441" s="1" t="n"/>
@@ -11673,7 +11673,7 @@
     <row r="442">
       <c r="A442" s="1" t="inlineStr">
         <is>
-          <t>C</t>
+          <t>F</t>
         </is>
       </c>
       <c r="B442" s="1" t="n"/>
@@ -11681,7 +11681,7 @@
     <row r="443">
       <c r="A443" s="1" t="inlineStr">
         <is>
-          <t>C</t>
+          <t>F</t>
         </is>
       </c>
       <c r="B443" s="1" t="n"/>
@@ -11689,7 +11689,7 @@
     <row r="444">
       <c r="A444" s="1" t="inlineStr">
         <is>
-          <t>F</t>
+          <t>C</t>
         </is>
       </c>
       <c r="B444" s="1" t="n"/>
@@ -11697,7 +11697,7 @@
     <row r="445">
       <c r="A445" s="1" t="inlineStr">
         <is>
-          <t>F</t>
+          <t>C</t>
         </is>
       </c>
       <c r="B445" s="1" t="n"/>
@@ -11705,7 +11705,7 @@
     <row r="446">
       <c r="A446" s="1" t="inlineStr">
         <is>
-          <t>C</t>
+          <t>F</t>
         </is>
       </c>
       <c r="B446" s="1" t="n"/>
@@ -11713,7 +11713,7 @@
     <row r="447">
       <c r="A447" s="1" t="inlineStr">
         <is>
-          <t>C</t>
+          <t>F</t>
         </is>
       </c>
       <c r="B447" s="1" t="n"/>
@@ -11721,7 +11721,7 @@
     <row r="448">
       <c r="A448" s="1" t="inlineStr">
         <is>
-          <t>F</t>
+          <t>C</t>
         </is>
       </c>
       <c r="B448" s="1" t="n"/>
@@ -11737,7 +11737,7 @@
     <row r="450">
       <c r="A450" s="1" t="inlineStr">
         <is>
-          <t>C</t>
+          <t>F</t>
         </is>
       </c>
       <c r="B450" s="1" t="n"/>
@@ -11753,7 +11753,7 @@
     <row r="452">
       <c r="A452" s="1" t="inlineStr">
         <is>
-          <t>F</t>
+          <t>C</t>
         </is>
       </c>
       <c r="B452" s="1" t="n"/>
@@ -11761,7 +11761,7 @@
     <row r="453">
       <c r="A453" s="1" t="inlineStr">
         <is>
-          <t>C</t>
+          <t>F</t>
         </is>
       </c>
       <c r="B453" s="1" t="n"/>
@@ -11769,7 +11769,7 @@
     <row r="454">
       <c r="A454" s="1" t="inlineStr">
         <is>
-          <t>C</t>
+          <t>F</t>
         </is>
       </c>
       <c r="B454" s="1" t="n"/>
@@ -11785,7 +11785,7 @@
     <row r="456">
       <c r="A456" s="1" t="inlineStr">
         <is>
-          <t>F</t>
+          <t>C</t>
         </is>
       </c>
       <c r="B456" s="1" t="n"/>
@@ -11793,7 +11793,7 @@
     <row r="457">
       <c r="A457" s="1" t="inlineStr">
         <is>
-          <t>C</t>
+          <t>F</t>
         </is>
       </c>
       <c r="B457" s="1" t="n"/>
@@ -11801,7 +11801,7 @@
     <row r="458">
       <c r="A458" s="1" t="inlineStr">
         <is>
-          <t>F</t>
+          <t>C</t>
         </is>
       </c>
       <c r="B458" s="1" t="n"/>
@@ -11809,7 +11809,7 @@
     <row r="459">
       <c r="A459" s="1" t="inlineStr">
         <is>
-          <t>C</t>
+          <t>F</t>
         </is>
       </c>
       <c r="B459" s="1" t="n"/>
@@ -11825,7 +11825,7 @@
     <row r="461">
       <c r="A461" s="1" t="inlineStr">
         <is>
-          <t>C</t>
+          <t>F</t>
         </is>
       </c>
       <c r="B461" s="1" t="n"/>
@@ -11833,7 +11833,7 @@
     <row r="462">
       <c r="A462" s="1" t="inlineStr">
         <is>
-          <t>F</t>
+          <t>C</t>
         </is>
       </c>
       <c r="B462" s="1" t="n"/>
@@ -11841,7 +11841,7 @@
     <row r="463">
       <c r="A463" s="1" t="inlineStr">
         <is>
-          <t>F</t>
+          <t>C</t>
         </is>
       </c>
       <c r="B463" s="1" t="n"/>
@@ -11849,7 +11849,7 @@
     <row r="464">
       <c r="A464" s="1" t="inlineStr">
         <is>
-          <t>C</t>
+          <t>F</t>
         </is>
       </c>
       <c r="B464" s="1" t="n"/>
@@ -11857,7 +11857,7 @@
     <row r="465">
       <c r="A465" s="1" t="inlineStr">
         <is>
-          <t>C</t>
+          <t>F</t>
         </is>
       </c>
       <c r="B465" s="1" t="n"/>
@@ -11865,7 +11865,7 @@
     <row r="466">
       <c r="A466" s="1" t="inlineStr">
         <is>
-          <t>C</t>
+          <t>F</t>
         </is>
       </c>
       <c r="B466" s="1" t="n"/>
@@ -11873,7 +11873,7 @@
     <row r="467">
       <c r="A467" s="1" t="inlineStr">
         <is>
-          <t>F</t>
+          <t>C</t>
         </is>
       </c>
       <c r="B467" s="1" t="n"/>
@@ -11881,7 +11881,7 @@
     <row r="468">
       <c r="A468" s="1" t="inlineStr">
         <is>
-          <t>C</t>
+          <t>F</t>
         </is>
       </c>
       <c r="B468" s="1" t="n"/>
@@ -11889,7 +11889,7 @@
     <row r="469">
       <c r="A469" s="1" t="inlineStr">
         <is>
-          <t>F</t>
+          <t>C</t>
         </is>
       </c>
       <c r="B469" s="1" t="n"/>
@@ -11897,7 +11897,7 @@
     <row r="470">
       <c r="A470" s="1" t="inlineStr">
         <is>
-          <t>F</t>
+          <t>C</t>
         </is>
       </c>
       <c r="B470" s="1" t="n"/>
@@ -11905,7 +11905,7 @@
     <row r="471">
       <c r="A471" s="1" t="inlineStr">
         <is>
-          <t>F</t>
+          <t>C</t>
         </is>
       </c>
       <c r="B471" s="1" t="n"/>
@@ -11913,7 +11913,7 @@
     <row r="472">
       <c r="A472" s="1" t="inlineStr">
         <is>
-          <t>F</t>
+          <t>C</t>
         </is>
       </c>
       <c r="B472" s="1" t="n"/>
@@ -11921,7 +11921,7 @@
     <row r="473">
       <c r="A473" s="1" t="inlineStr">
         <is>
-          <t>F</t>
+          <t>C</t>
         </is>
       </c>
       <c r="B473" s="1" t="n"/>
@@ -11945,7 +11945,7 @@
     <row r="476">
       <c r="A476" s="1" t="inlineStr">
         <is>
-          <t>C</t>
+          <t>F</t>
         </is>
       </c>
       <c r="B476" s="1" t="n"/>
@@ -11953,7 +11953,7 @@
     <row r="477">
       <c r="A477" s="1" t="inlineStr">
         <is>
-          <t>C</t>
+          <t>F</t>
         </is>
       </c>
       <c r="B477" s="1" t="n"/>
@@ -11961,7 +11961,7 @@
     <row r="478">
       <c r="A478" s="1" t="inlineStr">
         <is>
-          <t>C</t>
+          <t>F</t>
         </is>
       </c>
       <c r="B478" s="1" t="n"/>
@@ -11969,7 +11969,7 @@
     <row r="479">
       <c r="A479" s="1" t="inlineStr">
         <is>
-          <t>F</t>
+          <t>C</t>
         </is>
       </c>
       <c r="B479" s="1" t="n"/>
@@ -11985,7 +11985,7 @@
     <row r="481">
       <c r="A481" s="1" t="inlineStr">
         <is>
-          <t>F</t>
+          <t>C</t>
         </is>
       </c>
       <c r="B481" s="1" t="n"/>
@@ -11993,7 +11993,7 @@
     <row r="482">
       <c r="A482" s="1" t="inlineStr">
         <is>
-          <t>C</t>
+          <t>F</t>
         </is>
       </c>
       <c r="B482" s="1" t="n"/>
@@ -12001,7 +12001,7 @@
     <row r="483">
       <c r="A483" s="1" t="inlineStr">
         <is>
-          <t>F</t>
+          <t>C</t>
         </is>
       </c>
       <c r="B483" s="1" t="n"/>
@@ -12009,7 +12009,7 @@
     <row r="484">
       <c r="A484" s="1" t="inlineStr">
         <is>
-          <t>C</t>
+          <t>F</t>
         </is>
       </c>
       <c r="B484" s="1" t="n"/>
@@ -12017,7 +12017,7 @@
     <row r="485">
       <c r="A485" s="1" t="inlineStr">
         <is>
-          <t>F</t>
+          <t>C</t>
         </is>
       </c>
       <c r="B485" s="1" t="n"/>
@@ -12025,7 +12025,7 @@
     <row r="486">
       <c r="A486" s="1" t="inlineStr">
         <is>
-          <t>C</t>
+          <t>F</t>
         </is>
       </c>
       <c r="B486" s="1" t="n"/>
@@ -12033,7 +12033,7 @@
     <row r="487">
       <c r="A487" s="1" t="inlineStr">
         <is>
-          <t>C</t>
+          <t>F</t>
         </is>
       </c>
       <c r="B487" s="1" t="n"/>
@@ -12041,7 +12041,7 @@
     <row r="488">
       <c r="A488" s="1" t="inlineStr">
         <is>
-          <t>F</t>
+          <t>C</t>
         </is>
       </c>
       <c r="B488" s="1" t="n"/>
@@ -12057,7 +12057,7 @@
     <row r="490">
       <c r="A490" s="1" t="inlineStr">
         <is>
-          <t>F</t>
+          <t>C</t>
         </is>
       </c>
       <c r="B490" s="1" t="n"/>
@@ -12073,7 +12073,7 @@
     <row r="492">
       <c r="A492" s="1" t="inlineStr">
         <is>
-          <t>C</t>
+          <t>F</t>
         </is>
       </c>
       <c r="B492" s="1" t="n"/>
@@ -12081,7 +12081,7 @@
     <row r="493">
       <c r="A493" s="1" t="inlineStr">
         <is>
-          <t>C</t>
+          <t>F</t>
         </is>
       </c>
       <c r="B493" s="1" t="n"/>
@@ -12089,7 +12089,7 @@
     <row r="494">
       <c r="A494" s="1" t="inlineStr">
         <is>
-          <t>C</t>
+          <t>F</t>
         </is>
       </c>
       <c r="B494" s="1" t="n"/>
@@ -12105,7 +12105,7 @@
     <row r="496">
       <c r="A496" s="1" t="inlineStr">
         <is>
-          <t>F</t>
+          <t>C</t>
         </is>
       </c>
       <c r="B496" s="1" t="n"/>
@@ -12113,7 +12113,7 @@
     <row r="497">
       <c r="A497" s="1" t="inlineStr">
         <is>
-          <t>F</t>
+          <t>C</t>
         </is>
       </c>
       <c r="B497" s="1" t="n"/>
@@ -12121,7 +12121,7 @@
     <row r="498">
       <c r="A498" s="1" t="inlineStr">
         <is>
-          <t>F</t>
+          <t>C</t>
         </is>
       </c>
       <c r="B498" s="1" t="n"/>
@@ -12129,7 +12129,7 @@
     <row r="499">
       <c r="A499" s="1" t="inlineStr">
         <is>
-          <t>C</t>
+          <t>F</t>
         </is>
       </c>
       <c r="B499" s="1" t="n"/>
@@ -12161,7 +12161,7 @@
     <row r="503">
       <c r="A503" s="1" t="inlineStr">
         <is>
-          <t>C</t>
+          <t>F</t>
         </is>
       </c>
       <c r="B503" s="1" t="n"/>
@@ -12177,7 +12177,7 @@
     <row r="505">
       <c r="A505" s="1" t="inlineStr">
         <is>
-          <t>F</t>
+          <t>C</t>
         </is>
       </c>
       <c r="B505" s="1" t="n"/>
@@ -12185,7 +12185,7 @@
     <row r="506">
       <c r="A506" s="1" t="inlineStr">
         <is>
-          <t>F</t>
+          <t>C</t>
         </is>
       </c>
       <c r="B506" s="1" t="n"/>
@@ -12193,7 +12193,7 @@
     <row r="507">
       <c r="A507" s="1" t="inlineStr">
         <is>
-          <t>C</t>
+          <t>F</t>
         </is>
       </c>
       <c r="B507" s="1" t="n"/>
@@ -12201,7 +12201,7 @@
     <row r="508">
       <c r="A508" s="1" t="inlineStr">
         <is>
-          <t>F</t>
+          <t>C</t>
         </is>
       </c>
       <c r="B508" s="1" t="n"/>
@@ -12209,7 +12209,7 @@
     <row r="509">
       <c r="A509" s="1" t="inlineStr">
         <is>
-          <t>F</t>
+          <t>C</t>
         </is>
       </c>
       <c r="B509" s="1" t="n"/>
@@ -12217,7 +12217,7 @@
     <row r="510">
       <c r="A510" s="1" t="inlineStr">
         <is>
-          <t>F</t>
+          <t>C</t>
         </is>
       </c>
       <c r="B510" s="1" t="n"/>
@@ -12225,7 +12225,7 @@
     <row r="511">
       <c r="A511" s="1" t="inlineStr">
         <is>
-          <t>F</t>
+          <t>C</t>
         </is>
       </c>
       <c r="B511" s="1" t="n"/>
@@ -12233,7 +12233,7 @@
     <row r="512">
       <c r="A512" s="1" t="inlineStr">
         <is>
-          <t>C</t>
+          <t>F</t>
         </is>
       </c>
       <c r="B512" s="1" t="n"/>
@@ -12241,7 +12241,7 @@
     <row r="513">
       <c r="A513" s="1" t="inlineStr">
         <is>
-          <t>C</t>
+          <t>F</t>
         </is>
       </c>
       <c r="B513" s="1" t="n"/>
@@ -12249,7 +12249,7 @@
     <row r="514">
       <c r="A514" s="1" t="inlineStr">
         <is>
-          <t>C</t>
+          <t>F</t>
         </is>
       </c>
       <c r="B514" s="1" t="n"/>
@@ -12265,7 +12265,7 @@
     <row r="516">
       <c r="A516" s="1" t="inlineStr">
         <is>
-          <t>C</t>
+          <t>F</t>
         </is>
       </c>
       <c r="B516" s="1" t="n"/>
@@ -12281,7 +12281,7 @@
     <row r="518">
       <c r="A518" s="1" t="inlineStr">
         <is>
-          <t>C</t>
+          <t>F</t>
         </is>
       </c>
       <c r="B518" s="1" t="n"/>
@@ -12289,7 +12289,7 @@
     <row r="519">
       <c r="A519" s="1" t="inlineStr">
         <is>
-          <t>F</t>
+          <t>C</t>
         </is>
       </c>
       <c r="B519" s="1" t="n"/>
@@ -12297,7 +12297,7 @@
     <row r="520">
       <c r="A520" s="1" t="inlineStr">
         <is>
-          <t>C</t>
+          <t>F</t>
         </is>
       </c>
       <c r="B520" s="1" t="n"/>
@@ -12305,7 +12305,7 @@
     <row r="521">
       <c r="A521" s="1" t="inlineStr">
         <is>
-          <t>F</t>
+          <t>C</t>
         </is>
       </c>
       <c r="B521" s="1" t="n"/>
@@ -12321,7 +12321,7 @@
     <row r="523">
       <c r="A523" s="1" t="inlineStr">
         <is>
-          <t>C</t>
+          <t>F</t>
         </is>
       </c>
       <c r="B523" s="1" t="n"/>
@@ -12329,7 +12329,7 @@
     <row r="524">
       <c r="A524" s="1" t="inlineStr">
         <is>
-          <t>C</t>
+          <t>F</t>
         </is>
       </c>
       <c r="B524" s="1" t="n"/>
@@ -12337,7 +12337,7 @@
     <row r="525">
       <c r="A525" s="1" t="inlineStr">
         <is>
-          <t>C</t>
+          <t>F</t>
         </is>
       </c>
       <c r="B525" s="1" t="n"/>
@@ -12353,7 +12353,7 @@
     <row r="527">
       <c r="A527" s="1" t="inlineStr">
         <is>
-          <t>C</t>
+          <t>F</t>
         </is>
       </c>
       <c r="B527" s="1" t="n"/>
@@ -12361,7 +12361,7 @@
     <row r="528">
       <c r="A528" s="1" t="inlineStr">
         <is>
-          <t>C</t>
+          <t>F</t>
         </is>
       </c>
       <c r="B528" s="1" t="n"/>
@@ -12369,7 +12369,7 @@
     <row r="529">
       <c r="A529" s="1" t="inlineStr">
         <is>
-          <t>F</t>
+          <t>C</t>
         </is>
       </c>
       <c r="B529" s="1" t="n"/>
@@ -12385,7 +12385,7 @@
     <row r="531">
       <c r="A531" s="1" t="inlineStr">
         <is>
-          <t>F</t>
+          <t>C</t>
         </is>
       </c>
       <c r="B531" s="1" t="n"/>
@@ -12393,7 +12393,7 @@
     <row r="532">
       <c r="A532" s="1" t="inlineStr">
         <is>
-          <t>C</t>
+          <t>F</t>
         </is>
       </c>
       <c r="B532" s="1" t="n"/>
@@ -12401,7 +12401,7 @@
     <row r="533">
       <c r="A533" s="1" t="inlineStr">
         <is>
-          <t>F</t>
+          <t>C</t>
         </is>
       </c>
       <c r="B533" s="1" t="n"/>
@@ -12409,7 +12409,7 @@
     <row r="534">
       <c r="A534" s="1" t="inlineStr">
         <is>
-          <t>F</t>
+          <t>C</t>
         </is>
       </c>
       <c r="B534" s="1" t="n"/>
@@ -12417,7 +12417,7 @@
     <row r="535">
       <c r="A535" s="1" t="inlineStr">
         <is>
-          <t>F</t>
+          <t>C</t>
         </is>
       </c>
       <c r="B535" s="1" t="n"/>
@@ -12433,7 +12433,7 @@
     <row r="537">
       <c r="A537" s="1" t="inlineStr">
         <is>
-          <t>F</t>
+          <t>C</t>
         </is>
       </c>
       <c r="B537" s="1" t="n"/>
@@ -12441,7 +12441,7 @@
     <row r="538">
       <c r="A538" s="1" t="inlineStr">
         <is>
-          <t>C</t>
+          <t>F</t>
         </is>
       </c>
       <c r="B538" s="1" t="n"/>
@@ -12449,7 +12449,7 @@
     <row r="539">
       <c r="A539" s="1" t="inlineStr">
         <is>
-          <t>C</t>
+          <t>F</t>
         </is>
       </c>
       <c r="B539" s="1" t="n"/>
@@ -12457,7 +12457,7 @@
     <row r="540">
       <c r="A540" s="1" t="inlineStr">
         <is>
-          <t>C</t>
+          <t>F</t>
         </is>
       </c>
       <c r="B540" s="1" t="n"/>
@@ -12465,7 +12465,7 @@
     <row r="541">
       <c r="A541" s="1" t="inlineStr">
         <is>
-          <t>C</t>
+          <t>F</t>
         </is>
       </c>
       <c r="B541" s="1" t="n"/>
@@ -12481,7 +12481,7 @@
     <row r="543">
       <c r="A543" s="1" t="inlineStr">
         <is>
-          <t>C</t>
+          <t>F</t>
         </is>
       </c>
       <c r="B543" s="1" t="n"/>
@@ -12489,7 +12489,7 @@
     <row r="544">
       <c r="A544" s="1" t="inlineStr">
         <is>
-          <t>C</t>
+          <t>F</t>
         </is>
       </c>
       <c r="B544" s="1" t="n"/>
@@ -12513,7 +12513,7 @@
     <row r="547">
       <c r="A547" s="1" t="inlineStr">
         <is>
-          <t>C</t>
+          <t>F</t>
         </is>
       </c>
       <c r="B547" s="1" t="n"/>
@@ -12521,7 +12521,7 @@
     <row r="548">
       <c r="A548" s="1" t="inlineStr">
         <is>
-          <t>C</t>
+          <t>F</t>
         </is>
       </c>
       <c r="B548" s="1" t="n"/>
@@ -12529,7 +12529,7 @@
     <row r="549">
       <c r="A549" s="1" t="inlineStr">
         <is>
-          <t>F</t>
+          <t>C</t>
         </is>
       </c>
       <c r="B549" s="1" t="n"/>
@@ -12553,7 +12553,7 @@
     <row r="552">
       <c r="A552" s="1" t="inlineStr">
         <is>
-          <t>F</t>
+          <t>C</t>
         </is>
       </c>
       <c r="B552" s="1" t="n"/>
@@ -12561,7 +12561,7 @@
     <row r="553">
       <c r="A553" s="1" t="inlineStr">
         <is>
-          <t>F</t>
+          <t>C</t>
         </is>
       </c>
       <c r="B553" s="1" t="n"/>
@@ -12569,7 +12569,7 @@
     <row r="554">
       <c r="A554" s="1" t="inlineStr">
         <is>
-          <t>F</t>
+          <t>C</t>
         </is>
       </c>
       <c r="B554" s="1" t="n"/>
@@ -12577,7 +12577,7 @@
     <row r="555">
       <c r="A555" s="1" t="inlineStr">
         <is>
-          <t>F</t>
+          <t>C</t>
         </is>
       </c>
       <c r="B555" s="1" t="n"/>
@@ -12585,7 +12585,7 @@
     <row r="556">
       <c r="A556" s="1" t="inlineStr">
         <is>
-          <t>F</t>
+          <t>C</t>
         </is>
       </c>
       <c r="B556" s="1" t="n"/>
@@ -12593,7 +12593,7 @@
     <row r="557">
       <c r="A557" s="1" t="inlineStr">
         <is>
-          <t>C</t>
+          <t>F</t>
         </is>
       </c>
       <c r="B557" s="1" t="n"/>
@@ -12601,7 +12601,7 @@
     <row r="558">
       <c r="A558" s="1" t="inlineStr">
         <is>
-          <t>C</t>
+          <t>F</t>
         </is>
       </c>
       <c r="B558" s="1" t="n"/>
@@ -12609,7 +12609,7 @@
     <row r="559">
       <c r="A559" s="1" t="inlineStr">
         <is>
-          <t>C</t>
+          <t>F</t>
         </is>
       </c>
       <c r="B559" s="1" t="n"/>
@@ -12633,7 +12633,7 @@
     <row r="562">
       <c r="A562" s="1" t="inlineStr">
         <is>
-          <t>C</t>
+          <t>F</t>
         </is>
       </c>
       <c r="B562" s="1" t="n"/>
@@ -12649,7 +12649,7 @@
     <row r="564">
       <c r="A564" s="1" t="inlineStr">
         <is>
-          <t>C</t>
+          <t>F</t>
         </is>
       </c>
       <c r="B564" s="1" t="n"/>
@@ -12657,7 +12657,7 @@
     <row r="565">
       <c r="A565" s="1" t="inlineStr">
         <is>
-          <t>F</t>
+          <t>C</t>
         </is>
       </c>
       <c r="B565" s="1" t="n"/>
@@ -12673,7 +12673,7 @@
     <row r="567">
       <c r="A567" s="1" t="inlineStr">
         <is>
-          <t>C</t>
+          <t>F</t>
         </is>
       </c>
       <c r="B567" s="1" t="n"/>
@@ -12681,7 +12681,7 @@
     <row r="568">
       <c r="A568" s="1" t="inlineStr">
         <is>
-          <t>C</t>
+          <t>F</t>
         </is>
       </c>
       <c r="B568" s="1" t="n"/>
@@ -12689,7 +12689,7 @@
     <row r="569">
       <c r="A569" s="1" t="inlineStr">
         <is>
-          <t>C</t>
+          <t>F</t>
         </is>
       </c>
       <c r="B569" s="1" t="n"/>
@@ -12697,7 +12697,7 @@
     <row r="570">
       <c r="A570" s="1" t="inlineStr">
         <is>
-          <t>C</t>
+          <t>F</t>
         </is>
       </c>
       <c r="B570" s="1" t="n"/>
@@ -12705,7 +12705,7 @@
     <row r="571">
       <c r="A571" s="1" t="inlineStr">
         <is>
-          <t>F</t>
+          <t>C</t>
         </is>
       </c>
       <c r="B571" s="1" t="n"/>
@@ -12713,7 +12713,7 @@
     <row r="572">
       <c r="A572" s="1" t="inlineStr">
         <is>
-          <t>F</t>
+          <t>C</t>
         </is>
       </c>
       <c r="B572" s="1" t="n"/>
@@ -12737,7 +12737,7 @@
     <row r="575">
       <c r="A575" s="1" t="inlineStr">
         <is>
-          <t>C</t>
+          <t>F</t>
         </is>
       </c>
       <c r="B575" s="1" t="n"/>
@@ -12745,7 +12745,7 @@
     <row r="576">
       <c r="A576" s="1" t="inlineStr">
         <is>
-          <t>C</t>
+          <t>F</t>
         </is>
       </c>
       <c r="B576" s="1" t="n"/>
@@ -12753,7 +12753,7 @@
     <row r="577">
       <c r="A577" s="1" t="inlineStr">
         <is>
-          <t>C</t>
+          <t>F</t>
         </is>
       </c>
       <c r="B577" s="1" t="n"/>
@@ -12761,7 +12761,7 @@
     <row r="578">
       <c r="A578" s="1" t="inlineStr">
         <is>
-          <t>C</t>
+          <t>F</t>
         </is>
       </c>
       <c r="B578" s="1" t="n"/>
@@ -12777,7 +12777,7 @@
     <row r="580">
       <c r="A580" s="1" t="inlineStr">
         <is>
-          <t>F</t>
+          <t>C</t>
         </is>
       </c>
       <c r="B580" s="1" t="n"/>
@@ -12793,7 +12793,7 @@
     <row r="582">
       <c r="A582" s="1" t="inlineStr">
         <is>
-          <t>C</t>
+          <t>F</t>
         </is>
       </c>
       <c r="B582" s="1" t="n"/>
@@ -12825,7 +12825,7 @@
     <row r="586">
       <c r="A586" s="1" t="inlineStr">
         <is>
-          <t>C</t>
+          <t>F</t>
         </is>
       </c>
       <c r="B586" s="1" t="n"/>
@@ -12833,7 +12833,7 @@
     <row r="587">
       <c r="A587" s="1" t="inlineStr">
         <is>
-          <t>F</t>
+          <t>C</t>
         </is>
       </c>
       <c r="B587" s="1" t="n"/>
@@ -12841,7 +12841,7 @@
     <row r="588">
       <c r="A588" s="1" t="inlineStr">
         <is>
-          <t>C</t>
+          <t>F</t>
         </is>
       </c>
       <c r="B588" s="1" t="n"/>
@@ -12865,7 +12865,7 @@
     <row r="591">
       <c r="A591" s="1" t="inlineStr">
         <is>
-          <t>C</t>
+          <t>F</t>
         </is>
       </c>
       <c r="B591" s="1" t="n"/>
@@ -12873,7 +12873,7 @@
     <row r="592">
       <c r="A592" s="1" t="inlineStr">
         <is>
-          <t>F</t>
+          <t>C</t>
         </is>
       </c>
       <c r="B592" s="1" t="n"/>
@@ -12897,7 +12897,7 @@
     <row r="595">
       <c r="A595" s="1" t="inlineStr">
         <is>
-          <t>F</t>
+          <t>C</t>
         </is>
       </c>
       <c r="B595" s="1" t="n"/>
@@ -12905,7 +12905,7 @@
     <row r="596">
       <c r="A596" s="1" t="inlineStr">
         <is>
-          <t>C</t>
+          <t>F</t>
         </is>
       </c>
       <c r="B596" s="1" t="n"/>
@@ -12913,7 +12913,7 @@
     <row r="597">
       <c r="A597" s="1" t="inlineStr">
         <is>
-          <t>F</t>
+          <t>C</t>
         </is>
       </c>
       <c r="B597" s="1" t="n"/>
@@ -12945,7 +12945,7 @@
     <row r="601">
       <c r="A601" s="1" t="inlineStr">
         <is>
-          <t>F</t>
+          <t>C</t>
         </is>
       </c>
       <c r="B601" s="1" t="n"/>
@@ -12953,7 +12953,7 @@
     <row r="602">
       <c r="A602" s="1" t="inlineStr">
         <is>
-          <t>C</t>
+          <t>F</t>
         </is>
       </c>
       <c r="B602" s="1" t="n"/>
@@ -12969,7 +12969,7 @@
     <row r="604">
       <c r="A604" s="1" t="inlineStr">
         <is>
-          <t>C</t>
+          <t>F</t>
         </is>
       </c>
       <c r="B604" s="1" t="n"/>
@@ -12993,7 +12993,7 @@
     <row r="607">
       <c r="A607" s="1" t="inlineStr">
         <is>
-          <t>C</t>
+          <t>F</t>
         </is>
       </c>
       <c r="B607" s="1" t="n"/>
@@ -13001,7 +13001,7 @@
     <row r="608">
       <c r="A608" s="1" t="inlineStr">
         <is>
-          <t>F</t>
+          <t>C</t>
         </is>
       </c>
       <c r="B608" s="1" t="n"/>
@@ -13025,7 +13025,7 @@
     <row r="611">
       <c r="A611" s="1" t="inlineStr">
         <is>
-          <t>F</t>
+          <t>C</t>
         </is>
       </c>
       <c r="B611" s="1" t="n"/>
@@ -13033,7 +13033,7 @@
     <row r="612">
       <c r="A612" s="1" t="inlineStr">
         <is>
-          <t>F</t>
+          <t>C</t>
         </is>
       </c>
       <c r="B612" s="1" t="n"/>
@@ -13041,7 +13041,7 @@
     <row r="613">
       <c r="A613" s="1" t="inlineStr">
         <is>
-          <t>C</t>
+          <t>F</t>
         </is>
       </c>
       <c r="B613" s="1" t="n"/>
@@ -13057,7 +13057,7 @@
     <row r="615">
       <c r="A615" s="1" t="inlineStr">
         <is>
-          <t>C</t>
+          <t>F</t>
         </is>
       </c>
       <c r="B615" s="1" t="n"/>
@@ -13065,7 +13065,7 @@
     <row r="616">
       <c r="A616" s="1" t="inlineStr">
         <is>
-          <t>F</t>
+          <t>C</t>
         </is>
       </c>
       <c r="B616" s="1" t="n"/>
@@ -13081,7 +13081,7 @@
     <row r="618">
       <c r="A618" s="1" t="inlineStr">
         <is>
-          <t>F</t>
+          <t>C</t>
         </is>
       </c>
       <c r="B618" s="1" t="n"/>
@@ -13089,7 +13089,7 @@
     <row r="619">
       <c r="A619" s="1" t="inlineStr">
         <is>
-          <t>F</t>
+          <t>C</t>
         </is>
       </c>
       <c r="B619" s="1" t="n"/>
@@ -13097,7 +13097,7 @@
     <row r="620">
       <c r="A620" s="1" t="inlineStr">
         <is>
-          <t>F</t>
+          <t>C</t>
         </is>
       </c>
       <c r="B620" s="1" t="n"/>
@@ -13113,7 +13113,7 @@
     <row r="622">
       <c r="A622" s="1" t="inlineStr">
         <is>
-          <t>F</t>
+          <t>C</t>
         </is>
       </c>
       <c r="B622" s="1" t="n"/>
@@ -13129,7 +13129,7 @@
     <row r="624">
       <c r="A624" s="1" t="inlineStr">
         <is>
-          <t>C</t>
+          <t>F</t>
         </is>
       </c>
       <c r="B624" s="1" t="n"/>
@@ -13137,7 +13137,7 @@
     <row r="625">
       <c r="A625" s="1" t="inlineStr">
         <is>
-          <t>C</t>
+          <t>F</t>
         </is>
       </c>
       <c r="B625" s="1" t="n"/>
@@ -13145,7 +13145,7 @@
     <row r="626">
       <c r="A626" s="1" t="inlineStr">
         <is>
-          <t>C</t>
+          <t>F</t>
         </is>
       </c>
       <c r="B626" s="1" t="n"/>
@@ -13153,7 +13153,7 @@
     <row r="627">
       <c r="A627" s="1" t="inlineStr">
         <is>
-          <t>F</t>
+          <t>C</t>
         </is>
       </c>
       <c r="B627" s="1" t="n"/>
@@ -13161,7 +13161,7 @@
     <row r="628">
       <c r="A628" s="1" t="inlineStr">
         <is>
-          <t>C</t>
+          <t>F</t>
         </is>
       </c>
       <c r="B628" s="1" t="n"/>
@@ -13169,7 +13169,7 @@
     <row r="629">
       <c r="A629" s="1" t="inlineStr">
         <is>
-          <t>C</t>
+          <t>F</t>
         </is>
       </c>
       <c r="B629" s="1" t="n"/>
@@ -13177,7 +13177,7 @@
     <row r="630">
       <c r="A630" s="1" t="inlineStr">
         <is>
-          <t>F</t>
+          <t>C</t>
         </is>
       </c>
       <c r="B630" s="1" t="n"/>
@@ -13209,7 +13209,7 @@
     <row r="634">
       <c r="A634" s="1" t="inlineStr">
         <is>
-          <t>C</t>
+          <t>F</t>
         </is>
       </c>
       <c r="B634" s="1" t="n"/>
@@ -13217,7 +13217,7 @@
     <row r="635">
       <c r="A635" s="1" t="inlineStr">
         <is>
-          <t>F</t>
+          <t>C</t>
         </is>
       </c>
       <c r="B635" s="1" t="n"/>
@@ -13225,7 +13225,7 @@
     <row r="636">
       <c r="A636" s="1" t="inlineStr">
         <is>
-          <t>C</t>
+          <t>F</t>
         </is>
       </c>
       <c r="B636" s="1" t="n"/>
@@ -13233,7 +13233,7 @@
     <row r="637">
       <c r="A637" s="1" t="inlineStr">
         <is>
-          <t>F</t>
+          <t>C</t>
         </is>
       </c>
       <c r="B637" s="1" t="n"/>
@@ -13241,7 +13241,7 @@
     <row r="638">
       <c r="A638" s="1" t="inlineStr">
         <is>
-          <t>F</t>
+          <t>C</t>
         </is>
       </c>
       <c r="B638" s="1" t="n"/>
@@ -13249,7 +13249,7 @@
     <row r="639">
       <c r="A639" s="1" t="inlineStr">
         <is>
-          <t>C</t>
+          <t>F</t>
         </is>
       </c>
       <c r="B639" s="1" t="n"/>
@@ -13257,7 +13257,7 @@
     <row r="640">
       <c r="A640" s="1" t="inlineStr">
         <is>
-          <t>C</t>
+          <t>F</t>
         </is>
       </c>
       <c r="B640" s="1" t="n"/>
@@ -13265,7 +13265,7 @@
     <row r="641">
       <c r="A641" s="1" t="inlineStr">
         <is>
-          <t>C</t>
+          <t>F</t>
         </is>
       </c>
       <c r="B641" s="1" t="n"/>
@@ -13273,7 +13273,7 @@
     <row r="642">
       <c r="A642" s="1" t="inlineStr">
         <is>
-          <t>C</t>
+          <t>F</t>
         </is>
       </c>
       <c r="B642" s="1" t="n"/>
@@ -13281,7 +13281,7 @@
     <row r="643">
       <c r="A643" s="1" t="inlineStr">
         <is>
-          <t>F</t>
+          <t>C</t>
         </is>
       </c>
       <c r="B643" s="1" t="n"/>
@@ -13289,7 +13289,7 @@
     <row r="644">
       <c r="A644" s="1" t="inlineStr">
         <is>
-          <t>C</t>
+          <t>F</t>
         </is>
       </c>
       <c r="B644" s="1" t="n"/>
@@ -13297,7 +13297,7 @@
     <row r="645">
       <c r="A645" s="1" t="inlineStr">
         <is>
-          <t>F</t>
+          <t>C</t>
         </is>
       </c>
       <c r="B645" s="1" t="n"/>
@@ -13305,7 +13305,7 @@
     <row r="646">
       <c r="A646" s="1" t="inlineStr">
         <is>
-          <t>F</t>
+          <t>C</t>
         </is>
       </c>
       <c r="B646" s="1" t="n"/>
@@ -13313,7 +13313,7 @@
     <row r="647">
       <c r="A647" s="1" t="inlineStr">
         <is>
-          <t>F</t>
+          <t>C</t>
         </is>
       </c>
       <c r="B647" s="1" t="n"/>
@@ -13329,7 +13329,7 @@
     <row r="649">
       <c r="A649" s="1" t="inlineStr">
         <is>
-          <t>F</t>
+          <t>C</t>
         </is>
       </c>
       <c r="B649" s="1" t="n"/>
@@ -13345,7 +13345,7 @@
     <row r="651">
       <c r="A651" s="1" t="inlineStr">
         <is>
-          <t>C</t>
+          <t>F</t>
         </is>
       </c>
       <c r="B651" s="1" t="n"/>
@@ -13353,7 +13353,7 @@
     <row r="652">
       <c r="A652" s="1" t="inlineStr">
         <is>
-          <t>C</t>
+          <t>F</t>
         </is>
       </c>
       <c r="B652" s="1" t="n"/>
@@ -13361,7 +13361,7 @@
     <row r="653">
       <c r="A653" s="1" t="inlineStr">
         <is>
-          <t>C</t>
+          <t>F</t>
         </is>
       </c>
       <c r="B653" s="1" t="n"/>
@@ -13377,7 +13377,7 @@
     <row r="655">
       <c r="A655" s="1" t="inlineStr">
         <is>
-          <t>C</t>
+          <t>F</t>
         </is>
       </c>
       <c r="B655" s="1" t="n"/>
@@ -13385,7 +13385,7 @@
     <row r="656">
       <c r="A656" s="1" t="inlineStr">
         <is>
-          <t>F</t>
+          <t>C</t>
         </is>
       </c>
       <c r="B656" s="1" t="n"/>
@@ -13393,7 +13393,7 @@
     <row r="657">
       <c r="A657" s="1" t="inlineStr">
         <is>
-          <t>F</t>
+          <t>C</t>
         </is>
       </c>
       <c r="B657" s="1" t="n"/>
@@ -13401,7 +13401,7 @@
     <row r="658">
       <c r="A658" s="1" t="inlineStr">
         <is>
-          <t>C</t>
+          <t>F</t>
         </is>
       </c>
       <c r="B658" s="1" t="n"/>
@@ -13425,7 +13425,7 @@
     <row r="661">
       <c r="A661" s="1" t="inlineStr">
         <is>
-          <t>F</t>
+          <t>C</t>
         </is>
       </c>
       <c r="B661" s="1" t="n"/>
@@ -13441,7 +13441,7 @@
     <row r="663">
       <c r="A663" s="1" t="inlineStr">
         <is>
-          <t>C</t>
+          <t>F</t>
         </is>
       </c>
       <c r="B663" s="1" t="n"/>
@@ -13449,7 +13449,7 @@
     <row r="664">
       <c r="A664" s="1" t="inlineStr">
         <is>
-          <t>C</t>
+          <t>F</t>
         </is>
       </c>
       <c r="B664" s="1" t="n"/>
@@ -13465,7 +13465,7 @@
     <row r="666">
       <c r="A666" s="1" t="inlineStr">
         <is>
-          <t>F</t>
+          <t>C</t>
         </is>
       </c>
       <c r="B666" s="1" t="n"/>
@@ -13473,7 +13473,7 @@
     <row r="667">
       <c r="A667" s="1" t="inlineStr">
         <is>
-          <t>C</t>
+          <t>F</t>
         </is>
       </c>
       <c r="B667" s="1" t="n"/>
@@ -13481,7 +13481,7 @@
     <row r="668">
       <c r="A668" s="1" t="inlineStr">
         <is>
-          <t>F</t>
+          <t>C</t>
         </is>
       </c>
       <c r="B668" s="1" t="n"/>
@@ -13497,7 +13497,7 @@
     <row r="670">
       <c r="A670" s="1" t="inlineStr">
         <is>
-          <t>C</t>
+          <t>F</t>
         </is>
       </c>
       <c r="B670" s="1" t="n"/>
@@ -13505,7 +13505,7 @@
     <row r="671">
       <c r="A671" s="1" t="inlineStr">
         <is>
-          <t>F</t>
+          <t>C</t>
         </is>
       </c>
       <c r="B671" s="1" t="n"/>
@@ -13513,7 +13513,7 @@
     <row r="672">
       <c r="A672" s="1" t="inlineStr">
         <is>
-          <t>C</t>
+          <t>F</t>
         </is>
       </c>
       <c r="B672" s="1" t="n"/>
@@ -13521,7 +13521,7 @@
     <row r="673">
       <c r="A673" s="1" t="inlineStr">
         <is>
-          <t>C</t>
+          <t>F</t>
         </is>
       </c>
       <c r="B673" s="1" t="n"/>
@@ -13529,7 +13529,7 @@
     <row r="674">
       <c r="A674" s="1" t="inlineStr">
         <is>
-          <t>F</t>
+          <t>C</t>
         </is>
       </c>
       <c r="B674" s="1" t="n"/>
@@ -13537,7 +13537,7 @@
     <row r="675">
       <c r="A675" s="1" t="inlineStr">
         <is>
-          <t>F</t>
+          <t>C</t>
         </is>
       </c>
       <c r="B675" s="1" t="n"/>
@@ -13545,7 +13545,7 @@
     <row r="676">
       <c r="A676" s="1" t="inlineStr">
         <is>
-          <t>F</t>
+          <t>C</t>
         </is>
       </c>
       <c r="B676" s="1" t="n"/>
@@ -13561,7 +13561,7 @@
     <row r="678">
       <c r="A678" s="1" t="inlineStr">
         <is>
-          <t>F</t>
+          <t>C</t>
         </is>
       </c>
       <c r="B678" s="1" t="n"/>
@@ -13569,7 +13569,7 @@
     <row r="679">
       <c r="A679" s="1" t="inlineStr">
         <is>
-          <t>C</t>
+          <t>F</t>
         </is>
       </c>
       <c r="B679" s="1" t="n"/>
@@ -13577,7 +13577,7 @@
     <row r="680">
       <c r="A680" s="1" t="inlineStr">
         <is>
-          <t>C</t>
+          <t>F</t>
         </is>
       </c>
       <c r="B680" s="1" t="n"/>
@@ -13593,7 +13593,7 @@
     <row r="682">
       <c r="A682" s="1" t="inlineStr">
         <is>
-          <t>C</t>
+          <t>F</t>
         </is>
       </c>
       <c r="B682" s="1" t="n"/>
@@ -13617,7 +13617,7 @@
     <row r="685">
       <c r="A685" s="1" t="inlineStr">
         <is>
-          <t>F</t>
+          <t>C</t>
         </is>
       </c>
       <c r="B685" s="1" t="n"/>
@@ -13625,7 +13625,7 @@
     <row r="686">
       <c r="A686" s="1" t="inlineStr">
         <is>
-          <t>C</t>
+          <t>F</t>
         </is>
       </c>
       <c r="B686" s="1" t="n"/>
@@ -13633,7 +13633,7 @@
     <row r="687">
       <c r="A687" s="1" t="inlineStr">
         <is>
-          <t>F</t>
+          <t>C</t>
         </is>
       </c>
       <c r="B687" s="1" t="n"/>
@@ -13641,7 +13641,7 @@
     <row r="688">
       <c r="A688" s="1" t="inlineStr">
         <is>
-          <t>F</t>
+          <t>C</t>
         </is>
       </c>
       <c r="B688" s="1" t="n"/>
@@ -13649,7 +13649,7 @@
     <row r="689">
       <c r="A689" s="1" t="inlineStr">
         <is>
-          <t>F</t>
+          <t>C</t>
         </is>
       </c>
       <c r="B689" s="1" t="n"/>
@@ -13665,7 +13665,7 @@
     <row r="691">
       <c r="A691" s="1" t="inlineStr">
         <is>
-          <t>F</t>
+          <t>C</t>
         </is>
       </c>
       <c r="B691" s="1" t="n"/>
@@ -13681,7 +13681,7 @@
     <row r="693">
       <c r="A693" s="1" t="inlineStr">
         <is>
-          <t>C</t>
+          <t>F</t>
         </is>
       </c>
       <c r="B693" s="1" t="n"/>
@@ -13697,7 +13697,7 @@
     <row r="695">
       <c r="A695" s="1" t="inlineStr">
         <is>
-          <t>F</t>
+          <t>C</t>
         </is>
       </c>
       <c r="B695" s="1" t="n"/>
@@ -13705,7 +13705,7 @@
     <row r="696">
       <c r="A696" s="1" t="inlineStr">
         <is>
-          <t>C</t>
+          <t>F</t>
         </is>
       </c>
       <c r="B696" s="1" t="n"/>
@@ -13713,7 +13713,7 @@
     <row r="697">
       <c r="A697" s="1" t="inlineStr">
         <is>
-          <t>C</t>
+          <t>F</t>
         </is>
       </c>
       <c r="B697" s="1" t="n"/>
@@ -13721,7 +13721,7 @@
     <row r="698">
       <c r="A698" s="1" t="inlineStr">
         <is>
-          <t>C</t>
+          <t>F</t>
         </is>
       </c>
       <c r="B698" s="1" t="n"/>
@@ -13729,7 +13729,7 @@
     <row r="699">
       <c r="A699" s="1" t="inlineStr">
         <is>
-          <t>C</t>
+          <t>F</t>
         </is>
       </c>
       <c r="B699" s="1" t="n"/>
@@ -13737,7 +13737,7 @@
     <row r="700">
       <c r="A700" s="1" t="inlineStr">
         <is>
-          <t>C</t>
+          <t>F</t>
         </is>
       </c>
       <c r="B700" s="1" t="n"/>
@@ -13753,7 +13753,7 @@
     <row r="702">
       <c r="A702" s="1" t="inlineStr">
         <is>
-          <t>C</t>
+          <t>F</t>
         </is>
       </c>
       <c r="B702" s="1" t="n"/>
@@ -13761,7 +13761,7 @@
     <row r="703">
       <c r="A703" s="1" t="inlineStr">
         <is>
-          <t>C</t>
+          <t>F</t>
         </is>
       </c>
       <c r="B703" s="1" t="n"/>
@@ -13769,7 +13769,7 @@
     <row r="704">
       <c r="A704" s="1" t="inlineStr">
         <is>
-          <t>F</t>
+          <t>C</t>
         </is>
       </c>
       <c r="B704" s="1" t="n"/>
@@ -13777,7 +13777,7 @@
     <row r="705">
       <c r="A705" s="1" t="inlineStr">
         <is>
-          <t>F</t>
+          <t>C</t>
         </is>
       </c>
       <c r="B705" s="1" t="n"/>
@@ -13817,7 +13817,7 @@
     <row r="710">
       <c r="A710" s="1" t="inlineStr">
         <is>
-          <t>C</t>
+          <t>F</t>
         </is>
       </c>
       <c r="B710" s="1" t="n"/>
@@ -13833,7 +13833,7 @@
     <row r="712">
       <c r="A712" s="1" t="inlineStr">
         <is>
-          <t>C</t>
+          <t>F</t>
         </is>
       </c>
       <c r="B712" s="1" t="n"/>
@@ -13841,7 +13841,7 @@
     <row r="713">
       <c r="A713" s="1" t="inlineStr">
         <is>
-          <t>C</t>
+          <t>F</t>
         </is>
       </c>
       <c r="B713" s="1" t="n"/>
@@ -13857,7 +13857,7 @@
     <row r="715">
       <c r="A715" s="1" t="inlineStr">
         <is>
-          <t>C</t>
+          <t>F</t>
         </is>
       </c>
       <c r="B715" s="1" t="n"/>
@@ -13865,7 +13865,7 @@
     <row r="716">
       <c r="A716" s="1" t="inlineStr">
         <is>
-          <t>F</t>
+          <t>C</t>
         </is>
       </c>
       <c r="B716" s="1" t="n"/>
@@ -13881,7 +13881,7 @@
     <row r="718">
       <c r="A718" s="1" t="inlineStr">
         <is>
-          <t>F</t>
+          <t>C</t>
         </is>
       </c>
       <c r="B718" s="1" t="n"/>
@@ -13897,7 +13897,7 @@
     <row r="720">
       <c r="A720" s="1" t="inlineStr">
         <is>
-          <t>C</t>
+          <t>F</t>
         </is>
       </c>
       <c r="B720" s="1" t="n"/>
@@ -13905,7 +13905,7 @@
     <row r="721">
       <c r="A721" s="1" t="inlineStr">
         <is>
-          <t>C</t>
+          <t>F</t>
         </is>
       </c>
       <c r="B721" s="1" t="n"/>
@@ -13921,7 +13921,7 @@
     <row r="723">
       <c r="A723" s="1" t="inlineStr">
         <is>
-          <t>C</t>
+          <t>F</t>
         </is>
       </c>
       <c r="B723" s="1" t="n"/>
@@ -13937,7 +13937,7 @@
     <row r="725">
       <c r="A725" s="1" t="inlineStr">
         <is>
-          <t>C</t>
+          <t>F</t>
         </is>
       </c>
       <c r="B725" s="1" t="n"/>
@@ -13953,7 +13953,7 @@
     <row r="727">
       <c r="A727" s="1" t="inlineStr">
         <is>
-          <t>F</t>
+          <t>C</t>
         </is>
       </c>
       <c r="B727" s="1" t="n"/>
@@ -13961,7 +13961,7 @@
     <row r="728">
       <c r="A728" s="1" t="inlineStr">
         <is>
-          <t>F</t>
+          <t>C</t>
         </is>
       </c>
       <c r="B728" s="1" t="n"/>
@@ -13969,7 +13969,7 @@
     <row r="729">
       <c r="A729" s="1" t="inlineStr">
         <is>
-          <t>C</t>
+          <t>F</t>
         </is>
       </c>
       <c r="B729" s="1" t="n"/>
@@ -13977,7 +13977,7 @@
     <row r="730">
       <c r="A730" s="1" t="inlineStr">
         <is>
-          <t>C</t>
+          <t>F</t>
         </is>
       </c>
       <c r="B730" s="1" t="n"/>
@@ -13993,7 +13993,7 @@
     <row r="732">
       <c r="A732" s="1" t="inlineStr">
         <is>
-          <t>C</t>
+          <t>F</t>
         </is>
       </c>
       <c r="B732" s="1" t="n"/>
@@ -14033,7 +14033,7 @@
     <row r="737">
       <c r="A737" s="1" t="inlineStr">
         <is>
-          <t>F</t>
+          <t>C</t>
         </is>
       </c>
       <c r="B737" s="1" t="n"/>
@@ -14041,7 +14041,7 @@
     <row r="738">
       <c r="A738" s="1" t="inlineStr">
         <is>
-          <t>F</t>
+          <t>C</t>
         </is>
       </c>
       <c r="B738" s="1" t="n"/>
@@ -14049,7 +14049,7 @@
     <row r="739">
       <c r="A739" s="1" t="inlineStr">
         <is>
-          <t>F</t>
+          <t>C</t>
         </is>
       </c>
       <c r="B739" s="1" t="n"/>
@@ -14057,7 +14057,7 @@
     <row r="740">
       <c r="A740" s="1" t="inlineStr">
         <is>
-          <t>C</t>
+          <t>F</t>
         </is>
       </c>
       <c r="B740" s="1" t="n"/>
@@ -14065,7 +14065,7 @@
     <row r="741">
       <c r="A741" s="1" t="inlineStr">
         <is>
-          <t>C</t>
+          <t>F</t>
         </is>
       </c>
       <c r="B741" s="1" t="n"/>
@@ -14089,7 +14089,7 @@
     <row r="744">
       <c r="A744" s="1" t="inlineStr">
         <is>
-          <t>C</t>
+          <t>F</t>
         </is>
       </c>
       <c r="B744" s="1" t="n"/>
@@ -14105,7 +14105,7 @@
     <row r="746">
       <c r="A746" s="1" t="inlineStr">
         <is>
-          <t>C</t>
+          <t>F</t>
         </is>
       </c>
       <c r="B746" s="1" t="n"/>
@@ -14113,7 +14113,7 @@
     <row r="747">
       <c r="A747" s="1" t="inlineStr">
         <is>
-          <t>C</t>
+          <t>F</t>
         </is>
       </c>
       <c r="B747" s="1" t="n"/>
@@ -14121,7 +14121,7 @@
     <row r="748">
       <c r="A748" s="1" t="inlineStr">
         <is>
-          <t>C</t>
+          <t>F</t>
         </is>
       </c>
       <c r="B748" s="1" t="n"/>
@@ -14129,7 +14129,7 @@
     <row r="749">
       <c r="A749" s="1" t="inlineStr">
         <is>
-          <t>C</t>
+          <t>F</t>
         </is>
       </c>
       <c r="B749" s="1" t="n"/>
@@ -14137,7 +14137,7 @@
     <row r="750">
       <c r="A750" s="1" t="inlineStr">
         <is>
-          <t>C</t>
+          <t>F</t>
         </is>
       </c>
       <c r="B750" s="1" t="n"/>
@@ -14145,7 +14145,7 @@
     <row r="751">
       <c r="A751" s="1" t="inlineStr">
         <is>
-          <t>C</t>
+          <t>F</t>
         </is>
       </c>
       <c r="B751" s="1" t="n"/>
@@ -14153,7 +14153,7 @@
     <row r="752">
       <c r="A752" s="1" t="inlineStr">
         <is>
-          <t>F</t>
+          <t>C</t>
         </is>
       </c>
       <c r="B752" s="1" t="n"/>
@@ -14161,7 +14161,7 @@
     <row r="753">
       <c r="A753" s="1" t="inlineStr">
         <is>
-          <t>C</t>
+          <t>F</t>
         </is>
       </c>
       <c r="B753" s="1" t="n"/>
@@ -14169,7 +14169,7 @@
     <row r="754">
       <c r="A754" s="1" t="inlineStr">
         <is>
-          <t>C</t>
+          <t>F</t>
         </is>
       </c>
       <c r="B754" s="1" t="n"/>
@@ -14177,7 +14177,7 @@
     <row r="755">
       <c r="A755" s="1" t="inlineStr">
         <is>
-          <t>F</t>
+          <t>C</t>
         </is>
       </c>
       <c r="B755" s="1" t="n"/>
@@ -14185,7 +14185,7 @@
     <row r="756">
       <c r="A756" s="1" t="inlineStr">
         <is>
-          <t>F</t>
+          <t>C</t>
         </is>
       </c>
       <c r="B756" s="1" t="n"/>
@@ -14193,7 +14193,7 @@
     <row r="757">
       <c r="A757" s="1" t="inlineStr">
         <is>
-          <t>C</t>
+          <t>F</t>
         </is>
       </c>
       <c r="B757" s="1" t="n"/>
@@ -14201,7 +14201,7 @@
     <row r="758">
       <c r="A758" s="1" t="inlineStr">
         <is>
-          <t>C</t>
+          <t>F</t>
         </is>
       </c>
       <c r="B758" s="1" t="n"/>
@@ -14209,7 +14209,7 @@
     <row r="759">
       <c r="A759" s="1" t="inlineStr">
         <is>
-          <t>C</t>
+          <t>F</t>
         </is>
       </c>
       <c r="B759" s="1" t="n"/>
@@ -14217,7 +14217,7 @@
     <row r="760">
       <c r="A760" s="1" t="inlineStr">
         <is>
-          <t>F</t>
+          <t>C</t>
         </is>
       </c>
       <c r="B760" s="1" t="n"/>
@@ -14225,7 +14225,7 @@
     <row r="761">
       <c r="A761" s="1" t="inlineStr">
         <is>
-          <t>F</t>
+          <t>C</t>
         </is>
       </c>
       <c r="B761" s="1" t="n"/>
@@ -14233,7 +14233,7 @@
     <row r="762">
       <c r="A762" s="1" t="inlineStr">
         <is>
-          <t>C</t>
+          <t>F</t>
         </is>
       </c>
       <c r="B762" s="1" t="n"/>
@@ -14241,7 +14241,7 @@
     <row r="763">
       <c r="A763" s="1" t="inlineStr">
         <is>
-          <t>C</t>
+          <t>F</t>
         </is>
       </c>
       <c r="B763" s="1" t="n"/>
@@ -14249,7 +14249,7 @@
     <row r="764">
       <c r="A764" s="1" t="inlineStr">
         <is>
-          <t>C</t>
+          <t>F</t>
         </is>
       </c>
       <c r="B764" s="1" t="n"/>
@@ -14257,7 +14257,7 @@
     <row r="765">
       <c r="A765" s="1" t="inlineStr">
         <is>
-          <t>C</t>
+          <t>F</t>
         </is>
       </c>
       <c r="B765" s="1" t="n"/>
@@ -14265,7 +14265,7 @@
     <row r="766">
       <c r="A766" s="1" t="inlineStr">
         <is>
-          <t>F</t>
+          <t>C</t>
         </is>
       </c>
       <c r="B766" s="1" t="n"/>
@@ -14273,7 +14273,7 @@
     <row r="767">
       <c r="A767" s="1" t="inlineStr">
         <is>
-          <t>F</t>
+          <t>C</t>
         </is>
       </c>
       <c r="B767" s="1" t="n"/>
@@ -14297,7 +14297,7 @@
     <row r="770">
       <c r="A770" s="1" t="inlineStr">
         <is>
-          <t>C</t>
+          <t>F</t>
         </is>
       </c>
       <c r="B770" s="1" t="n"/>
@@ -14305,7 +14305,7 @@
     <row r="771">
       <c r="A771" s="1" t="inlineStr">
         <is>
-          <t>C</t>
+          <t>F</t>
         </is>
       </c>
       <c r="B771" s="1" t="n"/>
@@ -14321,7 +14321,7 @@
     <row r="773">
       <c r="A773" s="1" t="inlineStr">
         <is>
-          <t>C</t>
+          <t>F</t>
         </is>
       </c>
       <c r="B773" s="1" t="n"/>
@@ -14329,7 +14329,7 @@
     <row r="774">
       <c r="A774" s="1" t="inlineStr">
         <is>
-          <t>C</t>
+          <t>F</t>
         </is>
       </c>
       <c r="B774" s="1" t="n"/>
@@ -14337,7 +14337,7 @@
     <row r="775">
       <c r="A775" s="1" t="inlineStr">
         <is>
-          <t>F</t>
+          <t>C</t>
         </is>
       </c>
       <c r="B775" s="1" t="n"/>
@@ -14345,7 +14345,7 @@
     <row r="776">
       <c r="A776" s="1" t="inlineStr">
         <is>
-          <t>C</t>
+          <t>F</t>
         </is>
       </c>
       <c r="B776" s="1" t="n"/>
@@ -14361,7 +14361,7 @@
     <row r="778">
       <c r="A778" s="1" t="inlineStr">
         <is>
-          <t>C</t>
+          <t>F</t>
         </is>
       </c>
       <c r="B778" s="1" t="n"/>
@@ -14369,7 +14369,7 @@
     <row r="779">
       <c r="A779" s="1" t="inlineStr">
         <is>
-          <t>C</t>
+          <t>F</t>
         </is>
       </c>
       <c r="B779" s="1" t="n"/>
@@ -14377,7 +14377,7 @@
     <row r="780">
       <c r="A780" s="1" t="inlineStr">
         <is>
-          <t>F</t>
+          <t>C</t>
         </is>
       </c>
       <c r="B780" s="1" t="n"/>
@@ -14385,7 +14385,7 @@
     <row r="781">
       <c r="A781" s="1" t="inlineStr">
         <is>
-          <t>C</t>
+          <t>F</t>
         </is>
       </c>
       <c r="B781" s="1" t="n"/>
@@ -14393,7 +14393,7 @@
     <row r="782">
       <c r="A782" s="1" t="inlineStr">
         <is>
-          <t>F</t>
+          <t>C</t>
         </is>
       </c>
       <c r="B782" s="1" t="n"/>
@@ -14401,7 +14401,7 @@
     <row r="783">
       <c r="A783" s="1" t="inlineStr">
         <is>
-          <t>C</t>
+          <t>F</t>
         </is>
       </c>
       <c r="B783" s="1" t="n"/>
@@ -14409,7 +14409,7 @@
     <row r="784">
       <c r="A784" s="1" t="inlineStr">
         <is>
-          <t>C</t>
+          <t>F</t>
         </is>
       </c>
       <c r="B784" s="1" t="n"/>
@@ -14417,7 +14417,7 @@
     <row r="785">
       <c r="A785" s="1" t="inlineStr">
         <is>
-          <t>C</t>
+          <t>F</t>
         </is>
       </c>
       <c r="B785" s="1" t="n"/>
@@ -14425,7 +14425,7 @@
     <row r="786">
       <c r="A786" s="1" t="inlineStr">
         <is>
-          <t>C</t>
+          <t>F</t>
         </is>
       </c>
       <c r="B786" s="1" t="n"/>
@@ -14433,7 +14433,7 @@
     <row r="787">
       <c r="A787" s="1" t="inlineStr">
         <is>
-          <t>F</t>
+          <t>C</t>
         </is>
       </c>
       <c r="B787" s="1" t="n"/>
@@ -14441,7 +14441,7 @@
     <row r="788">
       <c r="A788" s="1" t="inlineStr">
         <is>
-          <t>C</t>
+          <t>F</t>
         </is>
       </c>
       <c r="B788" s="1" t="n"/>
@@ -14449,7 +14449,7 @@
     <row r="789">
       <c r="A789" s="1" t="inlineStr">
         <is>
-          <t>F</t>
+          <t>C</t>
         </is>
       </c>
       <c r="B789" s="1" t="n"/>
@@ -14481,7 +14481,7 @@
     <row r="793">
       <c r="A793" s="1" t="inlineStr">
         <is>
-          <t>C</t>
+          <t>F</t>
         </is>
       </c>
       <c r="B793" s="1" t="n"/>
@@ -14505,7 +14505,7 @@
     <row r="796">
       <c r="A796" s="1" t="inlineStr">
         <is>
-          <t>F</t>
+          <t>C</t>
         </is>
       </c>
       <c r="B796" s="1" t="n"/>
@@ -14513,7 +14513,7 @@
     <row r="797">
       <c r="A797" s="1" t="inlineStr">
         <is>
-          <t>C</t>
+          <t>F</t>
         </is>
       </c>
       <c r="B797" s="1" t="n"/>
@@ -14529,7 +14529,7 @@
     <row r="799">
       <c r="A799" s="1" t="inlineStr">
         <is>
-          <t>C</t>
+          <t>F</t>
         </is>
       </c>
       <c r="B799" s="1" t="n"/>
@@ -14545,7 +14545,7 @@
     <row r="801">
       <c r="A801" s="1" t="inlineStr">
         <is>
-          <t>C</t>
+          <t>F</t>
         </is>
       </c>
       <c r="B801" s="1" t="n"/>
@@ -14553,7 +14553,7 @@
     <row r="802">
       <c r="A802" s="1" t="inlineStr">
         <is>
-          <t>F</t>
+          <t>C</t>
         </is>
       </c>
       <c r="B802" s="1" t="n"/>
@@ -14561,7 +14561,7 @@
     <row r="803">
       <c r="A803" s="1" t="inlineStr">
         <is>
-          <t>F</t>
+          <t>C</t>
         </is>
       </c>
       <c r="B803" s="1" t="n"/>
@@ -14569,7 +14569,7 @@
     <row r="804">
       <c r="A804" s="1" t="inlineStr">
         <is>
-          <t>C</t>
+          <t>F</t>
         </is>
       </c>
       <c r="B804" s="1" t="n"/>
@@ -14577,7 +14577,7 @@
     <row r="805">
       <c r="A805" s="1" t="inlineStr">
         <is>
-          <t>C</t>
+          <t>F</t>
         </is>
       </c>
       <c r="B805" s="1" t="n"/>
@@ -14585,7 +14585,7 @@
     <row r="806">
       <c r="A806" s="1" t="inlineStr">
         <is>
-          <t>F</t>
+          <t>C</t>
         </is>
       </c>
       <c r="B806" s="1" t="n"/>
@@ -14593,7 +14593,7 @@
     <row r="807">
       <c r="A807" s="1" t="inlineStr">
         <is>
-          <t>C</t>
+          <t>F</t>
         </is>
       </c>
       <c r="B807" s="1" t="n"/>
@@ -14601,7 +14601,7 @@
     <row r="808">
       <c r="A808" s="1" t="inlineStr">
         <is>
-          <t>F</t>
+          <t>C</t>
         </is>
       </c>
       <c r="B808" s="1" t="n"/>
@@ -14617,7 +14617,7 @@
     <row r="810">
       <c r="A810" s="1" t="inlineStr">
         <is>
-          <t>F</t>
+          <t>C</t>
         </is>
       </c>
       <c r="B810" s="1" t="n"/>
@@ -14625,7 +14625,7 @@
     <row r="811">
       <c r="A811" s="1" t="inlineStr">
         <is>
-          <t>F</t>
+          <t>C</t>
         </is>
       </c>
       <c r="B811" s="1" t="n"/>
@@ -14633,7 +14633,7 @@
     <row r="812">
       <c r="A812" s="1" t="inlineStr">
         <is>
-          <t>C</t>
+          <t>F</t>
         </is>
       </c>
       <c r="B812" s="1" t="n"/>
@@ -14641,7 +14641,7 @@
     <row r="813">
       <c r="A813" s="1" t="inlineStr">
         <is>
-          <t>F</t>
+          <t>C</t>
         </is>
       </c>
       <c r="B813" s="1" t="n"/>
@@ -14649,7 +14649,7 @@
     <row r="814">
       <c r="A814" s="1" t="inlineStr">
         <is>
-          <t>C</t>
+          <t>F</t>
         </is>
       </c>
       <c r="B814" s="1" t="n"/>
@@ -14681,7 +14681,7 @@
     <row r="818">
       <c r="A818" s="1" t="inlineStr">
         <is>
-          <t>C</t>
+          <t>F</t>
         </is>
       </c>
       <c r="B818" s="1" t="n"/>
@@ -14697,7 +14697,7 @@
     <row r="820">
       <c r="A820" s="1" t="inlineStr">
         <is>
-          <t>C</t>
+          <t>F</t>
         </is>
       </c>
       <c r="B820" s="1" t="n"/>
@@ -14705,7 +14705,7 @@
     <row r="821">
       <c r="A821" s="1" t="inlineStr">
         <is>
-          <t>C</t>
+          <t>F</t>
         </is>
       </c>
       <c r="B821" s="1" t="n"/>
@@ -14713,7 +14713,7 @@
     <row r="822">
       <c r="A822" s="1" t="inlineStr">
         <is>
-          <t>C</t>
+          <t>F</t>
         </is>
       </c>
       <c r="B822" s="1" t="n"/>
@@ -14721,7 +14721,7 @@
     <row r="823">
       <c r="A823" s="1" t="inlineStr">
         <is>
-          <t>F</t>
+          <t>C</t>
         </is>
       </c>
       <c r="B823" s="1" t="n"/>
@@ -14729,7 +14729,7 @@
     <row r="824">
       <c r="A824" s="1" t="inlineStr">
         <is>
-          <t>C</t>
+          <t>F</t>
         </is>
       </c>
       <c r="B824" s="1" t="n"/>
@@ -14737,7 +14737,7 @@
     <row r="825">
       <c r="A825" s="1" t="inlineStr">
         <is>
-          <t>F</t>
+          <t>C</t>
         </is>
       </c>
       <c r="B825" s="1" t="n"/>
@@ -14745,7 +14745,7 @@
     <row r="826">
       <c r="A826" s="1" t="inlineStr">
         <is>
-          <t>C</t>
+          <t>F</t>
         </is>
       </c>
       <c r="B826" s="1" t="n"/>
@@ -14753,7 +14753,7 @@
     <row r="827">
       <c r="A827" s="1" t="inlineStr">
         <is>
-          <t>F</t>
+          <t>C</t>
         </is>
       </c>
       <c r="B827" s="1" t="n"/>
@@ -14761,7 +14761,7 @@
     <row r="828">
       <c r="A828" s="1" t="inlineStr">
         <is>
-          <t>C</t>
+          <t>F</t>
         </is>
       </c>
       <c r="B828" s="1" t="n"/>
@@ -14769,7 +14769,7 @@
     <row r="829">
       <c r="A829" s="1" t="inlineStr">
         <is>
-          <t>C</t>
+          <t>F</t>
         </is>
       </c>
       <c r="B829" s="1" t="n"/>
@@ -14777,7 +14777,7 @@
     <row r="830">
       <c r="A830" s="1" t="inlineStr">
         <is>
-          <t>C</t>
+          <t>F</t>
         </is>
       </c>
       <c r="B830" s="1" t="n"/>
@@ -14785,7 +14785,7 @@
     <row r="831">
       <c r="A831" s="1" t="inlineStr">
         <is>
-          <t>F</t>
+          <t>C</t>
         </is>
       </c>
       <c r="B831" s="1" t="n"/>
@@ -14801,7 +14801,7 @@
     <row r="833">
       <c r="A833" s="1" t="inlineStr">
         <is>
-          <t>C</t>
+          <t>F</t>
         </is>
       </c>
       <c r="B833" s="1" t="n"/>
@@ -14825,7 +14825,7 @@
     <row r="836">
       <c r="A836" s="1" t="inlineStr">
         <is>
-          <t>C</t>
+          <t>F</t>
         </is>
       </c>
       <c r="B836" s="1" t="n"/>
@@ -14849,7 +14849,7 @@
     <row r="839">
       <c r="A839" s="1" t="inlineStr">
         <is>
-          <t>F</t>
+          <t>C</t>
         </is>
       </c>
       <c r="B839" s="1" t="n"/>
@@ -14857,7 +14857,7 @@
     <row r="840">
       <c r="A840" s="1" t="inlineStr">
         <is>
-          <t>F</t>
+          <t>C</t>
         </is>
       </c>
       <c r="B840" s="1" t="n"/>
@@ -14865,7 +14865,7 @@
     <row r="841">
       <c r="A841" s="1" t="inlineStr">
         <is>
-          <t>C</t>
+          <t>F</t>
         </is>
       </c>
       <c r="B841" s="1" t="n"/>
@@ -14873,7 +14873,7 @@
     <row r="842">
       <c r="A842" s="1" t="inlineStr">
         <is>
-          <t>C</t>
+          <t>F</t>
         </is>
       </c>
       <c r="B842" s="1" t="n"/>
@@ -14881,7 +14881,7 @@
     <row r="843">
       <c r="A843" s="1" t="inlineStr">
         <is>
-          <t>C</t>
+          <t>F</t>
         </is>
       </c>
       <c r="B843" s="1" t="n"/>
@@ -14905,7 +14905,7 @@
     <row r="846">
       <c r="A846" s="1" t="inlineStr">
         <is>
-          <t>F</t>
+          <t>C</t>
         </is>
       </c>
       <c r="B846" s="1" t="n"/>
@@ -14929,7 +14929,7 @@
     <row r="849">
       <c r="A849" s="1" t="inlineStr">
         <is>
-          <t>C</t>
+          <t>F</t>
         </is>
       </c>
       <c r="B849" s="1" t="n"/>
@@ -14945,7 +14945,7 @@
     <row r="851">
       <c r="A851" s="1" t="inlineStr">
         <is>
-          <t>F</t>
+          <t>C</t>
         </is>
       </c>
       <c r="B851" s="1" t="n"/>
@@ -14961,7 +14961,7 @@
     <row r="853">
       <c r="A853" s="1" t="inlineStr">
         <is>
-          <t>F</t>
+          <t>C</t>
         </is>
       </c>
       <c r="B853" s="1" t="n"/>
@@ -14969,7 +14969,7 @@
     <row r="854">
       <c r="A854" s="1" t="inlineStr">
         <is>
-          <t>C</t>
+          <t>F</t>
         </is>
       </c>
       <c r="B854" s="1" t="n"/>
@@ -14977,7 +14977,7 @@
     <row r="855">
       <c r="A855" s="1" t="inlineStr">
         <is>
-          <t>C</t>
+          <t>F</t>
         </is>
       </c>
       <c r="B855" s="1" t="n"/>
@@ -14985,7 +14985,7 @@
     <row r="856">
       <c r="A856" s="1" t="inlineStr">
         <is>
-          <t>C</t>
+          <t>F</t>
         </is>
       </c>
       <c r="B856" s="1" t="n"/>
@@ -14993,7 +14993,7 @@
     <row r="857">
       <c r="A857" s="1" t="inlineStr">
         <is>
-          <t>C</t>
+          <t>F</t>
         </is>
       </c>
       <c r="B857" s="1" t="n"/>
@@ -15001,7 +15001,7 @@
     <row r="858">
       <c r="A858" s="1" t="inlineStr">
         <is>
-          <t>C</t>
+          <t>F</t>
         </is>
       </c>
       <c r="B858" s="1" t="n"/>
@@ -15009,7 +15009,7 @@
     <row r="859">
       <c r="A859" s="1" t="inlineStr">
         <is>
-          <t>F</t>
+          <t>C</t>
         </is>
       </c>
       <c r="B859" s="1" t="n"/>
@@ -15017,7 +15017,7 @@
     <row r="860">
       <c r="A860" s="1" t="inlineStr">
         <is>
-          <t>C</t>
+          <t>F</t>
         </is>
       </c>
       <c r="B860" s="1" t="n"/>
@@ -15033,7 +15033,7 @@
     <row r="862">
       <c r="A862" s="1" t="inlineStr">
         <is>
-          <t>C</t>
+          <t>F</t>
         </is>
       </c>
       <c r="B862" s="1" t="n"/>
@@ -15049,7 +15049,7 @@
     <row r="864">
       <c r="A864" s="1" t="inlineStr">
         <is>
-          <t>F</t>
+          <t>C</t>
         </is>
       </c>
       <c r="B864" s="1" t="n"/>
@@ -15057,7 +15057,7 @@
     <row r="865">
       <c r="A865" s="1" t="inlineStr">
         <is>
-          <t>F</t>
+          <t>C</t>
         </is>
       </c>
       <c r="B865" s="1" t="n"/>
@@ -15073,7 +15073,7 @@
     <row r="867">
       <c r="A867" s="1" t="inlineStr">
         <is>
-          <t>F</t>
+          <t>C</t>
         </is>
       </c>
       <c r="B867" s="1" t="n"/>
@@ -15081,7 +15081,7 @@
     <row r="868">
       <c r="A868" s="1" t="inlineStr">
         <is>
-          <t>C</t>
+          <t>F</t>
         </is>
       </c>
       <c r="B868" s="1" t="n"/>
@@ -15089,7 +15089,7 @@
     <row r="869">
       <c r="A869" s="1" t="inlineStr">
         <is>
-          <t>F</t>
+          <t>C</t>
         </is>
       </c>
       <c r="B869" s="1" t="n"/>
@@ -15097,7 +15097,7 @@
     <row r="870">
       <c r="A870" s="1" t="inlineStr">
         <is>
-          <t>C</t>
+          <t>F</t>
         </is>
       </c>
       <c r="B870" s="1" t="n"/>
@@ -15113,7 +15113,7 @@
     <row r="872">
       <c r="A872" s="1" t="inlineStr">
         <is>
-          <t>F</t>
+          <t>C</t>
         </is>
       </c>
       <c r="B872" s="1" t="n"/>
@@ -15129,7 +15129,7 @@
     <row r="874">
       <c r="A874" s="1" t="inlineStr">
         <is>
-          <t>F</t>
+          <t>C</t>
         </is>
       </c>
       <c r="B874" s="1" t="n"/>
@@ -15145,7 +15145,7 @@
     <row r="876">
       <c r="A876" s="1" t="inlineStr">
         <is>
-          <t>C</t>
+          <t>F</t>
         </is>
       </c>
       <c r="B876" s="1" t="n"/>
@@ -15153,7 +15153,7 @@
     <row r="877">
       <c r="A877" s="1" t="inlineStr">
         <is>
-          <t>F</t>
+          <t>C</t>
         </is>
       </c>
       <c r="B877" s="1" t="n"/>
@@ -15177,7 +15177,7 @@
     <row r="880">
       <c r="A880" s="1" t="inlineStr">
         <is>
-          <t>C</t>
+          <t>F</t>
         </is>
       </c>
       <c r="B880" s="1" t="n"/>
@@ -15185,7 +15185,7 @@
     <row r="881">
       <c r="A881" s="1" t="inlineStr">
         <is>
-          <t>C</t>
+          <t>F</t>
         </is>
       </c>
       <c r="B881" s="1" t="n"/>
@@ -15209,7 +15209,7 @@
     <row r="884">
       <c r="A884" s="1" t="inlineStr">
         <is>
-          <t>F</t>
+          <t>C</t>
         </is>
       </c>
       <c r="B884" s="1" t="n"/>
@@ -15225,7 +15225,7 @@
     <row r="886">
       <c r="A886" s="1" t="inlineStr">
         <is>
-          <t>C</t>
+          <t>F</t>
         </is>
       </c>
       <c r="B886" s="1" t="n"/>
@@ -15233,7 +15233,7 @@
     <row r="887">
       <c r="A887" s="1" t="inlineStr">
         <is>
-          <t>F</t>
+          <t>C</t>
         </is>
       </c>
       <c r="B887" s="1" t="n"/>
@@ -15241,7 +15241,7 @@
     <row r="888">
       <c r="A888" s="1" t="inlineStr">
         <is>
-          <t>F</t>
+          <t>C</t>
         </is>
       </c>
       <c r="B888" s="1" t="n"/>
@@ -15249,7 +15249,7 @@
     <row r="889">
       <c r="A889" s="1" t="inlineStr">
         <is>
-          <t>C</t>
+          <t>F</t>
         </is>
       </c>
       <c r="B889" s="1" t="n"/>
@@ -15257,7 +15257,7 @@
     <row r="890">
       <c r="A890" s="1" t="inlineStr">
         <is>
-          <t>C</t>
+          <t>F</t>
         </is>
       </c>
       <c r="B890" s="1" t="n"/>
@@ -15273,7 +15273,7 @@
     <row r="892">
       <c r="A892" s="1" t="inlineStr">
         <is>
-          <t>C</t>
+          <t>F</t>
         </is>
       </c>
       <c r="B892" s="1" t="n"/>
@@ -15313,7 +15313,7 @@
     <row r="897">
       <c r="A897" s="1" t="inlineStr">
         <is>
-          <t>F</t>
+          <t>C</t>
         </is>
       </c>
       <c r="B897" s="1" t="n"/>
@@ -15321,7 +15321,7 @@
     <row r="898">
       <c r="A898" s="1" t="inlineStr">
         <is>
-          <t>C</t>
+          <t>F</t>
         </is>
       </c>
       <c r="B898" s="1" t="n"/>
@@ -15329,7 +15329,7 @@
     <row r="899">
       <c r="A899" s="1" t="inlineStr">
         <is>
-          <t>F</t>
+          <t>C</t>
         </is>
       </c>
       <c r="B899" s="1" t="n"/>
@@ -15337,7 +15337,7 @@
     <row r="900">
       <c r="A900" s="1" t="inlineStr">
         <is>
-          <t>C</t>
+          <t>F</t>
         </is>
       </c>
       <c r="B900" s="1" t="n"/>
@@ -15345,7 +15345,7 @@
     <row r="901">
       <c r="A901" s="1" t="inlineStr">
         <is>
-          <t>C</t>
+          <t>F</t>
         </is>
       </c>
       <c r="B901" s="1" t="n"/>
@@ -15361,7 +15361,7 @@
     <row r="903">
       <c r="A903" s="1" t="inlineStr">
         <is>
-          <t>C</t>
+          <t>F</t>
         </is>
       </c>
       <c r="B903" s="1" t="n"/>
@@ -15369,7 +15369,7 @@
     <row r="904">
       <c r="A904" s="1" t="inlineStr">
         <is>
-          <t>C</t>
+          <t>F</t>
         </is>
       </c>
       <c r="B904" s="1" t="n"/>
@@ -15377,7 +15377,7 @@
     <row r="905">
       <c r="A905" s="1" t="inlineStr">
         <is>
-          <t>F</t>
+          <t>C</t>
         </is>
       </c>
       <c r="B905" s="1" t="n"/>
@@ -15385,7 +15385,7 @@
     <row r="906">
       <c r="A906" s="1" t="inlineStr">
         <is>
-          <t>F</t>
+          <t>C</t>
         </is>
       </c>
       <c r="B906" s="1" t="n"/>
@@ -15393,7 +15393,7 @@
     <row r="907">
       <c r="A907" s="1" t="inlineStr">
         <is>
-          <t>C</t>
+          <t>F</t>
         </is>
       </c>
       <c r="B907" s="1" t="n"/>
@@ -15401,7 +15401,7 @@
     <row r="908">
       <c r="A908" s="1" t="inlineStr">
         <is>
-          <t>C</t>
+          <t>F</t>
         </is>
       </c>
       <c r="B908" s="1" t="n"/>
@@ -15409,7 +15409,7 @@
     <row r="909">
       <c r="A909" s="1" t="inlineStr">
         <is>
-          <t>C</t>
+          <t>F</t>
         </is>
       </c>
       <c r="B909" s="1" t="n"/>
@@ -15425,7 +15425,7 @@
     <row r="911">
       <c r="A911" s="1" t="inlineStr">
         <is>
-          <t>C</t>
+          <t>F</t>
         </is>
       </c>
       <c r="B911" s="1" t="n"/>
@@ -15433,7 +15433,7 @@
     <row r="912">
       <c r="A912" s="1" t="inlineStr">
         <is>
-          <t>F</t>
+          <t>C</t>
         </is>
       </c>
       <c r="B912" s="1" t="n"/>
@@ -15441,7 +15441,7 @@
     <row r="913">
       <c r="A913" s="1" t="inlineStr">
         <is>
-          <t>C</t>
+          <t>F</t>
         </is>
       </c>
       <c r="B913" s="1" t="n"/>
@@ -15449,7 +15449,7 @@
     <row r="914">
       <c r="A914" s="1" t="inlineStr">
         <is>
-          <t>C</t>
+          <t>F</t>
         </is>
       </c>
       <c r="B914" s="1" t="n"/>
@@ -15481,7 +15481,7 @@
     <row r="918">
       <c r="A918" s="1" t="inlineStr">
         <is>
-          <t>C</t>
+          <t>F</t>
         </is>
       </c>
       <c r="B918" s="1" t="n"/>
@@ -15489,7 +15489,7 @@
     <row r="919">
       <c r="A919" s="1" t="inlineStr">
         <is>
-          <t>C</t>
+          <t>F</t>
         </is>
       </c>
       <c r="B919" s="1" t="n"/>
@@ -15497,7 +15497,7 @@
     <row r="920">
       <c r="A920" s="1" t="inlineStr">
         <is>
-          <t>C</t>
+          <t>F</t>
         </is>
       </c>
       <c r="B920" s="1" t="n"/>
@@ -15505,7 +15505,7 @@
     <row r="921">
       <c r="A921" s="1" t="inlineStr">
         <is>
-          <t>F</t>
+          <t>C</t>
         </is>
       </c>
       <c r="B921" s="1" t="n"/>
@@ -15513,7 +15513,7 @@
     <row r="922">
       <c r="A922" s="1" t="inlineStr">
         <is>
-          <t>F</t>
+          <t>C</t>
         </is>
       </c>
       <c r="B922" s="1" t="n"/>
@@ -15521,7 +15521,7 @@
     <row r="923">
       <c r="A923" s="1" t="inlineStr">
         <is>
-          <t>F</t>
+          <t>C</t>
         </is>
       </c>
       <c r="B923" s="1" t="n"/>
@@ -15537,7 +15537,7 @@
     <row r="925">
       <c r="A925" s="1" t="inlineStr">
         <is>
-          <t>F</t>
+          <t>C</t>
         </is>
       </c>
       <c r="B925" s="1" t="n"/>
@@ -15553,7 +15553,7 @@
     <row r="927">
       <c r="A927" s="1" t="inlineStr">
         <is>
-          <t>F</t>
+          <t>C</t>
         </is>
       </c>
       <c r="B927" s="1" t="n"/>
@@ -15561,7 +15561,7 @@
     <row r="928">
       <c r="A928" s="1" t="inlineStr">
         <is>
-          <t>C</t>
+          <t>F</t>
         </is>
       </c>
       <c r="B928" s="1" t="n"/>
@@ -15569,7 +15569,7 @@
     <row r="929">
       <c r="A929" s="1" t="inlineStr">
         <is>
-          <t>F</t>
+          <t>C</t>
         </is>
       </c>
       <c r="B929" s="1" t="n"/>
@@ -15577,7 +15577,7 @@
     <row r="930">
       <c r="A930" s="1" t="inlineStr">
         <is>
-          <t>C</t>
+          <t>F</t>
         </is>
       </c>
       <c r="B930" s="1" t="n"/>
@@ -15593,7 +15593,7 @@
     <row r="932">
       <c r="A932" s="1" t="inlineStr">
         <is>
-          <t>C</t>
+          <t>F</t>
         </is>
       </c>
       <c r="B932" s="1" t="n"/>
@@ -15601,7 +15601,7 @@
     <row r="933">
       <c r="A933" s="1" t="inlineStr">
         <is>
-          <t>C</t>
+          <t>F</t>
         </is>
       </c>
       <c r="B933" s="1" t="n"/>
@@ -15609,7 +15609,7 @@
     <row r="934">
       <c r="A934" s="1" t="inlineStr">
         <is>
-          <t>F</t>
+          <t>C</t>
         </is>
       </c>
       <c r="B934" s="1" t="n"/>
@@ -15617,7 +15617,7 @@
     <row r="935">
       <c r="A935" s="1" t="inlineStr">
         <is>
-          <t>C</t>
+          <t>F</t>
         </is>
       </c>
       <c r="B935" s="1" t="n"/>
@@ -15625,7 +15625,7 @@
     <row r="936">
       <c r="A936" s="1" t="inlineStr">
         <is>
-          <t>C</t>
+          <t>F</t>
         </is>
       </c>
       <c r="B936" s="1" t="n"/>
@@ -15633,7 +15633,7 @@
     <row r="937">
       <c r="A937" s="1" t="inlineStr">
         <is>
-          <t>F</t>
+          <t>C</t>
         </is>
       </c>
       <c r="B937" s="1" t="n"/>
@@ -15649,7 +15649,7 @@
     <row r="939">
       <c r="A939" s="1" t="inlineStr">
         <is>
-          <t>C</t>
+          <t>F</t>
         </is>
       </c>
       <c r="B939" s="1" t="n"/>
@@ -15657,7 +15657,7 @@
     <row r="940">
       <c r="A940" s="1" t="inlineStr">
         <is>
-          <t>C</t>
+          <t>F</t>
         </is>
       </c>
       <c r="B940" s="1" t="n"/>
@@ -15665,7 +15665,7 @@
     <row r="941">
       <c r="A941" s="1" t="inlineStr">
         <is>
-          <t>C</t>
+          <t>F</t>
         </is>
       </c>
       <c r="B941" s="1" t="n"/>
@@ -15673,7 +15673,7 @@
     <row r="942">
       <c r="A942" s="1" t="inlineStr">
         <is>
-          <t>C</t>
+          <t>F</t>
         </is>
       </c>
       <c r="B942" s="1" t="n"/>
@@ -15681,7 +15681,7 @@
     <row r="943">
       <c r="A943" s="1" t="inlineStr">
         <is>
-          <t>F</t>
+          <t>C</t>
         </is>
       </c>
       <c r="B943" s="1" t="n"/>
@@ -15689,7 +15689,7 @@
     <row r="944">
       <c r="A944" s="1" t="inlineStr">
         <is>
-          <t>C</t>
+          <t>F</t>
         </is>
       </c>
       <c r="B944" s="1" t="n"/>
@@ -15697,7 +15697,7 @@
     <row r="945">
       <c r="A945" s="1" t="inlineStr">
         <is>
-          <t>F</t>
+          <t>C</t>
         </is>
       </c>
       <c r="B945" s="1" t="n"/>
@@ -15705,7 +15705,7 @@
     <row r="946">
       <c r="A946" s="1" t="inlineStr">
         <is>
-          <t>C</t>
+          <t>F</t>
         </is>
       </c>
       <c r="B946" s="1" t="n"/>
@@ -15713,7 +15713,7 @@
     <row r="947">
       <c r="A947" s="1" t="inlineStr">
         <is>
-          <t>C</t>
+          <t>F</t>
         </is>
       </c>
       <c r="B947" s="1" t="n"/>
@@ -15721,7 +15721,7 @@
     <row r="948">
       <c r="A948" s="1" t="inlineStr">
         <is>
-          <t>F</t>
+          <t>C</t>
         </is>
       </c>
       <c r="B948" s="1" t="n"/>
@@ -15729,7 +15729,7 @@
     <row r="949">
       <c r="A949" s="1" t="inlineStr">
         <is>
-          <t>F</t>
+          <t>C</t>
         </is>
       </c>
       <c r="B949" s="1" t="n"/>
@@ -15737,7 +15737,7 @@
     <row r="950">
       <c r="A950" s="1" t="inlineStr">
         <is>
-          <t>F</t>
+          <t>C</t>
         </is>
       </c>
       <c r="B950" s="1" t="n"/>
